--- a/build/data/OIC Appendix Table.xlsx
+++ b/build/data/OIC Appendix Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="867">
   <si>
     <t>stcofips</t>
   </si>
@@ -2614,6 +2614,12 @@
   <si>
     <t>OIC Data Appendix</t>
   </si>
+  <si>
+    <t>yf_jobs_2000</t>
+  </si>
+  <si>
+    <t>yf_jobs_2016</t>
+  </si>
 </sst>
 </file>
 
@@ -4349,11 +4355,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="31" width="9.140625" customWidth="1"/>
+    <col min="32" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.25">
@@ -4436,13 +4446,13 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="AB1" t="s">
         <v>857</v>
       </c>
       <c r="AC1" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="AD1" t="s">
         <v>26</v>
@@ -4672,28 +4682,19 @@
         <v>94440.266741594605</v>
       </c>
       <c r="V2">
-        <v>4346895.6613769401</v>
+        <v>4336821.9570740797</v>
       </c>
       <c r="W2">
-        <v>6024108.9210327398</v>
+        <v>6005051.1856234102</v>
       </c>
       <c r="X2">
-        <v>8366063.9281115904</v>
+        <v>8331077.5136243897</v>
       </c>
       <c r="Y2">
-        <v>9748545.2862908095</v>
+        <v>9703160.8179279305</v>
       </c>
       <c r="Z2">
-        <v>11056874.6259249</v>
-      </c>
-      <c r="AA2">
-        <v>10224297</v>
-      </c>
-      <c r="AB2">
-        <v>8912158</v>
-      </c>
-      <c r="AC2">
-        <v>9253761</v>
+        <v>11000293.8719362</v>
       </c>
       <c r="AD2">
         <v>74184.813397211605</v>
@@ -4908,28 +4909,19 @@
         <v>48916.395256950498</v>
       </c>
       <c r="V3">
-        <v>2408511.04345016</v>
+        <v>2403867.4229574301</v>
       </c>
       <c r="W3">
-        <v>3332999.4296741202</v>
+        <v>3324182.2812831602</v>
       </c>
       <c r="X3">
-        <v>4501515.3778070901</v>
+        <v>4486184.1896360898</v>
       </c>
       <c r="Y3">
-        <v>5124567.9453515699</v>
+        <v>5105000.37038159</v>
       </c>
       <c r="Z3">
-        <v>5755474.9692463903</v>
-      </c>
-      <c r="AA3">
-        <v>5265298</v>
-      </c>
-      <c r="AB3">
-        <v>4588906</v>
-      </c>
-      <c r="AC3">
-        <v>4627643</v>
+        <v>5731581.2143506501</v>
       </c>
       <c r="AD3">
         <v>70564.541412732797</v>
@@ -5144,28 +5136,19 @@
         <v>17647.899548274301</v>
       </c>
       <c r="V4">
-        <v>1099801.86804346</v>
+        <v>1098957.04869389</v>
       </c>
       <c r="W4">
-        <v>1402039.53292444</v>
+        <v>1400572.79905814</v>
       </c>
       <c r="X4">
-        <v>1722969.4136667701</v>
+        <v>1720794.1127645599</v>
       </c>
       <c r="Y4">
-        <v>1838539.82797124</v>
+        <v>1835795.8300231299</v>
       </c>
       <c r="Z4">
-        <v>1960884.2479431501</v>
-      </c>
-      <c r="AA4">
-        <v>1571697</v>
-      </c>
-      <c r="AB4">
-        <v>1300912</v>
-      </c>
-      <c r="AC4">
-        <v>1347497</v>
+        <v>1957615.7445732399</v>
       </c>
       <c r="AD4">
         <v>70278.199091372197</v>
@@ -5386,19 +5369,19 @@
         <v>48.899048159704201</v>
       </c>
       <c r="V5">
-        <v>1908.71471490562</v>
+        <v>1892.34901323392</v>
       </c>
       <c r="W5">
-        <v>2571.4285962486401</v>
+        <v>2548.3486292749499</v>
       </c>
       <c r="X5">
-        <v>3486.4059071441502</v>
+        <v>3457.4354641439099</v>
       </c>
       <c r="Y5">
-        <v>3985.77909826722</v>
+        <v>3953.2463998273902</v>
       </c>
       <c r="Z5">
-        <v>4110.4333126433803</v>
+        <v>4050.3257735632301</v>
       </c>
       <c r="AA5">
         <v>5500</v>
@@ -5640,19 +5623,19 @@
         <v>366.03304174349398</v>
       </c>
       <c r="V6">
-        <v>20264.3784745347</v>
+        <v>20255.797382737899</v>
       </c>
       <c r="W6">
-        <v>25320.276567765799</v>
+        <v>25308.695733071901</v>
       </c>
       <c r="X6">
-        <v>32735.7841826351</v>
+        <v>32717.296821137701</v>
       </c>
       <c r="Y6">
-        <v>34192.963304359699</v>
+        <v>34174.504988964603</v>
       </c>
       <c r="Z6">
-        <v>36447.0552704113</v>
+        <v>36415.256384527398</v>
       </c>
       <c r="AA6">
         <v>38962</v>
@@ -5897,19 +5880,19 @@
         <v>62.858333333333299</v>
       </c>
       <c r="V7">
-        <v>1555.58065184412</v>
+        <v>1548.78800187395</v>
       </c>
       <c r="W7">
-        <v>2185.6767810566098</v>
+        <v>2173.5932737111798</v>
       </c>
       <c r="X7">
-        <v>3104.8729128790001</v>
+        <v>3087.2274208874401</v>
       </c>
       <c r="Y7">
-        <v>4192.2889503317301</v>
+        <v>4177.6567565430196</v>
       </c>
       <c r="Z7">
-        <v>5085.4539085567903</v>
+        <v>5058.7284715083797</v>
       </c>
       <c r="AA7">
         <v>6500</v>
@@ -6154,19 +6137,19 @@
         <v>201.46439590759999</v>
       </c>
       <c r="V8">
-        <v>6230.0184152076399</v>
+        <v>6209.9398409090199</v>
       </c>
       <c r="W8">
-        <v>10009.376078691201</v>
+        <v>9982.0074804716696</v>
       </c>
       <c r="X8">
-        <v>12515.9799093738</v>
+        <v>12478.4102280938</v>
       </c>
       <c r="Y8">
-        <v>18463.273217338599</v>
+        <v>18419.556736929298</v>
       </c>
       <c r="Z8">
-        <v>19944.4956195493</v>
+        <v>19872.810905174101</v>
       </c>
       <c r="AA8">
         <v>18273</v>
@@ -6411,19 +6394,19 @@
         <v>179.24166666666599</v>
       </c>
       <c r="V9">
-        <v>8090.4898827595698</v>
+        <v>8065.8849911924099</v>
       </c>
       <c r="W9">
-        <v>10080.8446459526</v>
+        <v>10042.3146410852</v>
       </c>
       <c r="X9">
-        <v>14503.770540997601</v>
+        <v>14453.571819418101</v>
       </c>
       <c r="Y9">
-        <v>16401.217812452898</v>
+        <v>16352.767680463699</v>
       </c>
       <c r="Z9">
-        <v>17484.921731915001</v>
+        <v>17423.989120667298</v>
       </c>
       <c r="AA9">
         <v>21348</v>
@@ -6668,19 +6651,19 @@
         <v>138.34323859894101</v>
       </c>
       <c r="V10">
-        <v>6303.4501015330097</v>
+        <v>6289.8627423227099</v>
       </c>
       <c r="W10">
-        <v>8400.6382552769592</v>
+        <v>8381.3845541955798</v>
       </c>
       <c r="X10">
-        <v>11003.8278081971</v>
+        <v>10974.773249620401</v>
       </c>
       <c r="Y10">
-        <v>12051.7255476297</v>
+        <v>12022.8552542178</v>
       </c>
       <c r="Z10">
-        <v>12843.5146285013</v>
+        <v>12794.638230012701</v>
       </c>
       <c r="AA10">
         <v>12884</v>
@@ -6925,19 +6908,19 @@
         <v>48.913071459755599</v>
       </c>
       <c r="V11">
-        <v>2254.9962171233901</v>
+        <v>2235.1059893933998</v>
       </c>
       <c r="W11">
-        <v>2951.97864359596</v>
+        <v>2921.7561094053899</v>
       </c>
       <c r="X11">
-        <v>3882.79699472838</v>
+        <v>3838.6672717546498</v>
       </c>
       <c r="Y11">
-        <v>4329.8526832238704</v>
+        <v>4279.60602366478</v>
       </c>
       <c r="Z11">
-        <v>4576.14301529966</v>
+        <v>4485.4038122346501</v>
       </c>
       <c r="AA11">
         <v>5332</v>
@@ -7179,19 +7162,19 @@
         <v>98.265913082894002</v>
       </c>
       <c r="V12">
-        <v>3124.7387214628602</v>
+        <v>3115.7695831804899</v>
       </c>
       <c r="W12">
-        <v>4928.9049299009203</v>
+        <v>4913.6573491271502</v>
       </c>
       <c r="X12">
-        <v>6757.2931146027304</v>
+        <v>6730.5007722302498</v>
       </c>
       <c r="Y12">
-        <v>8805.7787419789602</v>
+        <v>8780.0352644169707</v>
       </c>
       <c r="Z12">
-        <v>10414.990289113401</v>
+        <v>10369.8895559373</v>
       </c>
       <c r="AA12">
         <v>9644</v>
@@ -7436,19 +7419,19 @@
         <v>154.682808177044</v>
       </c>
       <c r="V13">
-        <v>13556.8546882063</v>
+        <v>13555.4015962906</v>
       </c>
       <c r="W13">
-        <v>19481.341054369801</v>
+        <v>19474.916289791199</v>
       </c>
       <c r="X13">
-        <v>16243.2465165376</v>
+        <v>16226.024802699299</v>
       </c>
       <c r="Y13">
-        <v>21074.5082803236</v>
+        <v>21046.6502284827</v>
       </c>
       <c r="Z13">
-        <v>21445.602551297299</v>
+        <v>21420.7033860013</v>
       </c>
       <c r="AA13">
         <v>17968</v>
@@ -7693,19 +7676,19 @@
         <v>66.241666666666603</v>
       </c>
       <c r="V14">
-        <v>1966.15265812436</v>
+        <v>1961.1855266810301</v>
       </c>
       <c r="W14">
-        <v>2587.8383718735199</v>
+        <v>2580.2981475679499</v>
       </c>
       <c r="X14">
-        <v>4722.5379584450102</v>
+        <v>4707.9658032467296</v>
       </c>
       <c r="Y14">
-        <v>5326.73159723969</v>
+        <v>5251.53276330469</v>
       </c>
       <c r="Z14">
-        <v>5703.8528618781802</v>
+        <v>5564.8315303560903</v>
       </c>
       <c r="AA14">
         <v>9347</v>
@@ -7950,19 +7933,19 @@
         <v>1912.7575310391301</v>
       </c>
       <c r="V15">
-        <v>42188.451284722403</v>
+        <v>42014.236093472398</v>
       </c>
       <c r="W15">
-        <v>67479.779543758603</v>
+        <v>67288.944183061802</v>
       </c>
       <c r="X15">
-        <v>136664.67544489101</v>
+        <v>136176.21024739</v>
       </c>
       <c r="Y15">
-        <v>166391.44053019199</v>
+        <v>166123.10714288201</v>
       </c>
       <c r="Z15">
-        <v>186693.198988802</v>
+        <v>186238.533128635</v>
       </c>
       <c r="AA15">
         <v>249252</v>
@@ -8207,19 +8190,19 @@
         <v>48.0833333333333</v>
       </c>
       <c r="V16">
-        <v>1007.86040861267</v>
+        <v>1001.21424529235</v>
       </c>
       <c r="W16">
-        <v>1799.41248397139</v>
+        <v>1791.02672015141</v>
       </c>
       <c r="X16">
-        <v>3260.1850820787699</v>
+        <v>3242.58694728709</v>
       </c>
       <c r="Y16">
-        <v>4279.3630553250096</v>
+        <v>4259.6189050849898</v>
       </c>
       <c r="Z16">
-        <v>4170.1338029953604</v>
+        <v>4136.3589068032397</v>
       </c>
       <c r="AA16">
         <v>11367</v>
@@ -8461,19 +8444,19 @@
         <v>373.45833333333297</v>
       </c>
       <c r="V17">
-        <v>13389.668039035199</v>
+        <v>13371.1098667885</v>
       </c>
       <c r="W17">
-        <v>17595.725653068901</v>
+        <v>17564.677625374501</v>
       </c>
       <c r="X17">
-        <v>31035.501208540602</v>
+        <v>30968.743109633499</v>
       </c>
       <c r="Y17">
-        <v>35329.768645504199</v>
+        <v>35283.605191060102</v>
       </c>
       <c r="Z17">
-        <v>37055.7390481361</v>
+        <v>36974.951262408496</v>
       </c>
       <c r="AA17">
         <v>42146</v>
@@ -8718,19 +8701,19 @@
         <v>61.750802294193797</v>
       </c>
       <c r="V18">
-        <v>1972.0834420767201</v>
+        <v>1931.1298293929499</v>
       </c>
       <c r="W18">
-        <v>2444.8414129109201</v>
+        <v>2384.5188023128198</v>
       </c>
       <c r="X18">
-        <v>3848.6685439387502</v>
+        <v>3728.3086383804098</v>
       </c>
       <c r="Y18">
-        <v>5187.7137124994897</v>
+        <v>5105.1739176320798</v>
       </c>
       <c r="Z18">
-        <v>5597.99757213475</v>
+        <v>5426.1161586931503</v>
       </c>
       <c r="AA18">
         <v>6426</v>
@@ -8975,19 +8958,19 @@
         <v>54.033333333333303</v>
       </c>
       <c r="V19">
-        <v>1444.47205623228</v>
+        <v>1338.0274596899001</v>
       </c>
       <c r="W19">
-        <v>2172.2152459440099</v>
+        <v>1934.6034275101599</v>
       </c>
       <c r="X19">
-        <v>4193.6229540033601</v>
+        <v>3470.8871789895602</v>
       </c>
       <c r="Y19">
-        <v>5145.3520395485102</v>
+        <v>4702.4072043893502</v>
       </c>
       <c r="Z19">
-        <v>5360.2742244569299</v>
+        <v>4544.8827118481904</v>
       </c>
       <c r="AA19">
         <v>8109</v>
@@ -9229,19 +9212,19 @@
         <v>123.314779063798</v>
       </c>
       <c r="V20">
-        <v>1615.43274347546</v>
+        <v>1567.5929859131199</v>
       </c>
       <c r="W20">
-        <v>2736.58188708029</v>
+        <v>2645.69885276477</v>
       </c>
       <c r="X20">
-        <v>5729.1926342131901</v>
+        <v>5621.8001510576296</v>
       </c>
       <c r="Y20">
-        <v>8721.9028887961795</v>
+        <v>8627.5277462991507</v>
       </c>
       <c r="Z20">
-        <v>11577.691689707601</v>
+        <v>11360.3999651145</v>
       </c>
       <c r="AA20">
         <v>10259</v>
@@ -9483,19 +9466,19 @@
         <v>50.334206026244097</v>
       </c>
       <c r="V21">
-        <v>1219.03813888998</v>
+        <v>1189.76543948788</v>
       </c>
       <c r="W21">
-        <v>1759.5776281820599</v>
+        <v>1720.6961644872399</v>
       </c>
       <c r="X21">
-        <v>2671.0859472297202</v>
+        <v>2627.7922686808702</v>
       </c>
       <c r="Y21">
-        <v>3451.6910744423299</v>
+        <v>3411.9998606382101</v>
       </c>
       <c r="Z21">
-        <v>4035.5144542636499</v>
+        <v>3955.1226711936902</v>
       </c>
       <c r="AA21">
         <v>5049</v>
@@ -9740,19 +9723,19 @@
         <v>44.001274225645403</v>
       </c>
       <c r="V22">
-        <v>769.89429545595794</v>
+        <v>748.46035183007496</v>
       </c>
       <c r="W22">
-        <v>1236.9269677303</v>
+        <v>1202.67788741703</v>
       </c>
       <c r="X22">
-        <v>2347.9748678495598</v>
+        <v>2304.29561716848</v>
       </c>
       <c r="Y22">
-        <v>3286.8505859141201</v>
+        <v>3236.5495591532799</v>
       </c>
       <c r="Z22">
-        <v>3874.6004933662698</v>
+        <v>3758.4115936220801</v>
       </c>
       <c r="AA22">
         <v>4685</v>
@@ -9997,19 +9980,19 @@
         <v>264.58219278744701</v>
       </c>
       <c r="V23">
-        <v>11180.0155935356</v>
+        <v>11167.452284155001</v>
       </c>
       <c r="W23">
-        <v>14637.8665900705</v>
+        <v>14621.2277104196</v>
       </c>
       <c r="X23">
-        <v>19794.1656753303</v>
+        <v>19775.458562837</v>
       </c>
       <c r="Y23">
-        <v>23647.6104696851</v>
+        <v>23627.181390141199</v>
       </c>
       <c r="Z23">
-        <v>26884.5004350093</v>
+        <v>26836.5648541111</v>
       </c>
       <c r="AA23">
         <v>24717</v>
@@ -10254,19 +10237,19 @@
         <v>70.079053958241701</v>
       </c>
       <c r="V24">
-        <v>2835.5681153628698</v>
+        <v>2821.4464919309498</v>
       </c>
       <c r="W24">
-        <v>3787.0014189570802</v>
+        <v>3763.66351317098</v>
       </c>
       <c r="X24">
-        <v>5020.52423831751</v>
+        <v>4989.8271377640403</v>
       </c>
       <c r="Y24">
-        <v>6006.7145247336703</v>
+        <v>5974.2068847127803</v>
       </c>
       <c r="Z24">
-        <v>6251.99471993507</v>
+        <v>6176.5144744289601</v>
       </c>
       <c r="AA24">
         <v>6112</v>
@@ -10508,19 +10491,19 @@
         <v>111.070286632899</v>
       </c>
       <c r="V25">
-        <v>1917.3325505160401</v>
+        <v>1864.3027987048599</v>
       </c>
       <c r="W25">
-        <v>2930.3479143412701</v>
+        <v>2832.11189386459</v>
       </c>
       <c r="X25">
-        <v>5779.45698523388</v>
+        <v>5673.9508748998496</v>
       </c>
       <c r="Y25">
-        <v>7952.5399596566403</v>
+        <v>7845.35171190038</v>
       </c>
       <c r="Z25">
-        <v>9595.3001829437399</v>
+        <v>9360.4535027705206</v>
       </c>
       <c r="AA25">
         <v>12314</v>
@@ -10765,19 +10748,19 @@
         <v>768.67472333526996</v>
       </c>
       <c r="V26">
-        <v>39870.314321478203</v>
+        <v>39841.442077161802</v>
       </c>
       <c r="W26">
-        <v>55482.6142864168</v>
+        <v>55444.020458928899</v>
       </c>
       <c r="X26">
-        <v>79188.824179913296</v>
+        <v>79136.256879018096</v>
       </c>
       <c r="Y26">
-        <v>84996.609763909597</v>
+        <v>84928.541446170697</v>
       </c>
       <c r="Z26">
-        <v>103582.915074914</v>
+        <v>103524.361597571</v>
       </c>
       <c r="AA26">
         <v>80141</v>
@@ -11022,19 +11005,19 @@
         <v>80.033333333333303</v>
       </c>
       <c r="V27">
-        <v>3433.2012345738399</v>
+        <v>3374.1355614782701</v>
       </c>
       <c r="W27">
-        <v>5441.2655673060299</v>
+        <v>5318.2558424273602</v>
       </c>
       <c r="X27">
-        <v>8105.4470522931197</v>
+        <v>7891.44209352284</v>
       </c>
       <c r="Y27">
-        <v>9097.3119073634498</v>
+        <v>8820.7813912209895</v>
       </c>
       <c r="Z27">
-        <v>10062.367785357599</v>
+        <v>9739.5447215681907</v>
       </c>
       <c r="AA27">
         <v>9861</v>
@@ -11279,19 +11262,19 @@
         <v>366.25860999806298</v>
       </c>
       <c r="V28">
-        <v>15345.669731764299</v>
+        <v>15318.0115997997</v>
       </c>
       <c r="W28">
-        <v>31475.1476044712</v>
+        <v>31428.6528965043</v>
       </c>
       <c r="X28">
-        <v>45221.497616378801</v>
+        <v>45103.515324627799</v>
       </c>
       <c r="Y28">
-        <v>51093.085443964701</v>
+        <v>51016.6907915181</v>
       </c>
       <c r="Z28">
-        <v>55416.924707475599</v>
+        <v>55332.681631559703</v>
       </c>
       <c r="AA28">
         <v>43637</v>
@@ -11536,19 +11519,19 @@
         <v>335.65833333333302</v>
       </c>
       <c r="V29">
-        <v>15884.3987132491</v>
+        <v>15312.2281369959</v>
       </c>
       <c r="W29">
-        <v>22586.1674905047</v>
+        <v>21256.739640410098</v>
       </c>
       <c r="X29">
-        <v>32811.4279573354</v>
+        <v>30300.7842708508</v>
       </c>
       <c r="Y29">
-        <v>38768.811959056096</v>
+        <v>35672.639981747401</v>
       </c>
       <c r="Z29">
-        <v>44361.826136912197</v>
+        <v>40868.921297087203</v>
       </c>
       <c r="AA29">
         <v>54322</v>
@@ -11793,19 +11776,19 @@
         <v>255.78333333333299</v>
       </c>
       <c r="V30">
-        <v>12867.999944282101</v>
+        <v>12435.097439736701</v>
       </c>
       <c r="W30">
-        <v>22735.055536562399</v>
+        <v>22003.989586969801</v>
       </c>
       <c r="X30">
-        <v>27632.949711899801</v>
+        <v>25815.1607791241</v>
       </c>
       <c r="Y30">
-        <v>36839.978690686497</v>
+        <v>34002.077539395199</v>
       </c>
       <c r="Z30">
-        <v>42231.196316902198</v>
+        <v>37959.429638354501</v>
       </c>
       <c r="AA30">
         <v>45490</v>
@@ -12050,19 +12033,19 @@
         <v>38.674999999999997</v>
       </c>
       <c r="V31">
-        <v>1660.70070279121</v>
+        <v>1563.7124500068301</v>
       </c>
       <c r="W31">
-        <v>2289.2049316119301</v>
+        <v>2134.5144630930499</v>
       </c>
       <c r="X31">
-        <v>3500.52244706898</v>
+        <v>3133.3950883081902</v>
       </c>
       <c r="Y31">
-        <v>4604.86830451689</v>
+        <v>4163.4291638203404</v>
       </c>
       <c r="Z31">
-        <v>5049.98795021563</v>
+        <v>4468.5408785862201</v>
       </c>
       <c r="AA31">
         <v>6322</v>
@@ -12307,19 +12290,19 @@
         <v>4393.0166666666601</v>
       </c>
       <c r="V32">
-        <v>267696.39445093099</v>
+        <v>267570.80570487602</v>
       </c>
       <c r="W32">
-        <v>387478.20614183601</v>
+        <v>387162.19790786703</v>
       </c>
       <c r="X32">
-        <v>467442.49611339602</v>
+        <v>467072.845406415</v>
       </c>
       <c r="Y32">
-        <v>552521.85962366604</v>
+        <v>552086.51770971098</v>
       </c>
       <c r="Z32">
-        <v>632171.290345888</v>
+        <v>631786.33178527502</v>
       </c>
       <c r="AA32">
         <v>716392</v>
@@ -12558,19 +12541,19 @@
         <v>36.7916666666666</v>
       </c>
       <c r="V33">
-        <v>1294.4472315440601</v>
+        <v>1205.88105078028</v>
       </c>
       <c r="W33">
-        <v>1863.22724034404</v>
+        <v>1670.57826736481</v>
       </c>
       <c r="X33">
-        <v>3382.15214122322</v>
+        <v>2830.0004664253802</v>
       </c>
       <c r="Y33">
-        <v>4530.0168970755203</v>
+        <v>3845.1234937605</v>
       </c>
       <c r="Z33">
-        <v>5250.1140859325697</v>
+        <v>4397.8023748067399</v>
       </c>
       <c r="AA33">
         <v>9013</v>
@@ -12812,19 +12795,19 @@
         <v>114.682176318176</v>
       </c>
       <c r="V34">
-        <v>5630.5464199958697</v>
+        <v>5620.3114450024495</v>
       </c>
       <c r="W34">
-        <v>9104.0762856086094</v>
+        <v>9086.5558312642806</v>
       </c>
       <c r="X34">
-        <v>12917.7066687145</v>
+        <v>12883.6426212717</v>
       </c>
       <c r="Y34">
-        <v>13796.291822060901</v>
+        <v>13754.8201348475</v>
       </c>
       <c r="Z34">
-        <v>15942.7103032451</v>
+        <v>15897.585777271101</v>
       </c>
       <c r="AA34">
         <v>15517</v>
@@ -13069,19 +13052,19 @@
         <v>65.074999999999903</v>
       </c>
       <c r="V35">
-        <v>2862.1242179113701</v>
+        <v>2694.0767483370801</v>
       </c>
       <c r="W35">
-        <v>3984.0932528460498</v>
+        <v>3688.00168845804</v>
       </c>
       <c r="X35">
-        <v>5953.6620713635302</v>
+        <v>5376.0887172442699</v>
       </c>
       <c r="Y35">
-        <v>7517.0067082676096</v>
+        <v>6750.7228948688999</v>
       </c>
       <c r="Z35">
-        <v>8208.8196319646595</v>
+        <v>7142.9833558708797</v>
       </c>
       <c r="AA35">
         <v>9520</v>
@@ -13326,19 +13309,19 @@
         <v>136.46666666666599</v>
       </c>
       <c r="V36">
-        <v>7532.9671679971098</v>
+        <v>7229.1384422197298</v>
       </c>
       <c r="W36">
-        <v>11266.964055472199</v>
+        <v>10611.4839084304</v>
       </c>
       <c r="X36">
-        <v>15457.8353326948</v>
+        <v>14049.1810936151</v>
       </c>
       <c r="Y36">
-        <v>17564.7732525184</v>
+        <v>14788.6149232834</v>
       </c>
       <c r="Z36">
-        <v>20455.287272282701</v>
+        <v>16813.046552329899</v>
       </c>
       <c r="AA36">
         <v>33150</v>
@@ -13583,19 +13566,19 @@
         <v>70.941666666666606</v>
       </c>
       <c r="V37">
-        <v>2231.25605397757</v>
+        <v>2190.1390192397298</v>
       </c>
       <c r="W37">
-        <v>3707.4793408690898</v>
+        <v>3591.6604118332002</v>
       </c>
       <c r="X37">
-        <v>6488.4097035923796</v>
+        <v>6228.8010075050697</v>
       </c>
       <c r="Y37">
-        <v>7427.6512811143803</v>
+        <v>7071.5812739245803</v>
       </c>
       <c r="Z37">
-        <v>8658.8376968298198</v>
+        <v>8217.8014996247002</v>
       </c>
       <c r="AA37">
         <v>11020</v>
@@ -13840,19 +13823,19 @@
         <v>1580.44166666666</v>
       </c>
       <c r="V38">
-        <v>63613.861486058398</v>
+        <v>63543.005114762404</v>
       </c>
       <c r="W38">
-        <v>111999.102849777</v>
+        <v>111855.47090946</v>
       </c>
       <c r="X38">
-        <v>161833.151800855</v>
+        <v>161503.885111474</v>
       </c>
       <c r="Y38">
-        <v>201343.318180965</v>
+        <v>201112.37788154601</v>
       </c>
       <c r="Z38">
-        <v>236729.14104479001</v>
+        <v>236545.31803159899</v>
       </c>
       <c r="AA38">
         <v>248126</v>
@@ -14097,19 +14080,19 @@
         <v>155.19641680139199</v>
       </c>
       <c r="V39">
-        <v>2621.95056832508</v>
+        <v>2600.5405429304801</v>
       </c>
       <c r="W39">
-        <v>5555.9118655122702</v>
+        <v>5515.80279139492</v>
       </c>
       <c r="X39">
-        <v>11618.6566650364</v>
+        <v>11554.5807623038</v>
       </c>
       <c r="Y39">
-        <v>16222.858770659501</v>
+        <v>16116.511247063499</v>
       </c>
       <c r="Z39">
-        <v>21076.4576168481</v>
+        <v>20969.672475041301</v>
       </c>
       <c r="AA39">
         <v>24174</v>
@@ -14354,19 +14337,19 @@
         <v>688.57419049912505</v>
       </c>
       <c r="V40">
-        <v>15051.1154261998</v>
+        <v>14830.8371573533</v>
       </c>
       <c r="W40">
-        <v>30818.267178508901</v>
+        <v>30353.517555094601</v>
       </c>
       <c r="X40">
-        <v>48542.120127838003</v>
+        <v>47710.083006907</v>
       </c>
       <c r="Y40">
-        <v>65273.166470249103</v>
+        <v>64350.885292200197</v>
       </c>
       <c r="Z40">
-        <v>78029.733189962499</v>
+        <v>77049.022749916097</v>
       </c>
       <c r="AA40">
         <v>100432</v>
@@ -14611,19 +14594,19 @@
         <v>651.86598190816301</v>
       </c>
       <c r="V41">
-        <v>31767.848676534399</v>
+        <v>31712.791034739999</v>
       </c>
       <c r="W41">
-        <v>47611.066142232499</v>
+        <v>47503.852577696904</v>
       </c>
       <c r="X41">
-        <v>65301.693817925698</v>
+        <v>65107.784489393001</v>
       </c>
       <c r="Y41">
-        <v>71211.818782275805</v>
+        <v>70991.1068839543</v>
       </c>
       <c r="Z41">
-        <v>78355.448010481094</v>
+        <v>78095.774031931796</v>
       </c>
       <c r="AA41">
         <v>75830</v>
@@ -14868,19 +14851,19 @@
         <v>714.25080950087499</v>
       </c>
       <c r="V42">
-        <v>18594.135830102601</v>
+        <v>18513.797617678902</v>
       </c>
       <c r="W42">
-        <v>34661.464418674099</v>
+        <v>34507.916783021203</v>
       </c>
       <c r="X42">
-        <v>53515.986374336098</v>
+        <v>53272.968129463203</v>
       </c>
       <c r="Y42">
-        <v>69100.382083588906</v>
+        <v>68891.423227909094</v>
       </c>
       <c r="Z42">
-        <v>80815.054672255705</v>
+        <v>80604.427348790807</v>
       </c>
       <c r="AA42">
         <v>100545</v>
@@ -15125,19 +15108,19 @@
         <v>1422.8333333333301</v>
       </c>
       <c r="V43">
-        <v>58221.869442851697</v>
+        <v>57991.812183549802</v>
       </c>
       <c r="W43">
-        <v>97888.963172972304</v>
+        <v>97503.929904906603</v>
       </c>
       <c r="X43">
-        <v>142168.826528012</v>
+        <v>141438.91064357501</v>
       </c>
       <c r="Y43">
-        <v>175771.94501183499</v>
+        <v>174898.17829545299</v>
       </c>
       <c r="Z43">
-        <v>203346.14369980799</v>
+        <v>202350.080840129</v>
       </c>
       <c r="AA43">
         <v>199237</v>
@@ -15382,19 +15365,19 @@
         <v>698.46385873961503</v>
       </c>
       <c r="V44">
-        <v>48972.2966546674</v>
+        <v>48972.109248803899</v>
       </c>
       <c r="W44">
-        <v>59743.587064133899</v>
+        <v>59743.202083177297</v>
       </c>
       <c r="X44">
-        <v>78443.865473120502</v>
+        <v>78443.2109870391</v>
       </c>
       <c r="Y44">
-        <v>81557.266364688301</v>
+        <v>81552.525734476701</v>
       </c>
       <c r="Z44">
-        <v>107221.14705201</v>
+        <v>107217.485215789</v>
       </c>
       <c r="AA44">
         <v>68875</v>
@@ -15639,19 +15622,19 @@
         <v>225.583333333333</v>
       </c>
       <c r="V45">
-        <v>9013.2050030034297</v>
+        <v>8787.2083377065501</v>
       </c>
       <c r="W45">
-        <v>14546.847698052699</v>
+        <v>14091.9550653896</v>
       </c>
       <c r="X45">
-        <v>20140.102666115501</v>
+        <v>19263.1319212987</v>
       </c>
       <c r="Y45">
-        <v>23511.611362048199</v>
+        <v>22418.686179452499</v>
       </c>
       <c r="Z45">
-        <v>27222.187738821802</v>
+        <v>25897.214574461399</v>
       </c>
       <c r="AA45">
         <v>26974</v>
@@ -15896,19 +15879,19 @@
         <v>394.52780792705101</v>
       </c>
       <c r="V46">
-        <v>20191.701310717799</v>
+        <v>20158.459176786699</v>
       </c>
       <c r="W46">
-        <v>31866.0827727756</v>
+        <v>31795.456581704701</v>
       </c>
       <c r="X46">
-        <v>44292.156474862</v>
+        <v>44153.575097013898</v>
       </c>
       <c r="Y46">
-        <v>48775.410102597903</v>
+        <v>48650.5730325646</v>
       </c>
       <c r="Z46">
-        <v>64504.3839728452</v>
+        <v>64360.710397366202</v>
       </c>
       <c r="AA46">
         <v>44843</v>
@@ -16153,19 +16136,19 @@
         <v>180.933333333333</v>
       </c>
       <c r="V47">
-        <v>8901.5866306929001</v>
+        <v>8789.1536135652896</v>
       </c>
       <c r="W47">
-        <v>14190.8911577206</v>
+        <v>13920.557040150999</v>
       </c>
       <c r="X47">
-        <v>19207.438397145099</v>
+        <v>18550.602127575101</v>
       </c>
       <c r="Y47">
-        <v>22137.204661916501</v>
+        <v>20974.6451652498</v>
       </c>
       <c r="Z47">
-        <v>26458.188624045401</v>
+        <v>24933.434911726999</v>
       </c>
       <c r="AA47">
         <v>30119</v>
@@ -16410,19 +16393,19 @@
         <v>1047.01548836597</v>
       </c>
       <c r="V48">
-        <v>38901.695265863702</v>
+        <v>38835.8392351035</v>
       </c>
       <c r="W48">
-        <v>61822.532383495702</v>
+        <v>61703.386039895799</v>
       </c>
       <c r="X48">
-        <v>112997.03495209799</v>
+        <v>112748.328686298</v>
       </c>
       <c r="Y48">
-        <v>128391.095163347</v>
+        <v>128133.471923209</v>
       </c>
       <c r="Z48">
-        <v>180538.190697015</v>
+        <v>180240.91377964601</v>
       </c>
       <c r="AA48">
         <v>122937</v>
@@ -16667,19 +16650,19 @@
         <v>100.791666666666</v>
       </c>
       <c r="V49">
-        <v>4551.0940003505702</v>
+        <v>4488.4501684933603</v>
       </c>
       <c r="W49">
-        <v>7904.5810419918798</v>
+        <v>7679.9583180783902</v>
       </c>
       <c r="X49">
-        <v>11615.5773986229</v>
+        <v>11253.969959059899</v>
       </c>
       <c r="Y49">
-        <v>10955.276993548299</v>
+        <v>10387.04596743</v>
       </c>
       <c r="Z49">
-        <v>12849.473078692999</v>
+        <v>12228.935789183</v>
       </c>
       <c r="AA49">
         <v>15804</v>
@@ -16924,19 +16907,19 @@
         <v>65.150000000000006</v>
       </c>
       <c r="V50">
-        <v>2733.51301996339</v>
+        <v>2709.5965623598299</v>
       </c>
       <c r="W50">
-        <v>4921.3436709131802</v>
+        <v>4854.0105863122899</v>
       </c>
       <c r="X50">
-        <v>6706.6525958727198</v>
+        <v>6618.7664032982902</v>
       </c>
       <c r="Y50">
-        <v>6807.0946871693604</v>
+        <v>6661.7837946751297</v>
       </c>
       <c r="Z50">
-        <v>7417.6303379864403</v>
+        <v>7242.4047425510798</v>
       </c>
       <c r="AA50">
         <v>9889</v>
@@ -17178,19 +17161,19 @@
         <v>135.85</v>
       </c>
       <c r="V51">
-        <v>6437.1909922593404</v>
+        <v>6401.1747791278804</v>
       </c>
       <c r="W51">
-        <v>9854.8079273448493</v>
+        <v>9798.0384382998309</v>
       </c>
       <c r="X51">
-        <v>12621.231879868999</v>
+        <v>12491.741926954999</v>
       </c>
       <c r="Y51">
-        <v>15543.255833041399</v>
+        <v>15417.7010488224</v>
       </c>
       <c r="Z51">
-        <v>17072.600083993198</v>
+        <v>16918.5219579392</v>
       </c>
       <c r="AA51">
         <v>14825</v>
@@ -17435,19 +17418,19 @@
         <v>201.71666666666599</v>
       </c>
       <c r="V52">
-        <v>7436.3446476454801</v>
+        <v>7351.1756551335802</v>
       </c>
       <c r="W52">
-        <v>12708.2219921039</v>
+        <v>12518.918490846299</v>
       </c>
       <c r="X52">
-        <v>20242.859566116502</v>
+        <v>19831.457625748601</v>
       </c>
       <c r="Y52">
-        <v>21626.298989289098</v>
+        <v>21117.641760298298</v>
       </c>
       <c r="Z52">
-        <v>26053.286989068802</v>
+        <v>25459.3243718999</v>
       </c>
       <c r="AA52">
         <v>29968</v>
@@ -17692,19 +17675,19 @@
         <v>171.86666666666599</v>
       </c>
       <c r="V53">
-        <v>6459.5341897143498</v>
+        <v>6266.5450657548499</v>
       </c>
       <c r="W53">
-        <v>10685.475251706201</v>
+        <v>10232.175204883401</v>
       </c>
       <c r="X53">
-        <v>15330.9682769173</v>
+        <v>14513.0940976888</v>
       </c>
       <c r="Y53">
-        <v>18161.622423972301</v>
+        <v>17194.753400186899</v>
       </c>
       <c r="Z53">
-        <v>20416.3199759542</v>
+        <v>19281.144171556702</v>
       </c>
       <c r="AA53">
         <v>23239</v>
@@ -17949,19 +17932,19 @@
         <v>27.185581238491402</v>
       </c>
       <c r="V54">
-        <v>1176.90757354067</v>
+        <v>1116.09887469355</v>
       </c>
       <c r="W54">
-        <v>1550.28717543015</v>
+        <v>1425.3624064107601</v>
       </c>
       <c r="X54">
-        <v>2670.0821219315799</v>
+        <v>2441.9435182254401</v>
       </c>
       <c r="Y54">
-        <v>3219.0235900863699</v>
+        <v>2934.1491624639202</v>
       </c>
       <c r="Z54">
-        <v>3581.4941729099201</v>
+        <v>3241.1845392325299</v>
       </c>
       <c r="AA54">
         <v>5076</v>
@@ -18203,19 +18186,19 @@
         <v>123.9</v>
       </c>
       <c r="V55">
-        <v>5464.3543713313402</v>
+        <v>5035.2806706142701</v>
       </c>
       <c r="W55">
-        <v>7843.0414537696197</v>
+        <v>6990.84132744821</v>
       </c>
       <c r="X55">
-        <v>11205.939130937</v>
+        <v>9576.4444164980796</v>
       </c>
       <c r="Y55">
-        <v>14557.495438935901</v>
+        <v>12025.4915967548</v>
       </c>
       <c r="Z55">
-        <v>17266.4891145621</v>
+        <v>14292.405574994</v>
       </c>
       <c r="AA55">
         <v>26688</v>
@@ -18457,19 +18440,19 @@
         <v>300.59166666666601</v>
       </c>
       <c r="V56">
-        <v>12733.134040701399</v>
+        <v>12531.588704371999</v>
       </c>
       <c r="W56">
-        <v>22121.7122888784</v>
+        <v>21708.1497041189</v>
       </c>
       <c r="X56">
-        <v>30520.471359679599</v>
+        <v>29643.5061390009</v>
       </c>
       <c r="Y56">
-        <v>40625.344333573303</v>
+        <v>39099.448867644998</v>
       </c>
       <c r="Z56">
-        <v>42979.566649771499</v>
+        <v>41199.397718120897</v>
       </c>
       <c r="AA56">
         <v>48348</v>
@@ -18714,19 +18697,19 @@
         <v>89.595761008325795</v>
       </c>
       <c r="V57">
-        <v>3656.29450813629</v>
+        <v>3579.2012639637401</v>
       </c>
       <c r="W57">
-        <v>5915.3061177625304</v>
+        <v>5790.7153072163601</v>
       </c>
       <c r="X57">
-        <v>9740.4999540334993</v>
+        <v>9510.6086013558997</v>
       </c>
       <c r="Y57">
-        <v>12413.890902622299</v>
+        <v>12073.737211129301</v>
       </c>
       <c r="Z57">
-        <v>12651.592142997701</v>
+        <v>12191.746098724399</v>
       </c>
       <c r="AA57">
         <v>9949</v>
@@ -18971,19 +18954,19 @@
         <v>199.11558934603201</v>
       </c>
       <c r="V58">
-        <v>4777.3511275628298</v>
+        <v>4765.440018671</v>
       </c>
       <c r="W58">
-        <v>6870.8120428781904</v>
+        <v>6850.9422338467202</v>
       </c>
       <c r="X58">
-        <v>14352.3769719788</v>
+        <v>14286.844153968401</v>
       </c>
       <c r="Y58">
-        <v>15602.731675446999</v>
+        <v>15542.705934154101</v>
       </c>
       <c r="Z58">
-        <v>20276.048492643</v>
+        <v>20208.032519447999</v>
       </c>
       <c r="AA58">
         <v>16594</v>
@@ -19228,19 +19211,19 @@
         <v>328.44200079674999</v>
       </c>
       <c r="V59">
-        <v>7451.1356992916699</v>
+        <v>7446.6978344823901</v>
       </c>
       <c r="W59">
-        <v>13055.307273037501</v>
+        <v>13049.9038828618</v>
       </c>
       <c r="X59">
-        <v>29880.911613125401</v>
+        <v>29865.604928513701</v>
       </c>
       <c r="Y59">
-        <v>31423.918901269499</v>
+        <v>31390.285499077501</v>
       </c>
       <c r="Z59">
-        <v>37479.775381813903</v>
+        <v>37432.429544909101</v>
       </c>
       <c r="AA59">
         <v>35432</v>
@@ -19485,19 +19468,19 @@
         <v>185.07499999999999</v>
       </c>
       <c r="V60">
-        <v>5051.4390833159196</v>
+        <v>5037.66705778099</v>
       </c>
       <c r="W60">
-        <v>6564.7297041142901</v>
+        <v>6545.5193763855696</v>
       </c>
       <c r="X60">
-        <v>15528.244964695999</v>
+        <v>15488.8570808198</v>
       </c>
       <c r="Y60">
-        <v>17849.1147041476</v>
+        <v>17802.2400366818</v>
       </c>
       <c r="Z60">
-        <v>20775.165548279401</v>
+        <v>20713.265020582399</v>
       </c>
       <c r="AA60">
         <v>21002</v>
@@ -19742,19 +19725,19 @@
         <v>37.475434157376</v>
       </c>
       <c r="V61">
-        <v>824.02869977886996</v>
+        <v>823.858784753549</v>
       </c>
       <c r="W61">
-        <v>1195.56723044466</v>
+        <v>1195.3191312568199</v>
       </c>
       <c r="X61">
-        <v>2500.72626451417</v>
+        <v>2499.8067894492201</v>
       </c>
       <c r="Y61">
-        <v>4090.2708395192599</v>
+        <v>4086.5453133573401</v>
       </c>
       <c r="Z61">
-        <v>5319.4350368996602</v>
+        <v>5314.4319657816604</v>
       </c>
       <c r="AD61">
         <v>56797.777620104702</v>
@@ -19891,19 +19874,19 @@
         <v>499.85998340619699</v>
       </c>
       <c r="V62">
-        <v>29434.688143973799</v>
+        <v>29432.589344392702</v>
       </c>
       <c r="W62">
-        <v>32579.693574118701</v>
+        <v>32577.9779923102</v>
       </c>
       <c r="X62">
-        <v>51954.788333693701</v>
+        <v>51948.801126279002</v>
       </c>
       <c r="Y62">
-        <v>52730.093596291401</v>
+        <v>52726.031600822003</v>
       </c>
       <c r="Z62">
-        <v>66018.931796565797</v>
+        <v>66008.121044400497</v>
       </c>
       <c r="AA62">
         <v>44612</v>
@@ -20148,19 +20131,19 @@
         <v>117.68534993383101</v>
       </c>
       <c r="V63">
-        <v>420.07731510210198</v>
+        <v>415.85901166442699</v>
       </c>
       <c r="W63">
-        <v>1010.30734397939</v>
+        <v>1002.04368394588</v>
       </c>
       <c r="X63">
-        <v>4882.9396095140401</v>
+        <v>4849.2351263022301</v>
       </c>
       <c r="Y63">
-        <v>9962.5108868435509</v>
+        <v>9907.7141279384196</v>
       </c>
       <c r="Z63">
-        <v>12438.876024200599</v>
+        <v>12367.892411225001</v>
       </c>
       <c r="AA63">
         <v>15865</v>
@@ -20405,19 +20388,19 @@
         <v>271.94172490051398</v>
       </c>
       <c r="V64">
-        <v>7497.1050660541996</v>
+        <v>7486.2875873991297</v>
       </c>
       <c r="W64">
-        <v>11157.547132805001</v>
+        <v>11143.629414470401</v>
       </c>
       <c r="X64">
-        <v>23027.172270073599</v>
+        <v>22988.902981342599</v>
       </c>
       <c r="Y64">
-        <v>25337.113741135101</v>
+        <v>25275.4559047728</v>
       </c>
       <c r="Z64">
-        <v>28482.302350453101</v>
+        <v>28409.788202402498</v>
       </c>
       <c r="AA64">
         <v>31129</v>
@@ -20662,19 +20645,19 @@
         <v>236.81403275853501</v>
       </c>
       <c r="V65">
-        <v>8498.27174600125</v>
+        <v>8492.4752085176897</v>
       </c>
       <c r="W65">
-        <v>13254.160356308001</v>
+        <v>13243.9662473178</v>
       </c>
       <c r="X65">
-        <v>20865.1390038891</v>
+        <v>20836.529062148598</v>
       </c>
       <c r="Y65">
-        <v>21863.261340926601</v>
+        <v>21833.2066515732</v>
       </c>
       <c r="Z65">
-        <v>25122.3687556529</v>
+        <v>25073.319624799398</v>
       </c>
       <c r="AA65">
         <v>28509</v>
@@ -20919,19 +20902,19 @@
         <v>161.27500000000001</v>
       </c>
       <c r="V66">
-        <v>3719.6901845940502</v>
+        <v>3702.45746695037</v>
       </c>
       <c r="W66">
-        <v>5194.1655235182798</v>
+        <v>5167.3872167230602</v>
       </c>
       <c r="X66">
-        <v>10752.6518381974</v>
+        <v>10681.147713553</v>
       </c>
       <c r="Y66">
-        <v>13299.698726348</v>
+        <v>13208.095757113901</v>
       </c>
       <c r="Z66">
-        <v>16166.9347838957</v>
+        <v>16057.614822290499</v>
       </c>
       <c r="AA66">
         <v>20764</v>
@@ -21176,19 +21159,19 @@
         <v>61.274999999999999</v>
       </c>
       <c r="V67">
-        <v>2084.8990727914702</v>
+        <v>2065.8018222599899</v>
       </c>
       <c r="W67">
-        <v>2630.9801699539098</v>
+        <v>2605.5851548143801</v>
       </c>
       <c r="X67">
-        <v>4757.3165066867696</v>
+        <v>4688.2663878264502</v>
       </c>
       <c r="Y67">
-        <v>5999.2745629598703</v>
+        <v>5895.7626682406099</v>
       </c>
       <c r="Z67">
-        <v>6186.6588012681304</v>
+        <v>6042.6132011380696</v>
       </c>
       <c r="AA67">
         <v>9000</v>
@@ -21430,19 +21413,19 @@
         <v>61.674999999999997</v>
       </c>
       <c r="V68">
-        <v>2847.9814037271099</v>
+        <v>2837.0372526482101</v>
       </c>
       <c r="W68">
-        <v>3041.8946039124498</v>
+        <v>3029.1645984256102</v>
       </c>
       <c r="X68">
-        <v>4906.4686963327704</v>
+        <v>4871.7446195232396</v>
       </c>
       <c r="Y68">
-        <v>5131.9779536921296</v>
+        <v>5087.9866484398899</v>
       </c>
       <c r="Z68">
-        <v>5421.82685042918</v>
+        <v>5366.8881594538698</v>
       </c>
       <c r="AA68">
         <v>5845</v>
@@ -21684,19 +21667,19 @@
         <v>99.174999999999997</v>
       </c>
       <c r="V69">
-        <v>2318.99858585013</v>
+        <v>2251.54015322754</v>
       </c>
       <c r="W69">
-        <v>3298.5297253341701</v>
+        <v>3199.00009362729</v>
       </c>
       <c r="X69">
-        <v>6635.7448736427696</v>
+        <v>6420.3378436752</v>
       </c>
       <c r="Y69">
-        <v>8692.7070775468401</v>
+        <v>8426.8358834424507</v>
       </c>
       <c r="Z69">
-        <v>11312.8879026635</v>
+        <v>10985.6223242547</v>
       </c>
       <c r="AA69">
         <v>11478</v>
@@ -21941,19 +21924,19 @@
         <v>439.31987153561897</v>
       </c>
       <c r="V70">
-        <v>26357.7857406447</v>
+        <v>26354.010855496199</v>
       </c>
       <c r="W70">
-        <v>41932.291725433599</v>
+        <v>41924.365479163796</v>
       </c>
       <c r="X70">
-        <v>59191.138418418799</v>
+        <v>59172.72594787</v>
       </c>
       <c r="Y70">
-        <v>64897.618266845697</v>
+        <v>64879.081791869299</v>
       </c>
       <c r="Z70">
-        <v>64922.220433938302</v>
+        <v>64896.273319295098</v>
       </c>
       <c r="AA70">
         <v>50324</v>
@@ -22198,19 +22181,19 @@
         <v>524.27247824455196</v>
       </c>
       <c r="V71">
-        <v>35125.753477718798</v>
+        <v>35102.800299748997</v>
       </c>
       <c r="W71">
-        <v>55104.6949076565</v>
+        <v>55050.847933982601</v>
       </c>
       <c r="X71">
-        <v>68487.221870719601</v>
+        <v>68376.516937693494</v>
       </c>
       <c r="Y71">
-        <v>78007.849539281393</v>
+        <v>77947.839708753803</v>
       </c>
       <c r="Z71">
-        <v>77690.444074609302</v>
+        <v>77612.325426903</v>
       </c>
       <c r="AA71">
         <v>40949</v>
@@ -22455,19 +22438,19 @@
         <v>373.40822581975999</v>
       </c>
       <c r="V72">
-        <v>22830.400266146899</v>
+        <v>22823.150353275199</v>
       </c>
       <c r="W72">
-        <v>35160.554612866501</v>
+        <v>35144.476436818601</v>
       </c>
       <c r="X72">
-        <v>43684.083626588297</v>
+        <v>43639.681872466601</v>
       </c>
       <c r="Y72">
-        <v>48122.329513194803</v>
+        <v>48083.375827881297</v>
       </c>
       <c r="Z72">
-        <v>48919.108326890797</v>
+        <v>48867.685857687298</v>
       </c>
       <c r="AA72">
         <v>38300</v>
@@ -22712,19 +22695,19 @@
         <v>303.32702481733099</v>
       </c>
       <c r="V73">
-        <v>16282.435160655299</v>
+        <v>16271.932888765101</v>
       </c>
       <c r="W73">
-        <v>27008.170508506701</v>
+        <v>26992.385821829699</v>
       </c>
       <c r="X73">
-        <v>41100.482091374397</v>
+        <v>41055.729144348901</v>
       </c>
       <c r="Y73">
-        <v>40864.5808649182</v>
+        <v>40805.391359052599</v>
       </c>
       <c r="Z73">
-        <v>44255.907774353</v>
+        <v>44165.440254321802</v>
       </c>
       <c r="AA73">
         <v>28429</v>
@@ -22969,19 +22952,19 @@
         <v>782.349999999999</v>
       </c>
       <c r="V74">
-        <v>67646.065695060795</v>
+        <v>67645.941477081898</v>
       </c>
       <c r="W74">
-        <v>77697.841745632701</v>
+        <v>77696.992395256195</v>
       </c>
       <c r="X74">
-        <v>79302</v>
+        <v>79301</v>
       </c>
       <c r="Y74">
-        <v>101689</v>
+        <v>101688</v>
       </c>
       <c r="Z74">
-        <v>109806.95</v>
+        <v>109805.93679780699</v>
       </c>
       <c r="AA74">
         <v>40910</v>
@@ -23226,19 +23209,19 @@
         <v>135.717362182046</v>
       </c>
       <c r="V75">
-        <v>4159.8862239850396</v>
+        <v>4140.6366863692301</v>
       </c>
       <c r="W75">
-        <v>7642.3765522261101</v>
+        <v>7602.3006200297796</v>
       </c>
       <c r="X75">
-        <v>9572.6523879140695</v>
+        <v>9491.14057825704</v>
       </c>
       <c r="Y75">
-        <v>11371.933521823499</v>
+        <v>11266.4726777821</v>
       </c>
       <c r="Z75">
-        <v>12099.105211997699</v>
+        <v>11990.5746523704</v>
       </c>
       <c r="AA75">
         <v>14224</v>
@@ -23483,19 +23466,19 @@
         <v>209.24166666666599</v>
       </c>
       <c r="V76">
-        <v>7329.2631034727701</v>
+        <v>7318.4062923597403</v>
       </c>
       <c r="W76">
-        <v>11754.4919921608</v>
+        <v>11731.4946546473</v>
       </c>
       <c r="X76">
-        <v>15413.5999430464</v>
+        <v>15375.8558917232</v>
       </c>
       <c r="Y76">
-        <v>18605.3898190441</v>
+        <v>18572.429999001401</v>
       </c>
       <c r="Z76">
-        <v>19144.709561972701</v>
+        <v>19119.252615670699</v>
       </c>
       <c r="AA76">
         <v>27609</v>
@@ -23740,19 +23723,19 @@
         <v>512.36044738414898</v>
       </c>
       <c r="V77">
-        <v>17546.3495838136</v>
+        <v>17534.9958154454</v>
       </c>
       <c r="W77">
-        <v>28615.325433819598</v>
+        <v>28596.750168774401</v>
       </c>
       <c r="X77">
-        <v>41768.847804071098</v>
+        <v>41729.072163505203</v>
       </c>
       <c r="Y77">
-        <v>45410.586695975799</v>
+        <v>45383.113461926499</v>
       </c>
       <c r="Z77">
-        <v>48524.845853981598</v>
+        <v>48501.386383778503</v>
       </c>
       <c r="AA77">
         <v>55979</v>
@@ -23997,19 +23980,19 @@
         <v>134.94150599333901</v>
       </c>
       <c r="V78">
-        <v>6586.6060142861197</v>
+        <v>6577.83451744376</v>
       </c>
       <c r="W78">
-        <v>9710.1559885377901</v>
+        <v>9693.6683700463309</v>
       </c>
       <c r="X78">
-        <v>11493.189368166601</v>
+        <v>11459.2398280212</v>
       </c>
       <c r="Y78">
-        <v>12363.389126023299</v>
+        <v>12320.169204236099</v>
       </c>
       <c r="Z78">
-        <v>12908.2263927781</v>
+        <v>12870.7249033435</v>
       </c>
       <c r="AA78">
         <v>20879</v>
@@ -24254,19 +24237,19 @@
         <v>23.192490798706999</v>
       </c>
       <c r="V79">
-        <v>402.68426986532802</v>
+        <v>399.95391383257402</v>
       </c>
       <c r="W79">
-        <v>627.88960990266605</v>
+        <v>622.92078985735805</v>
       </c>
       <c r="X79">
-        <v>1026.6678172491199</v>
+        <v>1015.48475334178</v>
       </c>
       <c r="Y79">
-        <v>1829.9716057969499</v>
+        <v>1815.1854360536399</v>
       </c>
       <c r="Z79">
-        <v>1942.8763456346301</v>
+        <v>1931.2768554168299</v>
       </c>
       <c r="AA79">
         <v>3402</v>
@@ -24505,19 +24488,19 @@
         <v>696.99333814328099</v>
       </c>
       <c r="V80">
-        <v>19217.495860744901</v>
+        <v>19124.130074173201</v>
       </c>
       <c r="W80">
-        <v>35172.567331169601</v>
+        <v>34921.550730865201</v>
       </c>
       <c r="X80">
-        <v>54877.104254397796</v>
+        <v>54369.999092438899</v>
       </c>
       <c r="Y80">
-        <v>62579.775866714102</v>
+        <v>61941.986468679403</v>
       </c>
       <c r="Z80">
-        <v>71312.885679882194</v>
+        <v>70793.973120551804</v>
       </c>
       <c r="AA80">
         <v>85657</v>
@@ -24762,19 +24745,19 @@
         <v>257.666666666666</v>
       </c>
       <c r="V81">
-        <v>5073.3116276791798</v>
+        <v>5038.6348538980001</v>
       </c>
       <c r="W81">
-        <v>10689.765950986101</v>
+        <v>10620.7682546908</v>
       </c>
       <c r="X81">
-        <v>15417.400419739301</v>
+        <v>15330.6304332538</v>
       </c>
       <c r="Y81">
-        <v>19834.723019902802</v>
+        <v>19695.161890362298</v>
       </c>
       <c r="Z81">
-        <v>23648.832033696901</v>
+        <v>23487.288432865502</v>
       </c>
       <c r="AA81">
         <v>50965</v>
@@ -25019,19 +25002,19 @@
         <v>155.30198724394199</v>
       </c>
       <c r="V82">
-        <v>4805.9188886311804</v>
+        <v>4800.6526902937603</v>
       </c>
       <c r="W82">
-        <v>8356.9498270397198</v>
+        <v>8344.9156177021196</v>
       </c>
       <c r="X82">
-        <v>12000.1179487551</v>
+        <v>11971.32980223</v>
       </c>
       <c r="Y82">
-        <v>12624.7848270138</v>
+        <v>12593.7508998909</v>
       </c>
       <c r="Z82">
-        <v>12993.2033014806</v>
+        <v>12967.730558733299</v>
       </c>
       <c r="AA82">
         <v>14232</v>
@@ -25276,19 +25259,19 @@
         <v>124.76888230701501</v>
       </c>
       <c r="V83">
-        <v>2315.5155519049899</v>
+        <v>2278.633980222</v>
       </c>
       <c r="W83">
-        <v>4368.6740243394397</v>
+        <v>4243.3191278427803</v>
       </c>
       <c r="X83">
-        <v>8848.4745277582206</v>
+        <v>8597.0474962137996</v>
       </c>
       <c r="Y83">
-        <v>10350.814618943999</v>
+        <v>10076.430975274399</v>
       </c>
       <c r="Z83">
-        <v>11488.255897884599</v>
+        <v>11237.325034854801</v>
       </c>
       <c r="AA83">
         <v>18875</v>
@@ -25533,19 +25516,19 @@
         <v>100.825</v>
       </c>
       <c r="V84">
-        <v>2657.7736623506498</v>
+        <v>2618.1758036064998</v>
       </c>
       <c r="W84">
-        <v>4983.9497525288898</v>
+        <v>4898.2551336453798</v>
       </c>
       <c r="X84">
-        <v>7585.6147584853898</v>
+        <v>7415.1694389917002</v>
       </c>
       <c r="Y84">
-        <v>8416.7666353572404</v>
+        <v>8154.6271630794099</v>
       </c>
       <c r="Z84">
-        <v>8791.5731325351098</v>
+        <v>8566.6210696474209</v>
       </c>
       <c r="AA84">
         <v>13589</v>
@@ -25787,19 +25770,19 @@
         <v>1157.675</v>
       </c>
       <c r="V85">
-        <v>52286.911655288503</v>
+        <v>52177.680494279797</v>
       </c>
       <c r="W85">
-        <v>75027.351693083605</v>
+        <v>74732.157156337198</v>
       </c>
       <c r="X85">
-        <v>95475.350797635096</v>
+        <v>94947.738377321002</v>
       </c>
       <c r="Y85">
-        <v>104741.99594181</v>
+        <v>104254.629626036</v>
       </c>
       <c r="Z85">
-        <v>114887.57678151201</v>
+        <v>114402.716615752</v>
       </c>
       <c r="AA85">
         <v>150824</v>
@@ -26044,19 +26027,19 @@
         <v>827.633887101921</v>
       </c>
       <c r="V86">
-        <v>16117.3907998045</v>
+        <v>16018.6007701648</v>
       </c>
       <c r="W86">
-        <v>32626.847067163701</v>
+        <v>32495.108728219599</v>
       </c>
       <c r="X86">
-        <v>56070.4446979942</v>
+        <v>55840.708090345099</v>
       </c>
       <c r="Y86">
-        <v>69083.614067218106</v>
+        <v>68881.247663407805</v>
       </c>
       <c r="Z86">
-        <v>80480.037309117703</v>
+        <v>80339.307892363897</v>
       </c>
       <c r="AA86">
         <v>75607</v>
@@ -26301,19 +26284,19 @@
         <v>93.119256663273404</v>
       </c>
       <c r="V87">
-        <v>915.84167548504695</v>
+        <v>902.30059225943398</v>
       </c>
       <c r="W87">
-        <v>2693.50933642679</v>
+        <v>2672.2883996291898</v>
       </c>
       <c r="X87">
-        <v>5388.8827722299102</v>
+        <v>5347.3666639131698</v>
       </c>
       <c r="Y87">
-        <v>7832.25588856993</v>
+        <v>7803.2050209374702</v>
       </c>
       <c r="Z87">
-        <v>8840.9751917872909</v>
+        <v>8814.7730481500294</v>
       </c>
       <c r="AA87">
         <v>11819</v>
@@ -26555,19 +26538,19 @@
         <v>438.48526384328801</v>
       </c>
       <c r="V88">
-        <v>15082.389322336299</v>
+        <v>15058.557292068999</v>
       </c>
       <c r="W88">
-        <v>25391.678463374701</v>
+        <v>25327.485498656701</v>
       </c>
       <c r="X88">
-        <v>38339.214537911401</v>
+        <v>38288.2412056557</v>
       </c>
       <c r="Y88">
-        <v>38984.588883472999</v>
+        <v>38973.807987841603</v>
       </c>
       <c r="Z88">
-        <v>44493.6588437588</v>
+        <v>44483.948777425197</v>
       </c>
       <c r="AA88">
         <v>67021</v>
@@ -26812,19 +26795,19 @@
         <v>214.6</v>
       </c>
       <c r="V89">
-        <v>7724.8246679612803</v>
+        <v>7562.5615201568598</v>
       </c>
       <c r="W89">
-        <v>11658.598645605</v>
+        <v>11385.3877819593</v>
       </c>
       <c r="X89">
-        <v>16168.086304422401</v>
+        <v>15720.3956913277</v>
       </c>
       <c r="Y89">
-        <v>19336.378312521199</v>
+        <v>18937.924836304999</v>
       </c>
       <c r="Z89">
-        <v>19902.571353296</v>
+        <v>19627.360163046302</v>
       </c>
       <c r="AA89">
         <v>30771</v>
@@ -27066,19 +27049,19 @@
         <v>76.078521751674302</v>
       </c>
       <c r="V90">
-        <v>2720.2294357181399</v>
+        <v>2647.8467208576899</v>
       </c>
       <c r="W90">
-        <v>3778.7756798984901</v>
+        <v>3649.5139372835902</v>
       </c>
       <c r="X90">
-        <v>4912.1580705321803</v>
+        <v>4692.34904891309</v>
       </c>
       <c r="Y90">
-        <v>6435.78392988222</v>
+        <v>6269.4471786490503</v>
       </c>
       <c r="Z90">
-        <v>6509.0574902582002</v>
+        <v>6444.2521630064002</v>
       </c>
       <c r="AA90">
         <v>10539</v>
@@ -27323,19 +27306,19 @@
         <v>169.68945102631699</v>
       </c>
       <c r="V91">
-        <v>4391.8062781541703</v>
+        <v>4385.9998685687096</v>
       </c>
       <c r="W91">
-        <v>7582.2548212751299</v>
+        <v>7562.9409428262597</v>
       </c>
       <c r="X91">
-        <v>10959.0366650262</v>
+        <v>10929.708924008901</v>
       </c>
       <c r="Y91">
-        <v>13308.540636821999</v>
+        <v>13278.8337462574</v>
       </c>
       <c r="Z91">
-        <v>15351.974789842299</v>
+        <v>15328.4662679515</v>
       </c>
       <c r="AA91">
         <v>26989</v>
@@ -27580,19 +27563,19 @@
         <v>187.61960171651</v>
       </c>
       <c r="V92">
-        <v>2594.9279735441</v>
+        <v>2579.3541181084302</v>
       </c>
       <c r="W92">
-        <v>5849.4689501843304</v>
+        <v>5828.8489753537497</v>
       </c>
       <c r="X92">
-        <v>12135.2399427933</v>
+        <v>12101.7235224006</v>
       </c>
       <c r="Y92">
-        <v>16865.752268993099</v>
+        <v>16839.763401964301</v>
       </c>
       <c r="Z92">
-        <v>18215.072769565701</v>
+        <v>18193.538803186701</v>
       </c>
       <c r="AA92">
         <v>29502</v>
@@ -27837,19 +27820,19 @@
         <v>173.80750920129299</v>
       </c>
       <c r="V93">
-        <v>5282.5235170728802</v>
+        <v>5248.9107384383196</v>
       </c>
       <c r="W93">
-        <v>9113.8355136959308</v>
+        <v>9039.3530588330195</v>
       </c>
       <c r="X93">
-        <v>12443.8582128585</v>
+        <v>12293.3047758431</v>
       </c>
       <c r="Y93">
-        <v>14455.0183717649</v>
+        <v>14318.813644772899</v>
       </c>
       <c r="Z93">
-        <v>15591.1291842707</v>
+        <v>15475.237049540099</v>
       </c>
       <c r="AA93">
         <v>25820</v>
@@ -28094,19 +28077,19 @@
         <v>87.384564837554706</v>
       </c>
       <c r="V94">
-        <v>3837.20366527943</v>
+        <v>3834.3355117381402</v>
       </c>
       <c r="W94">
-        <v>5379.0409538465801</v>
+        <v>5373.5676097434698</v>
       </c>
       <c r="X94">
-        <v>8363.3190152802599</v>
+        <v>8352.3482380839305</v>
       </c>
       <c r="Y94">
-        <v>8394.3438484062299</v>
+        <v>8385.5061273619503</v>
       </c>
       <c r="Z94">
-        <v>9117.2866791782599</v>
+        <v>9103.2447120880806</v>
       </c>
       <c r="AA94">
         <v>9691</v>
@@ -28351,19 +28334,19 @@
         <v>157.10794648423399</v>
       </c>
       <c r="V95">
-        <v>5707.4403883954001</v>
+        <v>5704.6239446999498</v>
       </c>
       <c r="W95">
-        <v>8408.6847642547891</v>
+        <v>8405.2197357200203</v>
       </c>
       <c r="X95">
-        <v>11233.0685911007</v>
+        <v>11227.921846946499</v>
       </c>
       <c r="Y95">
-        <v>12818.8464039997</v>
+        <v>12815.7215393925</v>
       </c>
       <c r="Z95">
-        <v>15326.4689571375</v>
+        <v>15318.763164202201</v>
       </c>
       <c r="AA95">
         <v>17519</v>
@@ -28608,19 +28591,19 @@
         <v>76.908944343764702</v>
       </c>
       <c r="V96">
-        <v>2926.0258930230498</v>
+        <v>2923.1254607389201</v>
       </c>
       <c r="W96">
-        <v>4317.4562445276497</v>
+        <v>4310.7646009516902</v>
       </c>
       <c r="X96">
-        <v>5673.5876412431799</v>
+        <v>5665.36809069632</v>
       </c>
       <c r="Y96">
-        <v>6613.7530215843299</v>
+        <v>6604.3728069846002</v>
       </c>
       <c r="Z96">
-        <v>7037.6943646439704</v>
+        <v>7023.5372366246702</v>
       </c>
       <c r="AA96">
         <v>5881</v>
@@ -28865,19 +28848,19 @@
         <v>49.179815398866602</v>
       </c>
       <c r="V97">
-        <v>2899.7634438408099</v>
+        <v>2892.6588043494098</v>
       </c>
       <c r="W97">
-        <v>3477.4248206225202</v>
+        <v>3466.5299261439</v>
       </c>
       <c r="X97">
-        <v>5037.8361141227897</v>
+        <v>5017.9818811824098</v>
       </c>
       <c r="Y97">
-        <v>4834.5436645974096</v>
+        <v>4808.1566316214203</v>
       </c>
       <c r="Z97">
-        <v>4757.01214542652</v>
+        <v>4727.3284225573498</v>
       </c>
       <c r="AA97">
         <v>4361</v>
@@ -29122,19 +29105,19 @@
         <v>873.04610145386198</v>
       </c>
       <c r="V98">
-        <v>36499.748643125597</v>
+        <v>36493.599772957401</v>
       </c>
       <c r="W98">
-        <v>50875.493457072997</v>
+        <v>50865.527339451502</v>
       </c>
       <c r="X98">
-        <v>83957.882500913896</v>
+        <v>83941.884533417906</v>
       </c>
       <c r="Y98">
-        <v>97809.526374270397</v>
+        <v>97794.469475522405</v>
       </c>
       <c r="Z98">
-        <v>110812.44947822401</v>
+        <v>110785.642208972</v>
       </c>
       <c r="AA98">
         <v>83133</v>
@@ -29379,19 +29362,19 @@
         <v>60.506110725451897</v>
       </c>
       <c r="V99">
-        <v>2522.97298977331</v>
+        <v>2516.8936936240402</v>
       </c>
       <c r="W99">
-        <v>3469.9212956157198</v>
+        <v>3459.3157869459801</v>
       </c>
       <c r="X99">
-        <v>4689.0651038129099</v>
+        <v>4670.3889269307401</v>
       </c>
       <c r="Y99">
-        <v>7037.8629043801802</v>
+        <v>7022.1058812116398</v>
       </c>
       <c r="Z99">
-        <v>6641.6164199993</v>
+        <v>6610.8667155643298</v>
       </c>
       <c r="AA99">
         <v>6209</v>
@@ -29633,19 +29616,19 @@
         <v>50.4810728119879</v>
       </c>
       <c r="V100">
-        <v>1492.10806274429</v>
+        <v>1480.9764092738701</v>
       </c>
       <c r="W100">
-        <v>2251.74143634759</v>
+        <v>2234.6278725470602</v>
       </c>
       <c r="X100">
-        <v>3701.5799406454098</v>
+        <v>3673.6698305221398</v>
       </c>
       <c r="Y100">
-        <v>4386.8388980399504</v>
+        <v>4355.3114205293896</v>
       </c>
       <c r="Z100">
-        <v>4861.90438199655</v>
+        <v>4816.9824788852002</v>
       </c>
       <c r="AA100">
         <v>6861</v>
@@ -29890,19 +29873,19 @@
         <v>98.391058744739198</v>
       </c>
       <c r="V101">
-        <v>4363.2929896309397</v>
+        <v>4362.4198396685797</v>
       </c>
       <c r="W101">
-        <v>6125.3287818020799</v>
+        <v>6122.4633235112196</v>
       </c>
       <c r="X101">
-        <v>9617.0865212056506</v>
+        <v>9611.0953986791701</v>
       </c>
       <c r="Y101">
-        <v>10073.9043881859</v>
+        <v>10070.467957099499</v>
       </c>
       <c r="Z101">
-        <v>10924.195887084399</v>
+        <v>10918.9965021182</v>
       </c>
       <c r="AA101">
         <v>8761</v>
@@ -30147,19 +30130,19 @@
         <v>113.94579167404299</v>
       </c>
       <c r="V102">
-        <v>5248.9394322661601</v>
+        <v>5245.6583018585698</v>
       </c>
       <c r="W102">
-        <v>7683.4313867083602</v>
+        <v>7677.6423444082902</v>
       </c>
       <c r="X102">
-        <v>10104.382966696399</v>
+        <v>10093.4440672159</v>
       </c>
       <c r="Y102">
-        <v>10480.703302570901</v>
+        <v>10468.3065584501</v>
       </c>
       <c r="Z102">
-        <v>10835.9076918226</v>
+        <v>10818.648669747399</v>
       </c>
       <c r="AA102">
         <v>11058</v>
@@ -30404,19 +30387,19 @@
         <v>476.02499999999998</v>
       </c>
       <c r="V103">
-        <v>28554.4128258821</v>
+        <v>28518.6440186115</v>
       </c>
       <c r="W103">
-        <v>41261.511351843801</v>
+        <v>41190.2809818237</v>
       </c>
       <c r="X103">
-        <v>40112.199773833898</v>
+        <v>40008.878946889999</v>
       </c>
       <c r="Y103">
-        <v>50563.917241862298</v>
+        <v>50489.164167206101</v>
       </c>
       <c r="Z103">
-        <v>53581.4645659362</v>
+        <v>53488.109863738202</v>
       </c>
       <c r="AA103">
         <v>45503</v>
@@ -30661,19 +30644,19 @@
         <v>234.24648272098199</v>
       </c>
       <c r="V104">
-        <v>4503.1457502816202</v>
+        <v>4485.4133147436596</v>
       </c>
       <c r="W104">
-        <v>6074.7700260507099</v>
+        <v>6042.1193086120002</v>
       </c>
       <c r="X104">
-        <v>13957.3298542907</v>
+        <v>13872.054499813001</v>
       </c>
       <c r="Y104">
-        <v>17718.048166227501</v>
+        <v>17605.027209711901</v>
       </c>
       <c r="Z104">
-        <v>20607.134613971801</v>
+        <v>20468.389506731299</v>
       </c>
       <c r="AA104">
         <v>33151</v>
@@ -30918,19 +30901,19 @@
         <v>35.858333333333299</v>
       </c>
       <c r="V105">
-        <v>1354.21583247441</v>
+        <v>1346.8244164559601</v>
       </c>
       <c r="W105">
-        <v>1393.7483752149999</v>
+        <v>1379.9809233057499</v>
       </c>
       <c r="X105">
-        <v>2546.17628785335</v>
+        <v>2511.1757780438702</v>
       </c>
       <c r="Y105">
-        <v>2729.1980318907699</v>
+        <v>2671.7095125590999</v>
       </c>
       <c r="Z105">
-        <v>2789.4660945802102</v>
+        <v>2727.28466543371</v>
       </c>
       <c r="AA105">
         <v>4451</v>
@@ -31175,19 +31158,19 @@
         <v>50.603279670248199</v>
       </c>
       <c r="V106">
-        <v>1350.12700379429</v>
+        <v>1332.60669332929</v>
       </c>
       <c r="W106">
-        <v>1647.7416432233599</v>
+        <v>1617.67330256374</v>
       </c>
       <c r="X106">
-        <v>3014.4645631008302</v>
+        <v>2942.2791051406298</v>
       </c>
       <c r="Y106">
-        <v>3599.11710655252</v>
+        <v>3514.8120070346699</v>
       </c>
       <c r="Z106">
-        <v>3944.3947122337499</v>
+        <v>3841.3091336110201</v>
       </c>
       <c r="AA106">
         <v>8990</v>
@@ -31432,19 +31415,19 @@
         <v>62.958312880793599</v>
       </c>
       <c r="V107">
-        <v>1235.31386362644</v>
+        <v>1192.8254334866101</v>
       </c>
       <c r="W107">
-        <v>1796.3850994278901</v>
+        <v>1714.0489873983199</v>
       </c>
       <c r="X107">
-        <v>3684.5996327500702</v>
+        <v>3488.3597018110399</v>
       </c>
       <c r="Y107">
-        <v>4334.9500759191396</v>
+        <v>4067.9485609711901</v>
       </c>
       <c r="Z107">
-        <v>5172.7776289180802</v>
+        <v>4833.3758154082798</v>
       </c>
       <c r="AA107">
         <v>9699</v>
@@ -31686,19 +31669,19 @@
         <v>100.2822893638</v>
       </c>
       <c r="V108">
-        <v>4957.1264639888404</v>
+        <v>4921.8211772524401</v>
       </c>
       <c r="W108">
-        <v>7125.7028161304597</v>
+        <v>7075.6426459251197</v>
       </c>
       <c r="X108">
-        <v>9693.1794735719195</v>
+        <v>9650.5194522359907</v>
       </c>
       <c r="Y108">
-        <v>10990.414731643201</v>
+        <v>10912.553562893199</v>
       </c>
       <c r="Z108">
-        <v>11205.227176979901</v>
+        <v>11108.608302195</v>
       </c>
       <c r="AA108">
         <v>6867</v>
@@ -31943,19 +31926,19 @@
         <v>2684.8098387759701</v>
       </c>
       <c r="V109">
-        <v>183385.74514221499</v>
+        <v>183369.303026176</v>
       </c>
       <c r="W109">
-        <v>232569.30066862999</v>
+        <v>232550.921454228</v>
       </c>
       <c r="X109">
-        <v>289823.09750557499</v>
+        <v>289805.38277441001</v>
       </c>
       <c r="Y109">
-        <v>292526.14829331299</v>
+        <v>292502.322393829</v>
       </c>
       <c r="Z109">
-        <v>318655.42299342598</v>
+        <v>318636.20697191101</v>
       </c>
       <c r="AA109">
         <v>260201</v>
@@ -32200,19 +32183,19 @@
         <v>641.57053122068396</v>
       </c>
       <c r="V110">
-        <v>17193.241332682999</v>
+        <v>17185.0134037674</v>
       </c>
       <c r="W110">
-        <v>36941.095356919002</v>
+        <v>36931.067940599198</v>
       </c>
       <c r="X110">
-        <v>62379.419974638797</v>
+        <v>62372.222443498104</v>
       </c>
       <c r="Y110">
-        <v>68187.798062061993</v>
+        <v>68174.855673507598</v>
       </c>
       <c r="Z110">
-        <v>79106.269927020898</v>
+        <v>79096.404869235907</v>
       </c>
       <c r="AA110">
         <v>70124</v>
@@ -32457,19 +32440,19 @@
         <v>214.63635812017301</v>
       </c>
       <c r="V111">
-        <v>7757.7267509291896</v>
+        <v>7733.7505044205</v>
       </c>
       <c r="W111">
-        <v>12007.4436693302</v>
+        <v>11970.5992036918</v>
       </c>
       <c r="X111">
-        <v>19905.663760144998</v>
+        <v>19867.815820223699</v>
       </c>
       <c r="Y111">
-        <v>20448.686280816401</v>
+        <v>20375.261394910602</v>
       </c>
       <c r="Z111">
-        <v>23032.4032618315</v>
+        <v>22965.9109463973</v>
       </c>
       <c r="AA111">
         <v>24112</v>
@@ -32714,19 +32697,19 @@
         <v>347.98455967657299</v>
       </c>
       <c r="V112">
-        <v>11912.2496624054</v>
+        <v>11895.737839396401</v>
       </c>
       <c r="W112">
-        <v>19785.322189601899</v>
+        <v>19761.2845710359</v>
       </c>
       <c r="X112">
-        <v>33586.0201239343</v>
+        <v>33568.0428114159</v>
       </c>
       <c r="Y112">
-        <v>39295.137301265</v>
+        <v>39249.833651859197</v>
       </c>
       <c r="Z112">
-        <v>42409.222698881</v>
+        <v>42363.109863248297</v>
       </c>
       <c r="AA112">
         <v>36966</v>
@@ -32971,19 +32954,19 @@
         <v>87.616278368194202</v>
       </c>
       <c r="V113">
-        <v>3497.6134688995699</v>
+        <v>3458.5195313417898</v>
       </c>
       <c r="W113">
-        <v>5457.4882588499404</v>
+        <v>5406.6881953623397</v>
       </c>
       <c r="X113">
-        <v>9546.3334146796897</v>
+        <v>9501.7636877863297</v>
       </c>
       <c r="Y113">
-        <v>10738.170505709501</v>
+        <v>10641.2611593195</v>
       </c>
       <c r="Z113">
-        <v>11948.7339407863</v>
+        <v>11838.9568995471</v>
       </c>
       <c r="AA113">
         <v>7020</v>
@@ -33228,19 +33211,19 @@
         <v>51.466666666666598</v>
       </c>
       <c r="V114">
-        <v>4131.7463143269797</v>
+        <v>4113.3859520394999</v>
       </c>
       <c r="W114">
-        <v>4678.0053972118003</v>
+        <v>4652.5982541458998</v>
       </c>
       <c r="X114">
-        <v>6334.2049943750499</v>
+        <v>6312.0914818393403</v>
       </c>
       <c r="Y114">
-        <v>6237.9542591808904</v>
+        <v>6198.4601912287899</v>
       </c>
       <c r="Z114">
-        <v>5926.2878401879398</v>
+        <v>5885.1753618232697</v>
       </c>
       <c r="AA114">
         <v>4820</v>
@@ -33485,19 +33468,19 @@
         <v>102.27074802412599</v>
       </c>
       <c r="V115">
-        <v>7020.7855249684599</v>
+        <v>7000.3521008323096</v>
       </c>
       <c r="W115">
-        <v>8009.3017733019797</v>
+        <v>7978.7044719496398</v>
       </c>
       <c r="X115">
-        <v>10707.2812699935</v>
+        <v>10680.145998097199</v>
       </c>
       <c r="Y115">
-        <v>11476.642913441299</v>
+        <v>11427.4044638095</v>
       </c>
       <c r="Z115">
-        <v>11533.668249599899</v>
+        <v>11479.687293479999</v>
       </c>
       <c r="AA115">
         <v>10195</v>
@@ -33742,19 +33725,19 @@
         <v>113.628749746709</v>
       </c>
       <c r="V116">
-        <v>6048.6871128070998</v>
+        <v>6019.8097873597699</v>
       </c>
       <c r="W116">
-        <v>8137.4261926622503</v>
+        <v>8100.2016411083296</v>
       </c>
       <c r="X116">
-        <v>10391.6373859493</v>
+        <v>10353.552571877301</v>
       </c>
       <c r="Y116">
-        <v>11007.7760276523</v>
+        <v>10939.3923341318</v>
       </c>
       <c r="Z116">
-        <v>11599.3076279539</v>
+        <v>11526.2203986901</v>
       </c>
       <c r="AA116">
         <v>8938</v>
@@ -33999,19 +33982,19 @@
         <v>234.807447418039</v>
       </c>
       <c r="V117">
-        <v>6451.0980430572899</v>
+        <v>6422.6807635908299</v>
       </c>
       <c r="W117">
-        <v>8760.3342510869697</v>
+        <v>8721.7708737123903</v>
       </c>
       <c r="X117">
-        <v>15051.186667039499</v>
+        <v>15016.8486592435</v>
       </c>
       <c r="Y117">
-        <v>21493.356304059598</v>
+        <v>21433.223104549699</v>
       </c>
       <c r="Z117">
-        <v>25871.539364470998</v>
+        <v>25809.449341221902</v>
       </c>
       <c r="AA117">
         <v>27942</v>
@@ -34253,19 +34236,19 @@
         <v>133.604252637587</v>
       </c>
       <c r="V118">
-        <v>7053.1006432383201</v>
+        <v>7034.0833767101103</v>
       </c>
       <c r="W118">
-        <v>9315.6287262184396</v>
+        <v>9290.8915742213103</v>
       </c>
       <c r="X118">
-        <v>13595.1870651766</v>
+        <v>13573.536759275899</v>
       </c>
       <c r="Y118">
-        <v>13967.674168011899</v>
+        <v>13920.985379489601</v>
       </c>
       <c r="Z118">
-        <v>14171.360612271899</v>
+        <v>14119.798339277</v>
       </c>
       <c r="AA118">
         <v>14621</v>
@@ -34507,19 +34490,19 @@
         <v>194.67602001878501</v>
       </c>
       <c r="V119">
-        <v>8611.3953944215391</v>
+        <v>8587.66819430756</v>
       </c>
       <c r="W119">
-        <v>11372.8697610211</v>
+        <v>11333.8611476755</v>
       </c>
       <c r="X119">
-        <v>15121.4341720923</v>
+        <v>15072.5025957585</v>
       </c>
       <c r="Y119">
-        <v>16317.263815373801</v>
+        <v>16236.8845619764</v>
       </c>
       <c r="Z119">
-        <v>18366.902383787499</v>
+        <v>18207.877475478199</v>
       </c>
       <c r="AA119">
         <v>20888</v>
@@ -34761,19 +34744,19 @@
         <v>51.466666666666598</v>
       </c>
       <c r="V120">
-        <v>2698.8222737126398</v>
+        <v>2685.3643542201999</v>
       </c>
       <c r="W120">
-        <v>3214.9104702099198</v>
+        <v>3197.2639565644199</v>
       </c>
       <c r="X120">
-        <v>4212.6957821716496</v>
+        <v>4189.5324885445398</v>
       </c>
       <c r="Y120">
-        <v>3843.7778359568401</v>
+        <v>3811.6869285037901</v>
       </c>
       <c r="Z120">
-        <v>4322.0034419535396</v>
+        <v>4259.4597749535396</v>
       </c>
       <c r="AA120">
         <v>5385</v>
@@ -35018,19 +35001,19 @@
         <v>131.24166666666599</v>
       </c>
       <c r="V121">
-        <v>3842.9314084510202</v>
+        <v>3819.5111620826801</v>
       </c>
       <c r="W121">
-        <v>6427.7068536547704</v>
+        <v>6388.8221626080203</v>
       </c>
       <c r="X121">
-        <v>10177.0971943268</v>
+        <v>10129.8656153217</v>
       </c>
       <c r="Y121">
-        <v>11685.5416174892</v>
+        <v>11600.368649731699</v>
       </c>
       <c r="Z121">
-        <v>14304.0360973569</v>
+        <v>14147.624766311699</v>
       </c>
       <c r="AA121">
         <v>17476</v>
@@ -35272,19 +35255,19 @@
         <v>145.20672372901899</v>
       </c>
       <c r="V122">
-        <v>1452.9624965345699</v>
+        <v>1439.69954614983</v>
       </c>
       <c r="W122">
-        <v>3450.2165004849498</v>
+        <v>3429.77106995952</v>
       </c>
       <c r="X122">
-        <v>7634.0816114074796</v>
+        <v>7609.0855717549402</v>
       </c>
       <c r="Y122">
-        <v>11292.160796350399</v>
+        <v>11255.632299380401</v>
       </c>
       <c r="Z122">
-        <v>14994.0435716674</v>
+        <v>14922.003924406699</v>
       </c>
       <c r="AA122">
         <v>17392</v>
@@ -35529,19 +35512,19 @@
         <v>41.65</v>
       </c>
       <c r="V123">
-        <v>2244.9870995690198</v>
+        <v>2234.2808978675498</v>
       </c>
       <c r="W123">
-        <v>2738.0977804387499</v>
+        <v>2722.6754881852398</v>
       </c>
       <c r="X123">
-        <v>3823.1624217016201</v>
+        <v>3807.3429499275398</v>
       </c>
       <c r="Y123">
-        <v>3596.0019718840999</v>
+        <v>3570.3868375229099</v>
       </c>
       <c r="Z123">
-        <v>4256.0830959853402</v>
+        <v>4214.5333657060901</v>
       </c>
       <c r="AA123">
         <v>5872</v>
@@ -35783,19 +35766,19 @@
         <v>53.817310578461601</v>
       </c>
       <c r="V124">
-        <v>1004.3452927762</v>
+        <v>993.86910431382898</v>
       </c>
       <c r="W124">
-        <v>1587.54763803119</v>
+        <v>1571.7766098670299</v>
       </c>
       <c r="X124">
-        <v>2823.46150038205</v>
+        <v>2805.4248821272799</v>
       </c>
       <c r="Y124">
-        <v>3385.6660850645699</v>
+        <v>3355.6815762280098</v>
       </c>
       <c r="Z124">
-        <v>4221.5673077923402</v>
+        <v>4163.8741509278298</v>
       </c>
       <c r="AA124">
         <v>6198</v>
@@ -36037,19 +36020,19 @@
         <v>197.54767448339501</v>
       </c>
       <c r="V125">
-        <v>13371.8083130131</v>
+        <v>13361.101512380799</v>
       </c>
       <c r="W125">
-        <v>13843.483403345101</v>
+        <v>13828.931630257401</v>
       </c>
       <c r="X125">
-        <v>17829.6404353496</v>
+        <v>17811.993143037998</v>
       </c>
       <c r="Y125">
-        <v>18317.900288057601</v>
+        <v>18294.5428034408</v>
       </c>
       <c r="Z125">
-        <v>19659.854291879699</v>
+        <v>19618.549182555002</v>
       </c>
       <c r="AA125">
         <v>22076</v>
@@ -36291,19 +36274,19 @@
         <v>41.269375764788201</v>
       </c>
       <c r="V126">
-        <v>2587.6040871812802</v>
+        <v>2571.0639309263602</v>
       </c>
       <c r="W126">
-        <v>2939.8676761591601</v>
+        <v>2916.8209284917998</v>
       </c>
       <c r="X126">
-        <v>3569.3717967525999</v>
+        <v>3539.99638112617</v>
       </c>
       <c r="Y126">
-        <v>3333.2676638264902</v>
+        <v>3291.4396942417602</v>
       </c>
       <c r="Z126">
-        <v>3395.4099262909399</v>
+        <v>3320.9024242036098</v>
       </c>
       <c r="AA126">
         <v>4595</v>
@@ -36545,19 +36528,19 @@
         <v>630.11640256038299</v>
       </c>
       <c r="V127">
-        <v>27784.3927627962</v>
+        <v>27776.073374649801</v>
       </c>
       <c r="W127">
-        <v>38499.783275112801</v>
+        <v>38488.927486932997</v>
       </c>
       <c r="X127">
-        <v>57833.766110669501</v>
+        <v>57815.5414860616</v>
       </c>
       <c r="Y127">
-        <v>66979.565339505105</v>
+        <v>66962.447417449803</v>
       </c>
       <c r="Z127">
-        <v>69750.350033859693</v>
+        <v>69720.058404476295</v>
       </c>
       <c r="AA127">
         <v>57681</v>
@@ -36802,19 +36785,19 @@
         <v>71.007364080716499</v>
       </c>
       <c r="V128">
-        <v>2310.09097958757</v>
+        <v>2303.3269476564001</v>
       </c>
       <c r="W128">
-        <v>3484.3883362448601</v>
+        <v>3471.3885899865199</v>
       </c>
       <c r="X128">
-        <v>5630.5724359042397</v>
+        <v>5616.5564219130601</v>
       </c>
       <c r="Y128">
-        <v>7006.6238317568204</v>
+        <v>6983.8130558922403</v>
       </c>
       <c r="Z128">
-        <v>7047.6432045122101</v>
+        <v>7004.2069752494099</v>
       </c>
       <c r="AA128">
         <v>5775</v>
@@ -37059,19 +37042,19 @@
         <v>131.577915969836</v>
       </c>
       <c r="V129">
-        <v>5494.6785516090504</v>
+        <v>5479.6013884817603</v>
       </c>
       <c r="W129">
-        <v>7216.93700370018</v>
+        <v>7196.0485330045803</v>
       </c>
       <c r="X129">
-        <v>10509.143805236299</v>
+        <v>10487.7238126631</v>
       </c>
       <c r="Y129">
-        <v>10868.6072066382</v>
+        <v>10832.062063810899</v>
       </c>
       <c r="Z129">
-        <v>11772.021173953999</v>
+        <v>11696.719413807699</v>
       </c>
       <c r="AA129">
         <v>12277</v>
@@ -37316,19 +37299,19 @@
         <v>94.501342417245596</v>
       </c>
       <c r="V130">
-        <v>3343.2636125468898</v>
+        <v>3327.5817213718001</v>
       </c>
       <c r="W130">
-        <v>4511.2037982898901</v>
+        <v>4486.8633674083003</v>
       </c>
       <c r="X130">
-        <v>6582.2815265357804</v>
+        <v>6553.9257821219899</v>
       </c>
       <c r="Y130">
-        <v>7513.0316680498599</v>
+        <v>7469.6092907510201</v>
       </c>
       <c r="Z130">
-        <v>8734.0929740181691</v>
+        <v>8652.9687192941292</v>
       </c>
       <c r="AA130">
         <v>6978</v>
@@ -37573,19 +37556,19 @@
         <v>112.246711397094</v>
       </c>
       <c r="V131">
-        <v>5660.6099599086101</v>
+        <v>5653.9522541934102</v>
       </c>
       <c r="W131">
-        <v>7373.7833980997302</v>
+        <v>7364.3884553008902</v>
       </c>
       <c r="X131">
-        <v>10196.2893920433</v>
+        <v>10186.9522795332</v>
       </c>
       <c r="Y131">
-        <v>10494.3412881817</v>
+        <v>10478.144643670899</v>
       </c>
       <c r="Z131">
-        <v>10589.9391863613</v>
+        <v>10559.6854305667</v>
       </c>
       <c r="AA131">
         <v>9743</v>
@@ -37830,19 +37813,19 @@
         <v>51.650828499226002</v>
       </c>
       <c r="V132">
-        <v>3302.2133119768901</v>
+        <v>3292.5059093752402</v>
       </c>
       <c r="W132">
-        <v>3572.8867187658998</v>
+        <v>3557.4531676083002</v>
       </c>
       <c r="X132">
-        <v>4449.9643831855601</v>
+        <v>4434.5505006149097</v>
       </c>
       <c r="Y132">
-        <v>4815.7960635023901</v>
+        <v>4791.1744359598697</v>
       </c>
       <c r="Z132">
-        <v>4606.0224872225099</v>
+        <v>4562.7445125047298</v>
       </c>
       <c r="AA132">
         <v>6246</v>
@@ -38087,19 +38070,19 @@
         <v>76.512802487164606</v>
       </c>
       <c r="V133">
-        <v>4348.6872272561704</v>
+        <v>4304.4818779122197</v>
       </c>
       <c r="W133">
-        <v>3899.8859540803101</v>
+        <v>3853.9438869434398</v>
       </c>
       <c r="X133">
-        <v>5182.8701383426396</v>
+        <v>5146.51149095658</v>
       </c>
       <c r="Y133">
-        <v>6638.2344859925697</v>
+        <v>6576.2116574327802</v>
       </c>
       <c r="Z133">
-        <v>6775.2100047983604</v>
+        <v>6702.46871891315</v>
       </c>
       <c r="AA133">
         <v>5562</v>
@@ -38344,19 +38327,19 @@
         <v>59.75</v>
       </c>
       <c r="V134">
-        <v>2753.8250150333802</v>
+        <v>2693.8252282381</v>
       </c>
       <c r="W134">
-        <v>2879.19088384325</v>
+        <v>2805.6379605993102</v>
       </c>
       <c r="X134">
-        <v>3799.4221707460201</v>
+        <v>3733.9815306617002</v>
       </c>
       <c r="Y134">
-        <v>4937.1334268299597</v>
+        <v>4826.9945790209204</v>
       </c>
       <c r="Z134">
-        <v>5410.2879620899803</v>
+        <v>5287.6590686633399</v>
       </c>
       <c r="AA134">
         <v>5519</v>
@@ -38598,19 +38581,19 @@
         <v>91.202076804378805</v>
       </c>
       <c r="V135">
-        <v>2826.4371781428399</v>
+        <v>2786.8532865797301</v>
       </c>
       <c r="W135">
-        <v>3575.5085970475898</v>
+        <v>3529.0574210278</v>
       </c>
       <c r="X135">
-        <v>5345.5342415221503</v>
+        <v>5300.6974013858598</v>
       </c>
       <c r="Y135">
-        <v>7145.0118304490297</v>
+        <v>7055.5795310324702</v>
       </c>
       <c r="Z135">
-        <v>8038.2089654096499</v>
+        <v>7936.1162963619799</v>
       </c>
       <c r="AA135">
         <v>6794</v>
@@ -38855,19 +38838,19 @@
         <v>131.43631620599299</v>
       </c>
       <c r="V136">
-        <v>5242.2731056430002</v>
+        <v>5193.3978683102196</v>
       </c>
       <c r="W136">
-        <v>5577.5288389447896</v>
+        <v>5523.4582449157197</v>
       </c>
       <c r="X136">
-        <v>8910.2950352938296</v>
+        <v>8860.2140525075502</v>
       </c>
       <c r="Y136">
-        <v>12850.431960341501</v>
+        <v>12757.4569412603</v>
       </c>
       <c r="Z136">
-        <v>14073.761912882301</v>
+        <v>13966.182491382</v>
       </c>
       <c r="AA136">
         <v>10800</v>
@@ -39112,19 +39095,19 @@
         <v>297.192489113443</v>
       </c>
       <c r="V137">
-        <v>11676.0427060609</v>
+        <v>11645.0497812663</v>
       </c>
       <c r="W137">
-        <v>15504.9091494118</v>
+        <v>15473.718442399801</v>
       </c>
       <c r="X137">
-        <v>23876.782259829699</v>
+        <v>23849.190051532802</v>
       </c>
       <c r="Y137">
-        <v>27827.512983639601</v>
+        <v>27773.712319747399</v>
       </c>
       <c r="Z137">
-        <v>31854.773991023299</v>
+        <v>31789.647144477502</v>
       </c>
       <c r="AA137">
         <v>24641</v>
@@ -39369,19 +39352,19 @@
         <v>41.274191838912799</v>
       </c>
       <c r="V138">
-        <v>1633.3371120494601</v>
+        <v>1584.2538031669501</v>
       </c>
       <c r="W138">
-        <v>2075.7642430102701</v>
+        <v>2021.4426214303601</v>
       </c>
       <c r="X138">
-        <v>2945.6471630720798</v>
+        <v>2900.7127412556501</v>
       </c>
       <c r="Y138">
-        <v>3483.9019898301299</v>
+        <v>3408.0971651911</v>
       </c>
       <c r="Z138">
-        <v>3597.3148201537101</v>
+        <v>3500.6798721046798</v>
       </c>
       <c r="AA138">
         <v>4691</v>
@@ -39623,19 +39606,19 @@
         <v>92.215343654574994</v>
       </c>
       <c r="V139">
-        <v>4387.1185184486203</v>
+        <v>4352.5305296226697</v>
       </c>
       <c r="W139">
-        <v>4611.1746551277201</v>
+        <v>4575.1351609369503</v>
       </c>
       <c r="X139">
-        <v>6446.7785424789599</v>
+        <v>6417.4261491632597</v>
       </c>
       <c r="Y139">
-        <v>7443.20140054283</v>
+        <v>7383.6107402354901</v>
       </c>
       <c r="Z139">
-        <v>7931.8767119015502</v>
+        <v>7882.8909009525496</v>
       </c>
       <c r="AA139">
         <v>8680</v>
@@ -39880,19 +39863,19 @@
         <v>52.65</v>
       </c>
       <c r="V140">
-        <v>1901.18606127302</v>
+        <v>1865.61044768178</v>
       </c>
       <c r="W140">
-        <v>2264.8660993359499</v>
+        <v>2226.65048148284</v>
       </c>
       <c r="X140">
-        <v>3318.1905741137102</v>
+        <v>3278.9192085391601</v>
       </c>
       <c r="Y140">
-        <v>4317.2782186111299</v>
+        <v>4209.7555987591904</v>
       </c>
       <c r="Z140">
-        <v>4930.1620850971403</v>
+        <v>4822.5082046786401</v>
       </c>
       <c r="AA140">
         <v>3550</v>
@@ -40137,19 +40120,19 @@
         <v>53.982247599438999</v>
       </c>
       <c r="V141">
-        <v>2804.8344632844</v>
+        <v>2760.9377717530801</v>
       </c>
       <c r="W141">
-        <v>3236.3755237681298</v>
+        <v>3188.8937377503999</v>
       </c>
       <c r="X141">
-        <v>4301.8234620500498</v>
+        <v>4256.2262458478599</v>
       </c>
       <c r="Y141">
-        <v>4425.3856871309299</v>
+        <v>4353.6971772799197</v>
       </c>
       <c r="Z141">
-        <v>4638.7658822311396</v>
+        <v>4568.4034677824502</v>
       </c>
       <c r="AA141">
         <v>5405</v>
@@ -40391,19 +40374,19 @@
         <v>54.091666666666598</v>
       </c>
       <c r="V142">
-        <v>2158.11148667414</v>
+        <v>2146.5867021619401</v>
       </c>
       <c r="W142">
-        <v>2845.9089856246601</v>
+        <v>2828.31729066856</v>
       </c>
       <c r="X142">
-        <v>3818.61830675493</v>
+        <v>3795.51593163696</v>
       </c>
       <c r="Y142">
-        <v>4551.8280105009999</v>
+        <v>4489.0592239184598</v>
       </c>
       <c r="Z142">
-        <v>4552.2153329192097</v>
+        <v>4461.6014413916</v>
       </c>
       <c r="AA142">
         <v>6145</v>
@@ -40648,19 +40631,19 @@
         <v>356.26963711138302</v>
       </c>
       <c r="V143">
-        <v>8696.7779696685393</v>
+        <v>8684.65314867085</v>
       </c>
       <c r="W143">
-        <v>15462.443836259201</v>
+        <v>15446.922375227199</v>
       </c>
       <c r="X143">
-        <v>24721.295256585701</v>
+        <v>24701.844950512699</v>
       </c>
       <c r="Y143">
-        <v>30995.322829998498</v>
+        <v>30950.036518095902</v>
       </c>
       <c r="Z143">
-        <v>35117.147088197002</v>
+        <v>35044.607431219301</v>
       </c>
       <c r="AA143">
         <v>37649</v>
@@ -40905,19 +40888,19 @@
         <v>32.971467775487</v>
       </c>
       <c r="V144">
-        <v>1219.1123635844499</v>
+        <v>1210.2302819414699</v>
       </c>
       <c r="W144">
-        <v>1687.6241525880801</v>
+        <v>1673.96215497198</v>
       </c>
       <c r="X144">
-        <v>2060.39668758684</v>
+        <v>2046.0344453241701</v>
       </c>
       <c r="Y144">
-        <v>2615.6687854903998</v>
+        <v>2579.6943220461199</v>
       </c>
       <c r="Z144">
-        <v>2808.0792586821899</v>
+        <v>2751.7185086275199</v>
       </c>
       <c r="AA144">
         <v>3301</v>
@@ -41162,19 +41145,19 @@
         <v>253.90298336839501</v>
       </c>
       <c r="V145">
-        <v>12534.9670850892</v>
+        <v>12509.4249496178</v>
       </c>
       <c r="W145">
-        <v>15961.8662787705</v>
+        <v>15925.780821824699</v>
       </c>
       <c r="X145">
-        <v>21013.5161069204</v>
+        <v>20970.918222565499</v>
       </c>
       <c r="Y145">
-        <v>23342.785596315902</v>
+        <v>23251.198584920199</v>
       </c>
       <c r="Z145">
-        <v>24200.275957014099</v>
+        <v>24058.528649095901</v>
       </c>
       <c r="AA145">
         <v>27242</v>
@@ -41419,19 +41402,19 @@
         <v>100.153462514468</v>
       </c>
       <c r="V146">
-        <v>5352.7843675504901</v>
+        <v>5339.4069289294503</v>
       </c>
       <c r="W146">
-        <v>6622.2730835922303</v>
+        <v>6604.1032518670299</v>
       </c>
       <c r="X146">
-        <v>8270.6736928682494</v>
+        <v>8247.9952760905999</v>
       </c>
       <c r="Y146">
-        <v>8732.7756096856301</v>
+        <v>8679.2589568011808</v>
       </c>
       <c r="Z146">
-        <v>8666.6945068764708</v>
+        <v>8592.0759916262305</v>
       </c>
       <c r="AA146">
         <v>8942</v>
@@ -41673,19 +41656,19 @@
         <v>93.766997041479598</v>
       </c>
       <c r="V147">
-        <v>5306.0489698373904</v>
+        <v>5302.0808009870598</v>
       </c>
       <c r="W147">
-        <v>5848.7258678118997</v>
+        <v>5843.9386132521204</v>
       </c>
       <c r="X147">
-        <v>6260.0055341296402</v>
+        <v>6254.3429542591102</v>
       </c>
       <c r="Y147">
-        <v>7179.2222411033099</v>
+        <v>7168.0970129761799</v>
       </c>
       <c r="Z147">
-        <v>7826.3005983959902</v>
+        <v>7810.6690089337999</v>
       </c>
       <c r="AA147">
         <v>8306</v>
@@ -41930,19 +41913,19 @@
         <v>46.695811648451098</v>
       </c>
       <c r="V148">
-        <v>2443.7319897042098</v>
+        <v>2426.8242106224402</v>
       </c>
       <c r="W148">
-        <v>2949.8664405722602</v>
+        <v>2927.4733202514899</v>
       </c>
       <c r="X148">
-        <v>3407.6033832610201</v>
+        <v>3375.2426555901302</v>
       </c>
       <c r="Y148">
-        <v>3859.4519536164598</v>
+        <v>3839.6363064755001</v>
       </c>
       <c r="Z148">
-        <v>4058.7872099101701</v>
+        <v>4033.6399751489098</v>
       </c>
       <c r="AA148">
         <v>3417</v>
@@ -42184,19 +42167,19 @@
         <v>200.373243205937</v>
       </c>
       <c r="V149">
-        <v>8519.5879455911108</v>
+        <v>8494.5228455987108</v>
       </c>
       <c r="W149">
-        <v>11062.0840359468</v>
+        <v>11022.840070291601</v>
       </c>
       <c r="X149">
-        <v>13962.5232376682</v>
+        <v>13898.060108371001</v>
       </c>
       <c r="Y149">
-        <v>16564.402055424202</v>
+        <v>16503.6794514262</v>
       </c>
       <c r="Z149">
-        <v>17555.327535831399</v>
+        <v>17481.080700372499</v>
       </c>
       <c r="AA149">
         <v>17813</v>
@@ -42441,19 +42424,19 @@
         <v>483.21554878641399</v>
       </c>
       <c r="V150">
-        <v>25451.123108887001</v>
+        <v>25441.4926267872</v>
       </c>
       <c r="W150">
-        <v>29828.082296789798</v>
+        <v>29816.9533812029</v>
       </c>
       <c r="X150">
-        <v>36778.063054595099</v>
+        <v>36763.355128188501</v>
       </c>
       <c r="Y150">
-        <v>39946.784985466802</v>
+        <v>39937.241964535002</v>
       </c>
       <c r="Z150">
-        <v>45021.788969925103</v>
+        <v>45012.945376062598</v>
       </c>
       <c r="AA150">
         <v>38593</v>
@@ -42698,19 +42681,19 @@
         <v>65.947456576629605</v>
       </c>
       <c r="V151">
-        <v>1821.2988755753499</v>
+        <v>1800.67092028365</v>
       </c>
       <c r="W151">
-        <v>2398.7275414558899</v>
+        <v>2367.9845522325099</v>
       </c>
       <c r="X151">
-        <v>3952.6557968048401</v>
+        <v>3904.2889153017099</v>
       </c>
       <c r="Y151">
-        <v>5256.21415003744</v>
+        <v>5223.4419542144697</v>
       </c>
       <c r="Z151">
-        <v>5833.68864793389</v>
+        <v>5792.5816778887402</v>
       </c>
       <c r="AA151">
         <v>6637</v>
@@ -42955,19 +42938,19 @@
         <v>45.1774472744695</v>
       </c>
       <c r="V152">
-        <v>1593.8142472930999</v>
+        <v>1584.9824974062799</v>
       </c>
       <c r="W152">
-        <v>2047.79197489783</v>
+        <v>2030.90332460538</v>
       </c>
       <c r="X152">
-        <v>3181.4383547418802</v>
+        <v>3165.10386018281</v>
       </c>
       <c r="Y152">
-        <v>4737.9007816049298</v>
+        <v>4711.0002004814496</v>
       </c>
       <c r="Z152">
-        <v>4177.0355638651199</v>
+        <v>4137.6137131265696</v>
       </c>
       <c r="AA152">
         <v>5117</v>
@@ -43209,19 +43192,19 @@
         <v>117.07299376001301</v>
       </c>
       <c r="V153">
-        <v>9719.3975400197596</v>
+        <v>9703.7329615038398</v>
       </c>
       <c r="W153">
-        <v>10789.807513903401</v>
+        <v>10766.2217733129</v>
       </c>
       <c r="X153">
-        <v>11209.6483612907</v>
+        <v>11186.974771982001</v>
       </c>
       <c r="Y153">
-        <v>13609.4681718472</v>
+        <v>13577.230780780201</v>
       </c>
       <c r="Z153">
-        <v>12410.524276821699</v>
+        <v>12363.6393900278</v>
       </c>
       <c r="AA153">
         <v>11246</v>
@@ -43466,19 +43449,19 @@
         <v>100.824948070857</v>
       </c>
       <c r="V154">
-        <v>6780.6823027799501</v>
+        <v>6766.4362049799101</v>
       </c>
       <c r="W154">
-        <v>8285.0220269242309</v>
+        <v>8258.5803337047091</v>
       </c>
       <c r="X154">
-        <v>10775.984678131599</v>
+        <v>10748.963467022</v>
       </c>
       <c r="Y154">
-        <v>13661.9877762547</v>
+        <v>13620.0734975946</v>
       </c>
       <c r="Z154">
-        <v>13982.349886235201</v>
+        <v>13923.7000956804</v>
       </c>
       <c r="AA154">
         <v>6910</v>
@@ -43720,19 +43703,19 @@
         <v>281.53561619461698</v>
       </c>
       <c r="V155">
-        <v>14064.4105641674</v>
+        <v>14055.0189188489</v>
       </c>
       <c r="W155">
-        <v>15902.328186602999</v>
+        <v>15883.840065197701</v>
       </c>
       <c r="X155">
-        <v>20455.819139262199</v>
+        <v>20437.380981140901</v>
       </c>
       <c r="Y155">
-        <v>29729.832907338299</v>
+        <v>29708.146381229999</v>
       </c>
       <c r="Z155">
-        <v>29674.752141736401</v>
+        <v>29647.712050037801</v>
       </c>
       <c r="AA155">
         <v>25759</v>
@@ -43977,19 +43960,19 @@
         <v>204.839634430296</v>
       </c>
       <c r="V156">
-        <v>13362.819190635</v>
+        <v>13360.384322501701</v>
       </c>
       <c r="W156">
-        <v>15879.730769382701</v>
+        <v>15875.779763971501</v>
       </c>
       <c r="X156">
-        <v>19366.326066514299</v>
+        <v>19363.316219386401</v>
       </c>
       <c r="Y156">
-        <v>21087.118198461201</v>
+        <v>21082.371561591801</v>
       </c>
       <c r="Z156">
-        <v>19639.414482641601</v>
+        <v>19631.488007682899</v>
       </c>
       <c r="AA156">
         <v>25236</v>
@@ -44234,19 +44217,19 @@
         <v>133.56831529810299</v>
       </c>
       <c r="V157">
-        <v>6972.5441463567104</v>
+        <v>6954.8411226787102</v>
       </c>
       <c r="W157">
-        <v>8931.2092730368204</v>
+        <v>8901.1282946962092</v>
       </c>
       <c r="X157">
-        <v>11521.395908894599</v>
+        <v>11497.0989780129</v>
       </c>
       <c r="Y157">
-        <v>14880.0104637647</v>
+        <v>14847.2877834132</v>
       </c>
       <c r="Z157">
-        <v>14029.405046542601</v>
+        <v>13981.9615103344</v>
       </c>
       <c r="AA157">
         <v>14703</v>
@@ -44491,19 +44474,19 @@
         <v>201.942524198066</v>
       </c>
       <c r="V158">
-        <v>29364.182749810301</v>
+        <v>29363.508763855301</v>
       </c>
       <c r="W158">
-        <v>32173.214210999002</v>
+        <v>32172.1358841293</v>
       </c>
       <c r="X158">
-        <v>28151.598502276898</v>
+        <v>28150.681121600399</v>
       </c>
       <c r="Y158">
-        <v>20852.661394915001</v>
+        <v>20851.228697319199</v>
       </c>
       <c r="Z158">
-        <v>20732.704782061799</v>
+        <v>20730.701432801601</v>
       </c>
       <c r="AA158">
         <v>23732</v>
@@ -44748,19 +44731,19 @@
         <v>185.78070521049199</v>
       </c>
       <c r="V159">
-        <v>6332.8680935064103</v>
+        <v>6321.52658370479</v>
       </c>
       <c r="W159">
-        <v>10620.9135452755</v>
+        <v>10596.163987878301</v>
       </c>
       <c r="X159">
-        <v>14178.929898660301</v>
+        <v>14124.1639859999</v>
       </c>
       <c r="Y159">
-        <v>16160.6932854118</v>
+        <v>16108.7835012591</v>
       </c>
       <c r="Z159">
-        <v>16673.1916096313</v>
+        <v>16604.716906456699</v>
       </c>
       <c r="AA159">
         <v>20099</v>
@@ -45005,19 +44988,19 @@
         <v>104.681666198798</v>
       </c>
       <c r="V160">
-        <v>2168.3277194385</v>
+        <v>2150.2184737498401</v>
       </c>
       <c r="W160">
-        <v>4385.4391618261998</v>
+        <v>4361.2731971480598</v>
       </c>
       <c r="X160">
-        <v>7140.7405598128698</v>
+        <v>7083.7521319359803</v>
       </c>
       <c r="Y160">
-        <v>10486.9228403623</v>
+        <v>10416.652092718499</v>
       </c>
       <c r="Z160">
-        <v>11185.9030894681</v>
+        <v>11099.614330288699</v>
       </c>
       <c r="AA160">
         <v>12071</v>
@@ -45262,19 +45245,19 @@
         <v>356.15675309083002</v>
       </c>
       <c r="V161">
-        <v>34671.676564185502</v>
+        <v>34646.951665133602</v>
       </c>
       <c r="W161">
-        <v>42272.491481609301</v>
+        <v>42224.214807901699</v>
       </c>
       <c r="X161">
-        <v>40551.236619480303</v>
+        <v>40462.831469636498</v>
       </c>
       <c r="Y161">
-        <v>39260.1172344117</v>
+        <v>39249.2551439296</v>
       </c>
       <c r="Z161">
-        <v>39625.038292964498</v>
+        <v>39618.940049312398</v>
       </c>
       <c r="AA161">
         <v>31753</v>
@@ -45519,19 +45502,19 @@
         <v>231.62575202718099</v>
       </c>
       <c r="V162">
-        <v>10198.8126796329</v>
+        <v>10164.234138772101</v>
       </c>
       <c r="W162">
-        <v>14444.5773622487</v>
+        <v>14333.9778837297</v>
       </c>
       <c r="X162">
-        <v>20552.4078444037</v>
+        <v>20431.13977962</v>
       </c>
       <c r="Y162">
-        <v>22460.568975285099</v>
+        <v>22243.3308075721</v>
       </c>
       <c r="Z162">
-        <v>23875.358638909202</v>
+        <v>23769.596453365099</v>
       </c>
       <c r="AB162">
         <v>18093</v>
@@ -45770,19 +45753,19 @@
         <v>336.14272691519301</v>
       </c>
       <c r="V163">
-        <v>14820.9930809459</v>
+        <v>14804.968213674099</v>
       </c>
       <c r="W163">
-        <v>21926.493812890199</v>
+        <v>21880.229220074802</v>
       </c>
       <c r="X163">
-        <v>29849.500016238799</v>
+        <v>29781.254065954199</v>
       </c>
       <c r="Y163">
-        <v>35025.312094626701</v>
+        <v>34928.782858068102</v>
       </c>
       <c r="Z163">
-        <v>37536.404089007599</v>
+        <v>37481.8636017342</v>
       </c>
       <c r="AB163">
         <v>29867</v>
@@ -46021,19 +46004,19 @@
         <v>212.49864206291599</v>
       </c>
       <c r="V164">
-        <v>12855.7638965193</v>
+        <v>12841.555493682799</v>
       </c>
       <c r="W164">
-        <v>17830.8855999517</v>
+        <v>17790.734896676</v>
       </c>
       <c r="X164">
-        <v>21219.534868705399</v>
+        <v>21171.324307068899</v>
       </c>
       <c r="Y164">
-        <v>22764.815431745701</v>
+        <v>22698.048718022001</v>
       </c>
       <c r="Z164">
-        <v>22781.655592919498</v>
+        <v>22741.348089608</v>
       </c>
       <c r="AB164">
         <v>15274</v>
@@ -46272,19 +46255,19 @@
         <v>361.06737271920002</v>
       </c>
       <c r="V165">
-        <v>14829.9047493863</v>
+        <v>14822.852824633699</v>
       </c>
       <c r="W165">
-        <v>25235.8242684693</v>
+        <v>25219.056989041499</v>
       </c>
       <c r="X165">
-        <v>37124.708328077701</v>
+        <v>37102.925098602798</v>
       </c>
       <c r="Y165">
-        <v>41989.101945908697</v>
+        <v>41953.604792649901</v>
       </c>
       <c r="Z165">
-        <v>45822.062786056398</v>
+        <v>45798.411105136198</v>
       </c>
       <c r="AB165">
         <v>34686</v>
@@ -46523,19 +46506,19 @@
         <v>196.87248841536601</v>
       </c>
       <c r="V166">
-        <v>7033.3881280813403</v>
+        <v>7014.2099954540399</v>
       </c>
       <c r="W166">
-        <v>11965.9369542444</v>
+        <v>11903.4533760222</v>
       </c>
       <c r="X166">
-        <v>16974.1687635208</v>
+        <v>16898.650071693799</v>
       </c>
       <c r="Y166">
-        <v>19014.571351659099</v>
+        <v>18908.916014783499</v>
       </c>
       <c r="Z166">
-        <v>20133.716150554799</v>
+        <v>20075.026313928101</v>
       </c>
       <c r="AB166">
         <v>19532</v>
@@ -46774,19 +46757,19 @@
         <v>677.202245501692</v>
       </c>
       <c r="V167">
-        <v>42479.068457697103</v>
+        <v>42474.322221411101</v>
       </c>
       <c r="W167">
-        <v>57674.353773059302</v>
+        <v>57671.047020430698</v>
       </c>
       <c r="X167">
-        <v>75724.998938992605</v>
+        <v>75721.065405526097</v>
       </c>
       <c r="Y167">
-        <v>83472.601762505597</v>
+        <v>83466.257935086105</v>
       </c>
       <c r="Z167">
-        <v>92949.553222168295</v>
+        <v>92946.792029064105</v>
       </c>
       <c r="AB167">
         <v>41565</v>
@@ -47025,19 +47008,19 @@
         <v>351.87004754706197</v>
       </c>
       <c r="V168">
-        <v>14898.254386250401</v>
+        <v>14866.154827653099</v>
       </c>
       <c r="W168">
-        <v>22188.537729998399</v>
+        <v>22116.946733977398</v>
       </c>
       <c r="X168">
-        <v>31489.259971066698</v>
+        <v>31397.792485912101</v>
       </c>
       <c r="Y168">
-        <v>34701.679526148699</v>
+        <v>34517.549184626099</v>
       </c>
       <c r="Z168">
-        <v>37582.645637273599</v>
+        <v>37469.644305027301</v>
       </c>
       <c r="AB168">
         <v>26216</v>
@@ -47276,19 +47259,19 @@
         <v>59.141666666666602</v>
       </c>
       <c r="V169">
-        <v>3595.1977031455199</v>
+        <v>3586.7163789537099</v>
       </c>
       <c r="W169">
-        <v>4343.9403773512804</v>
+        <v>4325.3557957535704</v>
       </c>
       <c r="X169">
-        <v>5080.4119017671401</v>
+        <v>5045.6480346711496</v>
       </c>
       <c r="Y169">
-        <v>5465.1315269263896</v>
+        <v>5417.1470282182599</v>
       </c>
       <c r="Z169">
-        <v>5938.9684856581198</v>
+        <v>5887.3620641412799</v>
       </c>
       <c r="AA169">
         <v>4554</v>
@@ -47533,19 +47516,19 @@
         <v>140.19166666666601</v>
       </c>
       <c r="V170">
-        <v>11165.8309035941</v>
+        <v>11159.644011594501</v>
       </c>
       <c r="W170">
-        <v>12434.9405807433</v>
+        <v>12421.652354274</v>
       </c>
       <c r="X170">
-        <v>14668.8340024394</v>
+        <v>14644.4345032314</v>
       </c>
       <c r="Y170">
-        <v>12330.948843300201</v>
+        <v>12287.162610358</v>
       </c>
       <c r="Z170">
-        <v>13121.725878503201</v>
+        <v>13072.8865341985</v>
       </c>
       <c r="AA170">
         <v>15393</v>
@@ -47790,19 +47773,19 @@
         <v>166.05386927347101</v>
       </c>
       <c r="V171">
-        <v>11466.1128145824</v>
+        <v>11458.195094451999</v>
       </c>
       <c r="W171">
-        <v>14936.8941817222</v>
+        <v>14918.3459328668</v>
       </c>
       <c r="X171">
-        <v>16618.563209153799</v>
+        <v>16586.0752352946</v>
       </c>
       <c r="Y171">
-        <v>16068.450182665199</v>
+        <v>16016.032911844701</v>
       </c>
       <c r="Z171">
-        <v>15483.847287861399</v>
+        <v>15421.517359043801</v>
       </c>
       <c r="AA171">
         <v>13341</v>
@@ -48047,19 +48030,19 @@
         <v>123.18943805286099</v>
       </c>
       <c r="V172">
-        <v>7120.7973294195599</v>
+        <v>7113.4215502998704</v>
       </c>
       <c r="W172">
-        <v>9892.0291262494302</v>
+        <v>9872.9898743305203</v>
       </c>
       <c r="X172">
-        <v>11846.4933263683</v>
+        <v>11808.5160335783</v>
       </c>
       <c r="Y172">
-        <v>11580.2030891015</v>
+        <v>11517.6704527413</v>
       </c>
       <c r="Z172">
-        <v>12154.7918497091</v>
+        <v>12080.426618084201</v>
       </c>
       <c r="AA172">
         <v>13338</v>
@@ -48304,19 +48287,19 @@
         <v>389.78716408635802</v>
       </c>
       <c r="V173">
-        <v>14623.131665725699</v>
+        <v>14609.530217699001</v>
       </c>
       <c r="W173">
-        <v>21915.231943403302</v>
+        <v>21885.025480073</v>
       </c>
       <c r="X173">
-        <v>31538.076409256199</v>
+        <v>31475.086758368099</v>
       </c>
       <c r="Y173">
-        <v>31179.667385685501</v>
+        <v>31104.4652182176</v>
       </c>
       <c r="Z173">
-        <v>36572.536953925301</v>
+        <v>36472.284584935398</v>
       </c>
       <c r="AA173">
         <v>47355</v>
@@ -48561,19 +48544,19 @@
         <v>339.22299762052302</v>
       </c>
       <c r="V174">
-        <v>14460.381243117001</v>
+        <v>14452.9889292756</v>
       </c>
       <c r="W174">
-        <v>22440.513087547501</v>
+        <v>22426.934541387101</v>
       </c>
       <c r="X174">
-        <v>31401.675502430298</v>
+        <v>31378.598013012201</v>
       </c>
       <c r="Y174">
-        <v>28431.522937055099</v>
+        <v>28397.975690356201</v>
       </c>
       <c r="Z174">
-        <v>33963.522650237603</v>
+        <v>33919.603955454797</v>
       </c>
       <c r="AA174">
         <v>47547</v>
@@ -48818,19 +48801,19 @@
         <v>216.46666666666599</v>
       </c>
       <c r="V175">
-        <v>10695.393257322299</v>
+        <v>10687.023206771401</v>
       </c>
       <c r="W175">
-        <v>14191.5456958267</v>
+        <v>14173.841163429601</v>
       </c>
       <c r="X175">
-        <v>18491.868125784102</v>
+        <v>18454.982105187599</v>
       </c>
       <c r="Y175">
-        <v>19434.732224675201</v>
+        <v>19378.2425661542</v>
       </c>
       <c r="Z175">
-        <v>20469.8060549773</v>
+        <v>20402.849154104199</v>
       </c>
       <c r="AA175">
         <v>20162</v>
@@ -49075,19 +49058,19 @@
         <v>745.6</v>
       </c>
       <c r="V176">
-        <v>71010.278189820194</v>
+        <v>71005.647666539197</v>
       </c>
       <c r="W176">
-        <v>72485.695872005002</v>
+        <v>72477.696328674399</v>
       </c>
       <c r="X176">
-        <v>81813.367905602499</v>
+        <v>81794.616978074206</v>
       </c>
       <c r="Y176">
-        <v>67920.725833452801</v>
+        <v>67892.319221052196</v>
       </c>
       <c r="Z176">
-        <v>74058.559065900699</v>
+        <v>74029.220835122702</v>
       </c>
       <c r="AA176">
         <v>75942</v>
@@ -49332,19 +49315,19 @@
         <v>125.89176801922299</v>
       </c>
       <c r="V177">
-        <v>3377.86657276297</v>
+        <v>3371.0320274515402</v>
       </c>
       <c r="W177">
-        <v>5404.9667032041898</v>
+        <v>5393.8076268116702</v>
       </c>
       <c r="X177">
-        <v>9223.1205805303907</v>
+        <v>9202.4456828625298</v>
       </c>
       <c r="Y177">
-        <v>9630.2796972116903</v>
+        <v>9589.9759414916298</v>
       </c>
       <c r="Z177">
-        <v>11695.364607431</v>
+        <v>11669.650335234001</v>
       </c>
       <c r="AA177">
         <v>14362</v>
@@ -49586,19 +49569,19 @@
         <v>196.05349716508201</v>
       </c>
       <c r="V178">
-        <v>3828.8231981326398</v>
+        <v>3817.4004430135001</v>
       </c>
       <c r="W178">
-        <v>7471.7593883645604</v>
+        <v>7450.7460680845497</v>
       </c>
       <c r="X178">
-        <v>14449.255290171001</v>
+        <v>14414.601663982299</v>
       </c>
       <c r="Y178">
-        <v>18617.374312358901</v>
+        <v>18538.022881935602</v>
       </c>
       <c r="Z178">
-        <v>21930.274911720899</v>
+        <v>21880.4874678507</v>
       </c>
       <c r="AA178">
         <v>20538</v>
@@ -49840,19 +49823,19 @@
         <v>947.35773514328798</v>
       </c>
       <c r="V179">
-        <v>42244.685116337998</v>
+        <v>42233.628300710101</v>
       </c>
       <c r="W179">
-        <v>60221.110870374701</v>
+        <v>60203.241985869703</v>
       </c>
       <c r="X179">
-        <v>86051.208240060005</v>
+        <v>86022.601361549896</v>
       </c>
       <c r="Y179">
-        <v>96219.491893956394</v>
+        <v>96158.8001279819</v>
       </c>
       <c r="Z179">
-        <v>108241.084288403</v>
+        <v>108197.657275184</v>
       </c>
       <c r="AA179">
         <v>83956</v>
@@ -50097,19 +50080,19 @@
         <v>98.847592836451796</v>
       </c>
       <c r="V180">
-        <v>3018.0978410810299</v>
+        <v>3001.97095048957</v>
       </c>
       <c r="W180">
-        <v>4302.0538005739299</v>
+        <v>4273.5603836995997</v>
       </c>
       <c r="X180">
-        <v>6561.7505731912497</v>
+        <v>6516.6265869610997</v>
       </c>
       <c r="Y180">
-        <v>7762.4257183077098</v>
+        <v>7676.9677047959203</v>
       </c>
       <c r="Z180">
-        <v>8744.7261632025802</v>
+        <v>8681.3566640819099</v>
       </c>
       <c r="AA180">
         <v>7181</v>
@@ -50354,19 +50337,19 @@
         <v>348.95660492506698</v>
       </c>
       <c r="V181">
-        <v>16875.630875996201</v>
+        <v>16870.593977974</v>
       </c>
       <c r="W181">
-        <v>22531.373882525098</v>
+        <v>22518.734299786898</v>
       </c>
       <c r="X181">
-        <v>30051.646123033199</v>
+        <v>30019.9655909762</v>
       </c>
       <c r="Y181">
-        <v>32318.361437886299</v>
+        <v>32312.6564397109</v>
       </c>
       <c r="Z181">
-        <v>34555.114846722303</v>
+        <v>34551.021721591998</v>
       </c>
       <c r="AA181">
         <v>26630</v>
@@ -50611,19 +50594,19 @@
         <v>103.846755637141</v>
       </c>
       <c r="V182">
-        <v>5452.4793262528001</v>
+        <v>5442.9302384774301</v>
       </c>
       <c r="W182">
-        <v>6304.0811304367398</v>
+        <v>6288.65495446554</v>
       </c>
       <c r="X182">
-        <v>9037.1550730831696</v>
+        <v>9008.9675057995391</v>
       </c>
       <c r="Y182">
-        <v>9605.3742243325196</v>
+        <v>9551.4232697308908</v>
       </c>
       <c r="Z182">
-        <v>9570.2204119141697</v>
+        <v>9536.5655602676197</v>
       </c>
       <c r="AA182">
         <v>9441</v>
@@ -50868,19 +50851,19 @@
         <v>90.007349811410805</v>
       </c>
       <c r="V183">
-        <v>2526.9860674198999</v>
+        <v>2492.5009650420998</v>
       </c>
       <c r="W183">
-        <v>4051.09459926924</v>
+        <v>3992.0788147344701</v>
       </c>
       <c r="X183">
-        <v>6518.8811289598598</v>
+        <v>6411.9319969968001</v>
       </c>
       <c r="Y183">
-        <v>7421.1172923641598</v>
+        <v>7151.4938364895197</v>
       </c>
       <c r="Z183">
-        <v>8598.8808411615701</v>
+        <v>8388.7337231460006</v>
       </c>
       <c r="AA183">
         <v>9655</v>
@@ -51125,19 +51108,19 @@
         <v>84.075711550680893</v>
       </c>
       <c r="V184">
-        <v>1719.00313835061</v>
+        <v>1709.94589156858</v>
       </c>
       <c r="W184">
-        <v>3152.9022616331499</v>
+        <v>3136.09095353154</v>
       </c>
       <c r="X184">
-        <v>6354.7522590152503</v>
+        <v>6331.5595758132004</v>
       </c>
       <c r="Y184">
-        <v>6679.7863177081899</v>
+        <v>6630.0480647577597</v>
       </c>
       <c r="Z184">
-        <v>7869.1904715783703</v>
+        <v>7836.7670900550402</v>
       </c>
       <c r="AA184">
         <v>9305</v>
@@ -51382,19 +51365,19 @@
         <v>58.020294053454002</v>
       </c>
       <c r="V185">
-        <v>573.61572652062898</v>
+        <v>559.46648895262797</v>
       </c>
       <c r="W185">
-        <v>1195.32739844399</v>
+        <v>1176.00418546848</v>
       </c>
       <c r="X185">
-        <v>2253.8329336388601</v>
+        <v>2233.4174546567101</v>
       </c>
       <c r="Y185">
-        <v>3779.4500701165398</v>
+        <v>3756.8355116676998</v>
       </c>
       <c r="Z185">
-        <v>4304.1731154352801</v>
+        <v>4267.0086298169199</v>
       </c>
       <c r="AA185">
         <v>6677</v>
@@ -51636,19 +51619,19 @@
         <v>89.4078279829058</v>
       </c>
       <c r="V186">
-        <v>3620.7414830717698</v>
+        <v>3616.6205442540399</v>
       </c>
       <c r="W186">
-        <v>4727.11979441943</v>
+        <v>4719.8812226067203</v>
       </c>
       <c r="X186">
-        <v>7793.0086964682196</v>
+        <v>7783.5297800139197</v>
       </c>
       <c r="Y186">
-        <v>7640.5599145698798</v>
+        <v>7626.2972668530501</v>
       </c>
       <c r="Z186">
-        <v>7699.3783340873497</v>
+        <v>7671.8967060175601</v>
       </c>
       <c r="AA186">
         <v>10732</v>
@@ -51890,19 +51873,19 @@
         <v>131.19865493677699</v>
       </c>
       <c r="V187">
-        <v>8034.2158121790499</v>
+        <v>8012.3084478067303</v>
       </c>
       <c r="W187">
-        <v>9236.3942014569093</v>
+        <v>9204.7583271297608</v>
       </c>
       <c r="X187">
-        <v>11650.4533501893</v>
+        <v>11619.463927867</v>
       </c>
       <c r="Y187">
-        <v>11919.292853680699</v>
+        <v>11872.038429210999</v>
       </c>
       <c r="Z187">
-        <v>11397.0782025797</v>
+        <v>11302.790488494</v>
       </c>
       <c r="AA187">
         <v>15053</v>
@@ -52147,19 +52130,19 @@
         <v>98.724999999999895</v>
       </c>
       <c r="V188">
-        <v>2590.7522350003101</v>
+        <v>2579.99731223754</v>
       </c>
       <c r="W188">
-        <v>3578.5158670942701</v>
+        <v>3562.76260265568</v>
       </c>
       <c r="X188">
-        <v>5776.3971821154801</v>
+        <v>5755.5549974287997</v>
       </c>
       <c r="Y188">
-        <v>7471.4357584999198</v>
+        <v>7436.1713237382</v>
       </c>
       <c r="Z188">
-        <v>8640.2521029470208</v>
+        <v>8570.9488809996201</v>
       </c>
       <c r="AA188">
         <v>9666</v>
@@ -52404,19 +52387,19 @@
         <v>55.324232714161802</v>
       </c>
       <c r="V189">
-        <v>2331.8726221818201</v>
+        <v>2323.2559356602901</v>
       </c>
       <c r="W189">
-        <v>2837.7981579676102</v>
+        <v>2826.9865425931898</v>
       </c>
       <c r="X189">
-        <v>3848.4336147038798</v>
+        <v>3834.4689141428398</v>
       </c>
       <c r="Y189">
-        <v>5104.9338375676498</v>
+        <v>5081.8219326383996</v>
       </c>
       <c r="Z189">
-        <v>4960.8432876506204</v>
+        <v>4922.1522443288304</v>
       </c>
       <c r="AA189">
         <v>4991</v>
@@ -52646,19 +52629,19 @@
         <v>105.26007054912201</v>
       </c>
       <c r="V190">
-        <v>2704.2005061609002</v>
+        <v>2697.78108920147</v>
       </c>
       <c r="W190">
-        <v>4542.3793449493896</v>
+        <v>4534.19668820878</v>
       </c>
       <c r="X190">
-        <v>7079.2594659582701</v>
+        <v>7068.4968881059503</v>
       </c>
       <c r="Y190">
-        <v>8696.3659486475099</v>
+        <v>8678.4990925741204</v>
       </c>
       <c r="Z190">
-        <v>9678.2758880686197</v>
+        <v>9646.2268537015807</v>
       </c>
       <c r="AA190">
         <v>10882</v>
@@ -52900,19 +52883,19 @@
         <v>173.17920469712601</v>
       </c>
       <c r="V191">
-        <v>4939.4808409867501</v>
+        <v>4921.6183111907403</v>
       </c>
       <c r="W191">
-        <v>7575.3912733336201</v>
+        <v>7549.5723389197601</v>
       </c>
       <c r="X191">
-        <v>12020.530258994901</v>
+        <v>11986.956147086101</v>
       </c>
       <c r="Y191">
-        <v>14375.1637942373</v>
+        <v>14321.9447274668</v>
       </c>
       <c r="Z191">
-        <v>16049.557527458801</v>
+        <v>15943.1026223463</v>
       </c>
       <c r="AA191">
         <v>18244</v>
@@ -53157,19 +53140,19 @@
         <v>384.011217877202</v>
       </c>
       <c r="V192">
-        <v>26316.9872246329</v>
+        <v>26307.701342459</v>
       </c>
       <c r="W192">
-        <v>29165.232145439899</v>
+        <v>29154.156011799099</v>
       </c>
       <c r="X192">
-        <v>35966.513444965902</v>
+        <v>35952.383177002797</v>
       </c>
       <c r="Y192">
-        <v>35928.491580210299</v>
+        <v>35904.812168655299</v>
       </c>
       <c r="Z192">
-        <v>37549.003642258802</v>
+        <v>37504.543245222703</v>
       </c>
       <c r="AA192">
         <v>39249</v>
@@ -53414,19 +53397,19 @@
         <v>150.87439715052</v>
       </c>
       <c r="V193">
-        <v>2034.7706296747101</v>
+        <v>2024.5745417258299</v>
       </c>
       <c r="W193">
-        <v>4267.3018413885702</v>
+        <v>4254.2284907226003</v>
       </c>
       <c r="X193">
-        <v>7543.7444102464697</v>
+        <v>7528.5467429153196</v>
       </c>
       <c r="Y193">
-        <v>11100.067072038</v>
+        <v>11074.1064403605</v>
       </c>
       <c r="Z193">
-        <v>13485.007544600399</v>
+        <v>13432.957423801899</v>
       </c>
       <c r="AA193">
         <v>19492</v>
@@ -53671,19 +53654,19 @@
         <v>237.16369511030101</v>
       </c>
       <c r="V194">
-        <v>24330.829058861498</v>
+        <v>24330.344517351099</v>
       </c>
       <c r="W194">
-        <v>24107.3928228353</v>
+        <v>24106.5578701958</v>
       </c>
       <c r="X194">
-        <v>24793.727658271298</v>
+        <v>24792.551699250602</v>
       </c>
       <c r="Y194">
-        <v>23613.6956060128</v>
+        <v>23610.428152209199</v>
       </c>
       <c r="Z194">
-        <v>23444.098850583101</v>
+        <v>23434.497334678599</v>
       </c>
       <c r="AA194">
         <v>19189</v>
@@ -53928,19 +53911,19 @@
         <v>35.808333333333302</v>
       </c>
       <c r="V195">
-        <v>1795.9917514005599</v>
+        <v>1778.0704085454099</v>
       </c>
       <c r="W195">
-        <v>1809.2160392299299</v>
+        <v>1791.4723398567201</v>
       </c>
       <c r="X195">
-        <v>2072.3110252262099</v>
+        <v>2044.5688807091799</v>
       </c>
       <c r="Y195">
-        <v>2723.0775235117899</v>
+        <v>2671.8033025145801</v>
       </c>
       <c r="Z195">
-        <v>2803.6372003387801</v>
+        <v>2748.2243501524699</v>
       </c>
       <c r="AA195">
         <v>4190</v>
@@ -54182,19 +54165,19 @@
         <v>59.95</v>
       </c>
       <c r="V196">
-        <v>2136.2063480800998</v>
+        <v>2125.9415070557302</v>
       </c>
       <c r="W196">
-        <v>2323.6072879318799</v>
+        <v>2308.74861946396</v>
       </c>
       <c r="X196">
-        <v>3299.2302674790199</v>
+        <v>3279.5695140555599</v>
       </c>
       <c r="Y196">
-        <v>4254.7314501822902</v>
+        <v>4209.2204965396004</v>
       </c>
       <c r="Z196">
-        <v>4813.8722978009901</v>
+        <v>4762.1463901562502</v>
       </c>
       <c r="AA196">
         <v>8027</v>
@@ -54424,19 +54407,19 @@
         <v>82.137948808682097</v>
       </c>
       <c r="V197">
-        <v>2905.3450840488099</v>
+        <v>2880.6632899665201</v>
       </c>
       <c r="W197">
-        <v>3347.2246814865598</v>
+        <v>3324.5774536389099</v>
       </c>
       <c r="X197">
-        <v>4561.7131396464001</v>
+        <v>4529.5940389015404</v>
       </c>
       <c r="Y197">
-        <v>6568.7796700726103</v>
+        <v>6502.87080407543</v>
       </c>
       <c r="Z197">
-        <v>8113.1843541788403</v>
+        <v>8041.5744541937302</v>
       </c>
       <c r="AA197">
         <v>9370</v>
@@ -54681,19 +54664,19 @@
         <v>354.49053572644499</v>
       </c>
       <c r="V198">
-        <v>15773.376899459499</v>
+        <v>15760.9338505084</v>
       </c>
       <c r="W198">
-        <v>20474.545504785201</v>
+        <v>20458.052681974699</v>
       </c>
       <c r="X198">
-        <v>27414.0183158525</v>
+        <v>27395.565045797299</v>
       </c>
       <c r="Y198">
-        <v>31063.315648442</v>
+        <v>31014.470404049702</v>
       </c>
       <c r="Z198">
-        <v>35289.279681420201</v>
+        <v>35198.8115420822</v>
       </c>
       <c r="AA198">
         <v>36279</v>
@@ -54938,19 +54921,19 @@
         <v>181.299723905338</v>
       </c>
       <c r="V199">
-        <v>6122.4484726567198</v>
+        <v>6088.2705186282301</v>
       </c>
       <c r="W199">
-        <v>8590.7100930896704</v>
+        <v>8541.9526010896407</v>
       </c>
       <c r="X199">
-        <v>12389.5426946927</v>
+        <v>12326.556919872701</v>
       </c>
       <c r="Y199">
-        <v>14839.138500098001</v>
+        <v>14657.751444964901</v>
       </c>
       <c r="Z199">
-        <v>16867.8095554028</v>
+        <v>16573.932832140101</v>
       </c>
       <c r="AA199">
         <v>14556</v>
@@ -55195,19 +55178,19 @@
         <v>72.956253605053504</v>
       </c>
       <c r="V200">
-        <v>941.28964191053603</v>
+        <v>930.51093153558202</v>
       </c>
       <c r="W200">
-        <v>1863.7121480676999</v>
+        <v>1850.4655382620299</v>
       </c>
       <c r="X200">
-        <v>3213.06138800179</v>
+        <v>3197.03823516288</v>
       </c>
       <c r="Y200">
-        <v>5547.7918869611403</v>
+        <v>5500.6719673899597</v>
       </c>
       <c r="Z200">
-        <v>6504.6493148215804</v>
+        <v>6413.1795465491496</v>
       </c>
       <c r="AA200">
         <v>5615</v>
@@ -55452,19 +55435,19 @@
         <v>949.7</v>
       </c>
       <c r="V201">
-        <v>17963.8743802723</v>
+        <v>17960.8221062415</v>
       </c>
       <c r="W201">
-        <v>32229.803022908101</v>
+        <v>32224.033685907601</v>
       </c>
       <c r="X201">
-        <v>66380.179495291493</v>
+        <v>66363.828915463397</v>
       </c>
       <c r="Y201">
-        <v>83798.120760450998</v>
+        <v>83777.550208692701</v>
       </c>
       <c r="Z201">
-        <v>91241.811534958804</v>
+        <v>91215.766821512501</v>
       </c>
       <c r="AA201">
         <v>169808</v>
@@ -55709,19 +55692,19 @@
         <v>214.74724868896999</v>
       </c>
       <c r="V202">
-        <v>8283.7443958017593</v>
+        <v>8280.2898575263498</v>
       </c>
       <c r="W202">
-        <v>11892.8237207701</v>
+        <v>11886.4106260305</v>
       </c>
       <c r="X202">
-        <v>18427.0720032953</v>
+        <v>18399.361441601399</v>
       </c>
       <c r="Y202">
-        <v>19765.934403377199</v>
+        <v>19739.802378550699</v>
       </c>
       <c r="Z202">
-        <v>20862.4359938913</v>
+        <v>20832.0791880906</v>
       </c>
       <c r="AA202">
         <v>33810</v>
@@ -55966,19 +55949,19 @@
         <v>212.74957768415601</v>
       </c>
       <c r="V203">
-        <v>6968.5054756883901</v>
+        <v>6964.0271824183901</v>
       </c>
       <c r="W203">
-        <v>11727.757512976699</v>
+        <v>11717.9418475864</v>
       </c>
       <c r="X203">
-        <v>18328.773242519299</v>
+        <v>18305.405933162401</v>
       </c>
       <c r="Y203">
-        <v>21844.221910092801</v>
+        <v>21825.552108769902</v>
       </c>
       <c r="Z203">
-        <v>23072.217895051199</v>
+        <v>23037.803310932999</v>
       </c>
       <c r="AA203">
         <v>20498</v>
@@ -56223,19 +56206,19 @@
         <v>211.03574820126801</v>
       </c>
       <c r="V204">
-        <v>14212.2414858006</v>
+        <v>14208.4363003117</v>
       </c>
       <c r="W204">
-        <v>20774.564675062102</v>
+        <v>20766.767181153798</v>
       </c>
       <c r="X204">
-        <v>22341.6998921466</v>
+        <v>22325.525999601199</v>
       </c>
       <c r="Y204">
-        <v>22193.687914647398</v>
+        <v>22182.164579963999</v>
       </c>
       <c r="Z204">
-        <v>23485.790330777701</v>
+        <v>23475.650576481399</v>
       </c>
       <c r="AA204">
         <v>25870</v>
@@ -56480,19 +56463,19 @@
         <v>58.5</v>
       </c>
       <c r="V205">
-        <v>3950.9468182505302</v>
+        <v>3933.5559541622201</v>
       </c>
       <c r="W205">
-        <v>5257.0234527495004</v>
+        <v>5218.6907464502001</v>
       </c>
       <c r="X205">
-        <v>6121.6910711989103</v>
+        <v>6036.43151068724</v>
       </c>
       <c r="Y205">
-        <v>6450.3140527163596</v>
+        <v>6317.2105063741801</v>
       </c>
       <c r="Z205">
-        <v>6265.7135887525901</v>
+        <v>6110.8326726057103</v>
       </c>
       <c r="AA205">
         <v>6928</v>
@@ -56734,19 +56717,19 @@
         <v>359.12914422768199</v>
       </c>
       <c r="V206">
-        <v>30102.597275145399</v>
+        <v>30099.531658240001</v>
       </c>
       <c r="W206">
-        <v>39023.413717117299</v>
+        <v>39019.3183754485</v>
       </c>
       <c r="X206">
-        <v>44080.375471858497</v>
+        <v>44078.464896527497</v>
       </c>
       <c r="Y206">
-        <v>46508.686499147399</v>
+        <v>46506.955587427597</v>
       </c>
       <c r="Z206">
-        <v>48346.508861713497</v>
+        <v>48344.1998292434</v>
       </c>
       <c r="AA206">
         <v>38614</v>
@@ -56991,19 +56974,19 @@
         <v>263.96550717953897</v>
       </c>
       <c r="V207">
-        <v>13585.760575886599</v>
+        <v>13585.6061810502</v>
       </c>
       <c r="W207">
-        <v>22364.354407465002</v>
+        <v>22363.6114528289</v>
       </c>
       <c r="X207">
-        <v>29202.241644485901</v>
+        <v>29200.007856333301</v>
       </c>
       <c r="Y207">
-        <v>33672.7892258953</v>
+        <v>33670.739120432401</v>
       </c>
       <c r="Z207">
-        <v>36329.993235549198</v>
+        <v>36328.7724192346</v>
       </c>
       <c r="AA207">
         <v>27639</v>
@@ -57248,19 +57231,19 @@
         <v>265.39166666666603</v>
       </c>
       <c r="V208">
-        <v>12093.6728115605</v>
+        <v>12089.5657582763</v>
       </c>
       <c r="W208">
-        <v>17804.681666015698</v>
+        <v>17796.944138474599</v>
       </c>
       <c r="X208">
-        <v>21932.691286432899</v>
+        <v>21914.600210868201</v>
       </c>
       <c r="Y208">
-        <v>27766.145160013599</v>
+        <v>27749.530709773499</v>
       </c>
       <c r="Z208">
-        <v>31327.146720935802</v>
+        <v>31310.090250432899</v>
       </c>
       <c r="AA208">
         <v>18570</v>
@@ -57505,19 +57488,19 @@
         <v>176.755958538881</v>
       </c>
       <c r="V209">
-        <v>11725.7659431868</v>
+        <v>11724.8654044057</v>
       </c>
       <c r="W209">
-        <v>17689.007018043401</v>
+        <v>17686.662118545701</v>
       </c>
       <c r="X209">
-        <v>20586.3095583512</v>
+        <v>20580.8438855717</v>
       </c>
       <c r="Y209">
-        <v>21464.530560876399</v>
+        <v>21457.795799300799</v>
       </c>
       <c r="Z209">
-        <v>22327.626587799099</v>
+        <v>22318.535206819099</v>
       </c>
       <c r="AA209">
         <v>20318</v>
@@ -57762,19 +57745,19 @@
         <v>233.001040677372</v>
       </c>
       <c r="V210">
-        <v>20526.398333127901</v>
+        <v>20524.3206549856</v>
       </c>
       <c r="W210">
-        <v>25761.494862929099</v>
+        <v>25758.674847874699</v>
       </c>
       <c r="X210">
-        <v>32685.469445528099</v>
+        <v>32680.5126173108</v>
       </c>
       <c r="Y210">
-        <v>31133.979012807398</v>
+        <v>31131.340905818401</v>
       </c>
       <c r="Z210">
-        <v>31827.8833749072</v>
+        <v>31825.990364831101</v>
       </c>
       <c r="AA210">
         <v>25666</v>
@@ -58019,19 +58002,19 @@
         <v>338.95218842026202</v>
       </c>
       <c r="V211">
-        <v>12236.1170808467</v>
+        <v>12228.6669192433</v>
       </c>
       <c r="W211">
-        <v>15489.7572644784</v>
+        <v>15481.4635197317</v>
       </c>
       <c r="X211">
-        <v>26918.591304860998</v>
+        <v>26894.9519064101</v>
       </c>
       <c r="Y211">
-        <v>32081.4565871991</v>
+        <v>32044.469951995499</v>
       </c>
       <c r="Z211">
-        <v>32025.036973359602</v>
+        <v>31973.2422807353</v>
       </c>
       <c r="AA211">
         <v>34764</v>
@@ -58276,19 +58259,19 @@
         <v>72.533333333333303</v>
       </c>
       <c r="V212">
-        <v>2272.2061359510899</v>
+        <v>2233.5985273469</v>
       </c>
       <c r="W212">
-        <v>3090.2275259007201</v>
+        <v>3015.4175056316699</v>
       </c>
       <c r="X212">
-        <v>5087.9774028366101</v>
+        <v>4919.4046586107997</v>
       </c>
       <c r="Y212">
-        <v>6882.6023900691598</v>
+        <v>6711.8020651803199</v>
       </c>
       <c r="Z212">
-        <v>6503.0654926550897</v>
+        <v>6285.6941353168204</v>
       </c>
       <c r="AA212">
         <v>10247</v>
@@ -58530,19 +58513,19 @@
         <v>31.6120991819183</v>
       </c>
       <c r="V213">
-        <v>269.73907577673702</v>
+        <v>265.45545256381502</v>
       </c>
       <c r="W213">
-        <v>500.69752115467998</v>
+        <v>494.88497545368301</v>
       </c>
       <c r="X213">
-        <v>2449.5077017609101</v>
+        <v>2434.4923166697799</v>
       </c>
       <c r="Y213">
-        <v>3283.8065743535199</v>
+        <v>3251.3555306953699</v>
       </c>
       <c r="Z213">
-        <v>2954.7164223311402</v>
+        <v>2908.3676601831698</v>
       </c>
       <c r="AA213">
         <v>3104</v>
@@ -58787,19 +58770,19 @@
         <v>63.658333333333303</v>
       </c>
       <c r="V214">
-        <v>1990.8721431640299</v>
+        <v>1987.23367147964</v>
       </c>
       <c r="W214">
-        <v>2696.5462544102202</v>
+        <v>2691.05267483338</v>
       </c>
       <c r="X214">
-        <v>4806.6442883336504</v>
+        <v>4785.7596723675997</v>
       </c>
       <c r="Y214">
-        <v>5431.0595879394796</v>
+        <v>5404.86930644734</v>
       </c>
       <c r="Z214">
-        <v>5148.8684327070596</v>
+        <v>5111.8708073548996</v>
       </c>
       <c r="AA214">
         <v>9665</v>
@@ -59044,19 +59027,19 @@
         <v>245.026199753849</v>
       </c>
       <c r="V215">
-        <v>15749.764525467301</v>
+        <v>15744.4875496402</v>
       </c>
       <c r="W215">
-        <v>22517.561661315602</v>
+        <v>22510.109054246699</v>
       </c>
       <c r="X215">
-        <v>26220.4532033779</v>
+        <v>26204.499956016902</v>
       </c>
       <c r="Y215">
-        <v>27491.904610740599</v>
+        <v>27463.6331628642</v>
       </c>
       <c r="Z215">
-        <v>30227.5613230852</v>
+        <v>30184.696314229601</v>
       </c>
       <c r="AA215">
         <v>18421</v>
@@ -59301,19 +59284,19 @@
         <v>318.28301480147002</v>
       </c>
       <c r="V216">
-        <v>20779.559150913399</v>
+        <v>20779.2612457143</v>
       </c>
       <c r="W216">
-        <v>24316.209275433699</v>
+        <v>24316.169288668902</v>
       </c>
       <c r="X216">
-        <v>28332.627899519401</v>
+        <v>28332.530668994801</v>
       </c>
       <c r="Y216">
-        <v>34450.513105047197</v>
+        <v>34450.2470079427</v>
       </c>
       <c r="Z216">
-        <v>38005.984371156701</v>
+        <v>38005.417503813398</v>
       </c>
       <c r="AA216">
         <v>27154</v>
@@ -59558,19 +59541,19 @@
         <v>485.05204250098802</v>
       </c>
       <c r="V217">
-        <v>32029.630568883698</v>
+        <v>32013.0930601361</v>
       </c>
       <c r="W217">
-        <v>42717.224741380902</v>
+        <v>42689.867463929899</v>
       </c>
       <c r="X217">
-        <v>50896.551585525303</v>
+        <v>50840.191107118</v>
       </c>
       <c r="Y217">
-        <v>58036.428902630803</v>
+        <v>57961.9147148068</v>
       </c>
       <c r="Z217">
-        <v>61785.008764964201</v>
+        <v>61683.954356717099</v>
       </c>
       <c r="AA217">
         <v>47993</v>
@@ -59815,19 +59798,19 @@
         <v>702.15833238486005</v>
       </c>
       <c r="V218">
-        <v>36868.404979913503</v>
+        <v>36868.2287360767</v>
       </c>
       <c r="W218">
-        <v>44363.494265594803</v>
+        <v>44363.287733486999</v>
       </c>
       <c r="X218">
-        <v>54654.408102493602</v>
+        <v>54653.811186790103</v>
       </c>
       <c r="Y218">
-        <v>69148.064380080003</v>
+        <v>69147.140755203</v>
       </c>
       <c r="Z218">
-        <v>85501.872679156993</v>
+        <v>85500.579063988305</v>
       </c>
       <c r="AA218">
         <v>78216</v>
@@ -60072,19 +60055,19 @@
         <v>403.73416776260501</v>
       </c>
       <c r="V219">
-        <v>29002.6558697574</v>
+        <v>28992.3520064722</v>
       </c>
       <c r="W219">
-        <v>39840.711810610301</v>
+        <v>39824.282629130597</v>
       </c>
       <c r="X219">
-        <v>47601.009216078201</v>
+        <v>47570.981022430198</v>
       </c>
       <c r="Y219">
-        <v>48272.621826556002</v>
+        <v>48235.673910496102</v>
       </c>
       <c r="Z219">
-        <v>49292.281586345402</v>
+        <v>49238.967809827504</v>
       </c>
       <c r="AA219">
         <v>37540</v>
@@ -60329,19 +60312,19 @@
         <v>2521.2838851104798</v>
       </c>
       <c r="V220">
-        <v>213334.09608004001</v>
+        <v>213333.18359986701</v>
       </c>
       <c r="W220">
-        <v>269382.08343122498</v>
+        <v>269380.93768640002</v>
       </c>
       <c r="X220">
-        <v>344223.68612401799</v>
+        <v>344219.39618013101</v>
       </c>
       <c r="Y220">
-        <v>415963.20230842801</v>
+        <v>415958.61435704201</v>
       </c>
       <c r="Z220">
-        <v>469113.478547965</v>
+        <v>469107.47656099597</v>
       </c>
       <c r="AA220">
         <v>265125</v>
@@ -60586,19 +60569,19 @@
         <v>109.23846001890701</v>
       </c>
       <c r="V221">
-        <v>6928.4080306074802</v>
+        <v>6914.1422002914896</v>
       </c>
       <c r="W221">
-        <v>9177.1281870816401</v>
+        <v>9153.8981216810298</v>
       </c>
       <c r="X221">
-        <v>11284.575969433299</v>
+        <v>11234.4915179734</v>
       </c>
       <c r="Y221">
-        <v>12327.803806943801</v>
+        <v>12271.490448508601</v>
       </c>
       <c r="Z221">
-        <v>12496.3725577488</v>
+        <v>12416.522603024199</v>
       </c>
       <c r="AA221">
         <v>8346</v>
@@ -60843,19 +60826,19 @@
         <v>258.239286569429</v>
       </c>
       <c r="V222">
-        <v>17496.7384670957</v>
+        <v>17487.4749316423</v>
       </c>
       <c r="W222">
-        <v>25594.233154023899</v>
+        <v>25577.2527082536</v>
       </c>
       <c r="X222">
-        <v>28594.906511137498</v>
+        <v>28560.482195609398</v>
       </c>
       <c r="Y222">
-        <v>31376.071403231399</v>
+        <v>31327.213495722899</v>
       </c>
       <c r="Z222">
-        <v>31933.985541809601</v>
+        <v>31862.068444275501</v>
       </c>
       <c r="AA222">
         <v>24361</v>
@@ -61100,19 +61083,19 @@
         <v>672.91177318258406</v>
       </c>
       <c r="V223">
-        <v>43243.0406574995</v>
+        <v>43242.300709603398</v>
       </c>
       <c r="W223">
-        <v>53110.959295169901</v>
+        <v>53109.352285305002</v>
       </c>
       <c r="X223">
-        <v>60268.404111003103</v>
+        <v>60263.948758929</v>
       </c>
       <c r="Y223">
-        <v>72467.175043599098</v>
+        <v>72460.033097163701</v>
       </c>
       <c r="Z223">
-        <v>83206.469740557295</v>
+        <v>83205.890054781907</v>
       </c>
       <c r="AA223">
         <v>70410</v>
@@ -61357,19 +61340,19 @@
         <v>120.67075896837</v>
       </c>
       <c r="V224">
-        <v>6096.6743883094596</v>
+        <v>6096.40560229927</v>
       </c>
       <c r="W224">
-        <v>7452.1838685053599</v>
+        <v>7452.1237716362502</v>
       </c>
       <c r="X224">
-        <v>9940.2265439845796</v>
+        <v>9940.0222712200703</v>
       </c>
       <c r="Y224">
-        <v>11519.5932383647</v>
+        <v>11519.054683613</v>
       </c>
       <c r="Z224">
-        <v>12475.688522643301</v>
+        <v>12474.6048050181</v>
       </c>
       <c r="AA224">
         <v>13077</v>
@@ -61614,19 +61597,19 @@
         <v>66.052135330217695</v>
       </c>
       <c r="V225">
-        <v>5554.6403802532004</v>
+        <v>5553.0043634078502</v>
       </c>
       <c r="W225">
-        <v>6580.74600676724</v>
+        <v>6576.6586061686503</v>
       </c>
       <c r="X225">
-        <v>6687.3689996808898</v>
+        <v>6680.4180319703</v>
       </c>
       <c r="Y225">
-        <v>7491.0689324619098</v>
+        <v>7481.4925373787701</v>
       </c>
       <c r="Z225">
-        <v>7693.7305155240601</v>
+        <v>7682.7928911846002</v>
       </c>
       <c r="AA225">
         <v>4704</v>
@@ -61871,19 +61854,19 @@
         <v>450.85342308053902</v>
       </c>
       <c r="V226">
-        <v>28223.391205232601</v>
+        <v>28219.725298486701</v>
       </c>
       <c r="W226">
-        <v>42941.809914739497</v>
+        <v>42937.046478341501</v>
       </c>
       <c r="X226">
-        <v>49918.875639342397</v>
+        <v>49908.614960696803</v>
       </c>
       <c r="Y226">
-        <v>55379.7442574952</v>
+        <v>55358.7465232705</v>
       </c>
       <c r="Z226">
-        <v>58699.177105278999</v>
+        <v>58666.256070589799</v>
       </c>
       <c r="AA226">
         <v>49287</v>
@@ -62128,19 +62111,19 @@
         <v>60.9166666666666</v>
       </c>
       <c r="V227">
-        <v>1765.16655179754</v>
+        <v>1749.48910077798</v>
       </c>
       <c r="W227">
-        <v>2968.45040934602</v>
+        <v>2943.6507482039601</v>
       </c>
       <c r="X227">
-        <v>4689.0395747619696</v>
+        <v>4638.0329664971296</v>
       </c>
       <c r="Y227">
-        <v>4649.6603918279798</v>
+        <v>4603.0455794622303</v>
       </c>
       <c r="Z227">
-        <v>4984.8385005723803</v>
+        <v>4923.4892873265298</v>
       </c>
       <c r="AA227">
         <v>6033</v>
@@ -62385,19 +62368,19 @@
         <v>128.96032620131101</v>
       </c>
       <c r="V228">
-        <v>4361.7647902952403</v>
+        <v>4341.4897511163399</v>
       </c>
       <c r="W228">
-        <v>6330.2383742563698</v>
+        <v>6293.8253003893496</v>
       </c>
       <c r="X228">
-        <v>8691.1631549813592</v>
+        <v>8618.3025229474497</v>
       </c>
       <c r="Y228">
-        <v>10903.768554766901</v>
+        <v>10804.223967256899</v>
       </c>
       <c r="Z228">
-        <v>11937.0622655714</v>
+        <v>11789.436332130699</v>
       </c>
       <c r="AA228">
         <v>13868</v>
@@ -62642,19 +62625,19 @@
         <v>73.156198512878703</v>
       </c>
       <c r="V229">
-        <v>1508.7063553765099</v>
+        <v>1500.9490548989199</v>
       </c>
       <c r="W229">
-        <v>2364.1295009926498</v>
+        <v>2347.8326003993402</v>
       </c>
       <c r="X229">
-        <v>4860.9684715721296</v>
+        <v>4827.4763641506297</v>
       </c>
       <c r="Y229">
-        <v>5801.3114333479298</v>
+        <v>5763.8896461617696</v>
       </c>
       <c r="Z229">
-        <v>6525.3741437793797</v>
+        <v>6472.6327799948804</v>
       </c>
       <c r="AA229">
         <v>8277</v>
@@ -62896,19 +62879,19 @@
         <v>121.805004062488</v>
       </c>
       <c r="V230">
-        <v>5387.1610613805296</v>
+        <v>5373.9572536259602</v>
       </c>
       <c r="W230">
-        <v>7321.3155131003696</v>
+        <v>7303.58716205374</v>
       </c>
       <c r="X230">
-        <v>9840.8109458716008</v>
+        <v>9805.6987990282196</v>
       </c>
       <c r="Y230">
-        <v>12952.029959186801</v>
+        <v>12918.4491901124</v>
       </c>
       <c r="Z230">
-        <v>13183.2951704273</v>
+        <v>13139.6914933055</v>
       </c>
       <c r="AA230">
         <v>14186</v>
@@ -63153,19 +63136,19 @@
         <v>208.97288240621501</v>
       </c>
       <c r="V231">
-        <v>6831.5009724286401</v>
+        <v>6826.4714614815002</v>
       </c>
       <c r="W231">
-        <v>10175.7414837011</v>
+        <v>10167.619965178699</v>
       </c>
       <c r="X231">
-        <v>14764.4810187765</v>
+        <v>14748.008497025599</v>
       </c>
       <c r="Y231">
-        <v>24411.7333791132</v>
+        <v>24386.608024148602</v>
       </c>
       <c r="Z231">
-        <v>25106.583786395498</v>
+        <v>25065.9603259336</v>
       </c>
       <c r="AA231">
         <v>17393</v>
@@ -63410,19 +63393,19 @@
         <v>187.94217656268901</v>
       </c>
       <c r="V232">
-        <v>7609.7894933580701</v>
+        <v>7597.3529184973404</v>
       </c>
       <c r="W232">
-        <v>10896.0278135805</v>
+        <v>10875.402692920001</v>
       </c>
       <c r="X232">
-        <v>15316.489438484699</v>
+        <v>15278.729274380799</v>
       </c>
       <c r="Y232">
-        <v>17852.346350231899</v>
+        <v>17811.3779845645</v>
       </c>
       <c r="Z232">
-        <v>18219.495009448201</v>
+        <v>18163.559963898198</v>
       </c>
       <c r="AA232">
         <v>19033</v>
@@ -63667,19 +63650,19 @@
         <v>73.819408021429496</v>
       </c>
       <c r="V233">
-        <v>3088.06746756751</v>
+        <v>3082.1971836379898</v>
       </c>
       <c r="W233">
-        <v>4663.1577675356202</v>
+        <v>4653.6944925920898</v>
       </c>
       <c r="X233">
-        <v>6009.8222169989704</v>
+        <v>5988.5576042497196</v>
       </c>
       <c r="Y233">
-        <v>6099.7811878992297</v>
+        <v>6066.6058690003001</v>
       </c>
       <c r="Z233">
-        <v>7620.8973410955996</v>
+        <v>7575.3695896723902</v>
       </c>
       <c r="AA233">
         <v>8807</v>
@@ -63921,19 +63904,19 @@
         <v>285.50143674566402</v>
       </c>
       <c r="V234">
-        <v>11087.135153220201</v>
+        <v>11065.0530729042</v>
       </c>
       <c r="W234">
-        <v>16544.542597242002</v>
+        <v>16507.326141879901</v>
       </c>
       <c r="X234">
-        <v>25004.852166210901</v>
+        <v>24933.018457101101</v>
       </c>
       <c r="Y234">
-        <v>28905.5152108812</v>
+        <v>28834.985330109899</v>
       </c>
       <c r="Z234">
-        <v>30938.456749688801</v>
+        <v>30840.6253169265</v>
       </c>
       <c r="AA234">
         <v>26676</v>
@@ -64178,19 +64161,19 @@
         <v>672.80883094263402</v>
       </c>
       <c r="V235">
-        <v>17472.606635209999</v>
+        <v>17463.347113783599</v>
       </c>
       <c r="W235">
-        <v>28324.001505676199</v>
+        <v>28305.2692013956</v>
       </c>
       <c r="X235">
-        <v>48598.094747499803</v>
+        <v>48558.027290080201</v>
       </c>
       <c r="Y235">
-        <v>61373.881267446603</v>
+        <v>61345.289948261197</v>
       </c>
       <c r="Z235">
-        <v>75538.588424820598</v>
+        <v>75498.364975120203</v>
       </c>
       <c r="AA235">
         <v>62969</v>
@@ -64435,19 +64418,19 @@
         <v>111.790795634608</v>
       </c>
       <c r="V236">
-        <v>2832.8472419210898</v>
+        <v>2831.17137782601</v>
       </c>
       <c r="W236">
-        <v>4649.8308047696701</v>
+        <v>4646.7886325240497</v>
       </c>
       <c r="X236">
-        <v>7604.2602309917902</v>
+        <v>7597.6075535148302</v>
       </c>
       <c r="Y236">
-        <v>9881.5130504369299</v>
+        <v>9873.1199665401</v>
       </c>
       <c r="Z236">
-        <v>10748.700293673701</v>
+        <v>10731.041595212901</v>
       </c>
       <c r="AA236">
         <v>16430</v>
@@ -64692,19 +64675,19 @@
         <v>48.85</v>
       </c>
       <c r="V237">
-        <v>2149.0340172197598</v>
+        <v>2138.0277858320201</v>
       </c>
       <c r="W237">
-        <v>2950.8047954110302</v>
+        <v>2933.0290601300999</v>
       </c>
       <c r="X237">
-        <v>3994.5429154628901</v>
+        <v>3956.9166835000501</v>
       </c>
       <c r="Y237">
-        <v>5405.8258971817104</v>
+        <v>5376.2413133644704</v>
       </c>
       <c r="Z237">
-        <v>5277.6751051422098</v>
+        <v>5239.8754845473104</v>
       </c>
       <c r="AA237">
         <v>5817</v>
@@ -64946,19 +64929,19 @@
         <v>68.012946743401599</v>
       </c>
       <c r="V238">
-        <v>2216.71630429382</v>
+        <v>2205.2469889086301</v>
       </c>
       <c r="W238">
-        <v>3348.0168270066101</v>
+        <v>3329.5278989086901</v>
       </c>
       <c r="X238">
-        <v>4514.6992330472603</v>
+        <v>4481.2072055461304</v>
       </c>
       <c r="Y238">
-        <v>5043.2504522171903</v>
+        <v>4999.4103844877</v>
       </c>
       <c r="Z238">
-        <v>5512.3251034556597</v>
+        <v>5450.2285154452302</v>
       </c>
       <c r="AA238">
         <v>5425</v>
@@ -65203,19 +65186,19 @@
         <v>78.858333333333306</v>
       </c>
       <c r="V239">
-        <v>2342.4807676811802</v>
+        <v>2307.1671866106299</v>
       </c>
       <c r="W239">
-        <v>4088.1211856422501</v>
+        <v>4048.8325357057302</v>
       </c>
       <c r="X239">
-        <v>5924.4656976258802</v>
+        <v>5859.0055018282501</v>
       </c>
       <c r="Y239">
-        <v>7356.4758923592499</v>
+        <v>7310.4261535690603</v>
       </c>
       <c r="Z239">
-        <v>7534.1995794344302</v>
+        <v>7470.6680566418099</v>
       </c>
       <c r="AA239">
         <v>7226</v>
@@ -65460,19 +65443,19 @@
         <v>541.77746363776396</v>
       </c>
       <c r="V240">
-        <v>10139.402259012501</v>
+        <v>10109.284545418501</v>
       </c>
       <c r="W240">
-        <v>17366.592894112699</v>
+        <v>17324.041846484401</v>
       </c>
       <c r="X240">
-        <v>33544.321998785701</v>
+        <v>33454.762441231796</v>
       </c>
       <c r="Y240">
-        <v>47117.352116344198</v>
+        <v>47028.4054466507</v>
       </c>
       <c r="Z240">
-        <v>57678.707610265999</v>
+        <v>57561.424682415403</v>
       </c>
       <c r="AA240">
         <v>56017</v>
@@ -65717,19 +65700,19 @@
         <v>59.883765532791102</v>
       </c>
       <c r="V241">
-        <v>1668.0822224701401</v>
+        <v>1657.8078508147801</v>
       </c>
       <c r="W241">
-        <v>1836.25549719327</v>
+        <v>1822.21878993413</v>
       </c>
       <c r="X241">
-        <v>2721.4714658612302</v>
+        <v>2690.6848853208498</v>
       </c>
       <c r="Y241">
-        <v>3984.4223817027701</v>
+        <v>3895.4421708641198</v>
       </c>
       <c r="Z241">
-        <v>4539.8260556312098</v>
+        <v>4474.0271773857803</v>
       </c>
       <c r="AA241">
         <v>5165</v>
@@ -65959,19 +65942,19 @@
         <v>120.45781736977401</v>
       </c>
       <c r="V242">
-        <v>3018.1675187983301</v>
+        <v>2998.3101460704802</v>
       </c>
       <c r="W242">
-        <v>4008.3130462805598</v>
+        <v>3986.62751246278</v>
       </c>
       <c r="X242">
-        <v>5773.7553584400202</v>
+        <v>5734.91855294583</v>
       </c>
       <c r="Y242">
-        <v>9094.4703060245502</v>
+        <v>9001.1173994245801</v>
       </c>
       <c r="Z242">
-        <v>10564.787393443599</v>
+        <v>10475.263735734999</v>
       </c>
       <c r="AA242">
         <v>10984</v>
@@ -66216,19 +66199,19 @@
         <v>43.749921596631602</v>
       </c>
       <c r="V243">
-        <v>1559.1864143553</v>
+        <v>1542.84409173221</v>
       </c>
       <c r="W243">
-        <v>1786.8107295376501</v>
+        <v>1767.6460808117699</v>
       </c>
       <c r="X243">
-        <v>2269.60151272035</v>
+        <v>2235.3245959789601</v>
       </c>
       <c r="Y243">
-        <v>3085.6843254180599</v>
+        <v>2987.9891624570801</v>
       </c>
       <c r="Z243">
-        <v>3265.1218896332398</v>
+        <v>3171.0519115980401</v>
       </c>
       <c r="AA243">
         <v>3699</v>
@@ -66473,19 +66456,19 @@
         <v>157.50253649086901</v>
       </c>
       <c r="V244">
-        <v>5889.1889999474597</v>
+        <v>5876.63258048428</v>
       </c>
       <c r="W244">
-        <v>7216.64309199544</v>
+        <v>7195.7936790785498</v>
       </c>
       <c r="X244">
-        <v>11121.994156242199</v>
+        <v>11095.369549867901</v>
       </c>
       <c r="Y244">
-        <v>13335.0054225231</v>
+        <v>13303.216199175</v>
       </c>
       <c r="Z244">
-        <v>14924.345631190699</v>
+        <v>14876.161282831101</v>
       </c>
       <c r="AA244">
         <v>16441</v>
@@ -66730,19 +66713,19 @@
         <v>49.908333333333303</v>
       </c>
       <c r="V245">
-        <v>3076.0270060565499</v>
+        <v>3060.7700265693602</v>
       </c>
       <c r="W245">
-        <v>3731.54364285255</v>
+        <v>3710.4480581893399</v>
       </c>
       <c r="X245">
-        <v>4403.2040533689096</v>
+        <v>4378.2444334977499</v>
       </c>
       <c r="Y245">
-        <v>4574.7933096532297</v>
+        <v>4540.6838564034097</v>
       </c>
       <c r="Z245">
-        <v>4695.94619054347</v>
+        <v>4652.6986371923304</v>
       </c>
       <c r="AA245">
         <v>3973</v>
@@ -66987,19 +66970,19 @@
         <v>752.73833431217395</v>
       </c>
       <c r="V246">
-        <v>49389.909740368101</v>
+        <v>49383.26970995</v>
       </c>
       <c r="W246">
-        <v>59851.887184429797</v>
+        <v>59843.808247044297</v>
       </c>
       <c r="X246">
-        <v>75634.974312684295</v>
+        <v>75625.028531277101</v>
       </c>
       <c r="Y246">
-        <v>74699.179855451206</v>
+        <v>74690.657284845205</v>
       </c>
       <c r="Z246">
-        <v>79125.316001782601</v>
+        <v>79113.975041047699</v>
       </c>
       <c r="AA246">
         <v>72053</v>
@@ -67238,19 +67221,19 @@
         <v>783.640110060035</v>
       </c>
       <c r="V247">
-        <v>31598.587798657602</v>
+        <v>31587.952058196399</v>
       </c>
       <c r="W247">
-        <v>45264.277859273403</v>
+        <v>45245.039954231099</v>
       </c>
       <c r="X247">
-        <v>64235.901566201297</v>
+        <v>64215.582197169897</v>
       </c>
       <c r="Y247">
-        <v>69874.812658371506</v>
+        <v>69852.474911182406</v>
       </c>
       <c r="Z247">
-        <v>81214.282222931302</v>
+        <v>81185.283279629803</v>
       </c>
       <c r="AA247">
         <v>67855</v>
@@ -67495,19 +67478,19 @@
         <v>540.50591355862196</v>
       </c>
       <c r="V248">
-        <v>34445.096948978098</v>
+        <v>34437.818823757203</v>
       </c>
       <c r="W248">
-        <v>44808.465328476501</v>
+        <v>44798.694175264398</v>
       </c>
       <c r="X248">
-        <v>52697.780987929596</v>
+        <v>52686.353486679502</v>
       </c>
       <c r="Y248">
-        <v>52256.953205064703</v>
+        <v>52242.837291998803</v>
       </c>
       <c r="Z248">
-        <v>56456.116487220897</v>
+        <v>56432.902147880799</v>
       </c>
       <c r="AA248">
         <v>51090</v>
@@ -67752,19 +67735,19 @@
         <v>103.30896315311</v>
       </c>
       <c r="V249">
-        <v>5632.0451908489204</v>
+        <v>5614.8898211229298</v>
       </c>
       <c r="W249">
-        <v>6640.4143747071003</v>
+        <v>6614.1474184264498</v>
       </c>
       <c r="X249">
-        <v>9183.2623200201997</v>
+        <v>9144.7612128930596</v>
       </c>
       <c r="Y249">
-        <v>8638.9032822135596</v>
+        <v>8588.9450448708903</v>
       </c>
       <c r="Z249">
-        <v>9511.43700950118</v>
+        <v>9447.9858929159109</v>
       </c>
       <c r="AA249">
         <v>11859</v>
@@ -68009,19 +67992,19 @@
         <v>223.69992875754599</v>
       </c>
       <c r="V250">
-        <v>12934.548470518699</v>
+        <v>12923.6083342122</v>
       </c>
       <c r="W250">
-        <v>15956.029972935499</v>
+        <v>15939.328032241499</v>
       </c>
       <c r="X250">
-        <v>21150.699331757402</v>
+        <v>21129.3923540326</v>
       </c>
       <c r="Y250">
-        <v>19872.2695491905</v>
+        <v>19854.3885650458</v>
       </c>
       <c r="Z250">
-        <v>22755.479111496501</v>
+        <v>22731.866909088501</v>
       </c>
       <c r="AA250">
         <v>21084</v>
@@ -68266,19 +68249,19 @@
         <v>101.684755361635</v>
       </c>
       <c r="V251">
-        <v>6506.7968085156899</v>
+        <v>6496.4243847983898</v>
       </c>
       <c r="W251">
-        <v>7419.6199815979699</v>
+        <v>7403.0714115507999</v>
       </c>
       <c r="X251">
-        <v>9245.5265303533706</v>
+        <v>9224.8493905914293</v>
       </c>
       <c r="Y251">
-        <v>8830.2503658254409</v>
+        <v>8806.5991765572799</v>
       </c>
       <c r="Z251">
-        <v>9144.8161143519101</v>
+        <v>9110.6535765869594</v>
       </c>
       <c r="AA251">
         <v>14067</v>
@@ -68523,19 +68506,19 @@
         <v>265.57821787775401</v>
       </c>
       <c r="V252">
-        <v>17605.3303390576</v>
+        <v>17592.706866201399</v>
       </c>
       <c r="W252">
-        <v>22923.7717178122</v>
+        <v>22904.3291232798</v>
       </c>
       <c r="X252">
-        <v>26087.285809382902</v>
+        <v>26061.1985485035</v>
       </c>
       <c r="Y252">
-        <v>24362.9390158881</v>
+        <v>24332.1983865783</v>
       </c>
       <c r="Z252">
-        <v>25411.1242045291</v>
+        <v>25371.230571251399</v>
       </c>
       <c r="AA252">
         <v>32361</v>
@@ -68780,19 +68763,19 @@
         <v>165.30283288810401</v>
       </c>
       <c r="V253">
-        <v>9732.6195987462597</v>
+        <v>9714.4893192811305</v>
       </c>
       <c r="W253">
-        <v>11232.1781760663</v>
+        <v>11204.817099191399</v>
       </c>
       <c r="X253">
-        <v>14794.3636580329</v>
+        <v>14757.7231326869</v>
       </c>
       <c r="Y253">
-        <v>13931.1921358454</v>
+        <v>13881.784853364899</v>
       </c>
       <c r="Z253">
-        <v>16734.4851614449</v>
+        <v>16670.749699698899</v>
       </c>
       <c r="AA253">
         <v>16592</v>
@@ -69034,19 +69017,19 @@
         <v>282.56957958403501</v>
       </c>
       <c r="V254">
-        <v>13343.484551789599</v>
+        <v>13338.9721926989</v>
       </c>
       <c r="W254">
-        <v>16047.9043522671</v>
+        <v>16040.8492953239</v>
       </c>
       <c r="X254">
-        <v>23276.571618316601</v>
+        <v>23268.535732799901</v>
       </c>
       <c r="Y254">
-        <v>24851.871147769602</v>
+        <v>24839.667961132502</v>
       </c>
       <c r="Z254">
-        <v>26897.438040852499</v>
+        <v>26882.0379035279</v>
       </c>
       <c r="AA254">
         <v>29170</v>
@@ -69291,19 +69274,19 @@
         <v>85.447840930007203</v>
       </c>
       <c r="V255">
-        <v>2454.63606621913</v>
+        <v>2447.7114216292198</v>
       </c>
       <c r="W255">
-        <v>2934.3463661082701</v>
+        <v>2924.2498517579602</v>
       </c>
       <c r="X255">
-        <v>4419.7736613624702</v>
+        <v>4397.9303680818903</v>
       </c>
       <c r="Y255">
-        <v>5967.8106812435799</v>
+        <v>5939.5952228404003</v>
       </c>
       <c r="Z255">
-        <v>6686.3956659924497</v>
+        <v>6652.3477987758897</v>
       </c>
       <c r="AA255">
         <v>9634</v>
@@ -69548,19 +69531,19 @@
         <v>44.223335299073803</v>
       </c>
       <c r="V256">
-        <v>2437.3195414775901</v>
+        <v>2429.2357027499602</v>
       </c>
       <c r="W256">
-        <v>2791.3368608918699</v>
+        <v>2779.4828980048601</v>
       </c>
       <c r="X256">
-        <v>3093.4272681359298</v>
+        <v>3069.1538182446002</v>
       </c>
       <c r="Y256">
-        <v>3883.3793199653201</v>
+        <v>3855.9569460006701</v>
       </c>
       <c r="Z256">
-        <v>3825.1638458785301</v>
+        <v>3789.5728068316398</v>
       </c>
       <c r="AA256">
         <v>3918</v>
@@ -69802,19 +69785,19 @@
         <v>472.68352925809899</v>
       </c>
       <c r="V257">
-        <v>26077.662914195502</v>
+        <v>26069.141405215501</v>
       </c>
       <c r="W257">
-        <v>26316.552783811399</v>
+        <v>26305.345270122001</v>
       </c>
       <c r="X257">
-        <v>32991.362108144996</v>
+        <v>32967.8351626968</v>
       </c>
       <c r="Y257">
-        <v>40915.407687563398</v>
+        <v>40883.994191518803</v>
       </c>
       <c r="Z257">
-        <v>51174.524551186201</v>
+        <v>51134.059828772297</v>
       </c>
       <c r="AA257">
         <v>47425</v>
@@ -70059,19 +70042,19 @@
         <v>365.72884938899801</v>
       </c>
       <c r="V258">
-        <v>20350.822540659799</v>
+        <v>20342.649750085398</v>
       </c>
       <c r="W258">
-        <v>22342.532992519598</v>
+        <v>22331.469527403598</v>
       </c>
       <c r="X258">
-        <v>27785.554078349101</v>
+        <v>27763.718318494401</v>
       </c>
       <c r="Y258">
-        <v>32266.850686456401</v>
+        <v>32239.6006774815</v>
       </c>
       <c r="Z258">
-        <v>36898.533849533596</v>
+        <v>36863.746816569903</v>
       </c>
       <c r="AA258">
         <v>41340</v>
@@ -70310,19 +70293,19 @@
         <v>41.633333333333297</v>
       </c>
       <c r="V259">
-        <v>1457.3889354124899</v>
+        <v>1444.36890880443</v>
       </c>
       <c r="W259">
-        <v>1649.44411303692</v>
+        <v>1617.4649882026899</v>
       </c>
       <c r="X259">
-        <v>2835.1857328613401</v>
+        <v>2772.4254872562201</v>
       </c>
       <c r="Y259">
-        <v>5611.8599988502301</v>
+        <v>5546.33059888149</v>
       </c>
       <c r="Z259">
-        <v>5072.0982223410001</v>
+        <v>4951.3063053136102</v>
       </c>
       <c r="AA259">
         <v>3142</v>
@@ -70567,19 +70550,19 @@
         <v>78.349999999999895</v>
       </c>
       <c r="V260">
-        <v>1620.5508477676401</v>
+        <v>1610.7230001851001</v>
       </c>
       <c r="W260">
-        <v>2035.0119456178099</v>
+        <v>2002.7784365039599</v>
       </c>
       <c r="X260">
-        <v>4443.3921332710997</v>
+        <v>4374.3687258054897</v>
       </c>
       <c r="Y260">
-        <v>6226.9504078734199</v>
+        <v>6160.8974290507203</v>
       </c>
       <c r="Z260">
-        <v>7357.7199018683696</v>
+        <v>7236.1903779100903</v>
       </c>
       <c r="AA260">
         <v>14485</v>
@@ -70824,19 +70807,19 @@
         <v>84.825000000000003</v>
       </c>
       <c r="V261">
-        <v>2294.7570648557198</v>
+        <v>2258.99974775391</v>
       </c>
       <c r="W261">
-        <v>3111.68984301504</v>
+        <v>3032.60189532094</v>
       </c>
       <c r="X261">
-        <v>5529.0157871702904</v>
+        <v>5388.9635405855697</v>
       </c>
       <c r="Y261">
-        <v>6820.2036927277504</v>
+        <v>6677.5668699909002</v>
       </c>
       <c r="Z261">
-        <v>7808.3917257400099</v>
+        <v>7559.4674661786603</v>
       </c>
       <c r="AA261">
         <v>13179</v>
@@ -71081,19 +71064,19 @@
         <v>156.81666666666601</v>
       </c>
       <c r="V262">
-        <v>5801.0985382729896</v>
+        <v>5757.8575521536404</v>
       </c>
       <c r="W262">
-        <v>6923.4988233703898</v>
+        <v>6809.5777560460001</v>
       </c>
       <c r="X262">
-        <v>11196.1056937538</v>
+        <v>11024.3941562813</v>
       </c>
       <c r="Y262">
-        <v>13227.948160043999</v>
+        <v>13057.8624454085</v>
       </c>
       <c r="Z262">
-        <v>14656.190613659401</v>
+        <v>14364.481771528999</v>
       </c>
       <c r="AA262">
         <v>18413</v>
@@ -71338,19 +71321,19 @@
         <v>142.27282148177201</v>
       </c>
       <c r="V263">
-        <v>4577.6467214312997</v>
+        <v>4505.8930396147198</v>
       </c>
       <c r="W263">
-        <v>5641.83981994018</v>
+        <v>5454.5613837055998</v>
       </c>
       <c r="X263">
-        <v>9974.4229794861094</v>
+        <v>9616.8981924339096</v>
       </c>
       <c r="Y263">
-        <v>11411.5529216019</v>
+        <v>11016.853601311799</v>
       </c>
       <c r="Z263">
-        <v>12560.145148145601</v>
+        <v>11835.8699555934</v>
       </c>
       <c r="AA263">
         <v>15744</v>
@@ -71595,19 +71578,19 @@
         <v>499.17104942893201</v>
       </c>
       <c r="V264">
-        <v>19936.002050139799</v>
+        <v>19917.932680305199</v>
       </c>
       <c r="W264">
-        <v>23997.639983619101</v>
+        <v>23961.362133791601</v>
       </c>
       <c r="X264">
-        <v>38942.279025025098</v>
+        <v>38885.610305509399</v>
       </c>
       <c r="Y264">
-        <v>43963.278048132102</v>
+        <v>43903.4694913864</v>
       </c>
       <c r="Z264">
-        <v>53800.933326063699</v>
+        <v>53700.213677272201</v>
       </c>
       <c r="AA264">
         <v>47846</v>
@@ -71852,19 +71835,19 @@
         <v>286.58397124186502</v>
       </c>
       <c r="V265">
-        <v>4433.1728711400701</v>
+        <v>4399.7174064457304</v>
       </c>
       <c r="W265">
-        <v>7700.1816852032398</v>
+        <v>7612.8970232244501</v>
       </c>
       <c r="X265">
-        <v>18464.8288263141</v>
+        <v>18289.938542334701</v>
       </c>
       <c r="Y265">
-        <v>51452.896809416503</v>
+        <v>51287.493515550901</v>
       </c>
       <c r="Z265">
-        <v>52750.845195673799</v>
+        <v>52487.226999680403</v>
       </c>
       <c r="AA265">
         <v>29272</v>
@@ -72109,19 +72092,19 @@
         <v>724.99451213654697</v>
       </c>
       <c r="V266">
-        <v>46702.034184698699</v>
+        <v>46696.055003376001</v>
       </c>
       <c r="W266">
-        <v>56485.944029694598</v>
+        <v>56476.029267569902</v>
       </c>
       <c r="X266">
-        <v>69586.6268993376</v>
+        <v>69569.599629220203</v>
       </c>
       <c r="Y266">
-        <v>77772.9041721783</v>
+        <v>77752.253517017802</v>
       </c>
       <c r="Z266">
-        <v>85625.592420637695</v>
+        <v>85591.511688716797</v>
       </c>
       <c r="AA266">
         <v>69673</v>
@@ -72366,19 +72349,19 @@
         <v>176.82499999999999</v>
       </c>
       <c r="V267">
-        <v>8958.6057486030095</v>
+        <v>8929.1278925828992</v>
       </c>
       <c r="W267">
-        <v>11721.074829503899</v>
+        <v>11657.5800340761</v>
       </c>
       <c r="X267">
-        <v>14756.5266770788</v>
+        <v>14631.6249881601</v>
       </c>
       <c r="Y267">
-        <v>16204.327528739501</v>
+        <v>16089.297378531501</v>
       </c>
       <c r="Z267">
-        <v>17928.601964968198</v>
+        <v>17722.286027518599</v>
       </c>
       <c r="AA267">
         <v>17210</v>
@@ -72623,19 +72606,19 @@
         <v>128.541666666666</v>
       </c>
       <c r="V268">
-        <v>6860.1928430132402</v>
+        <v>6845.0233202763702</v>
       </c>
       <c r="W268">
-        <v>8610.6642418313895</v>
+        <v>8582.2431445758903</v>
       </c>
       <c r="X268">
-        <v>11913.981725994199</v>
+        <v>11847.9151458001</v>
       </c>
       <c r="Y268">
-        <v>12280.1741347268</v>
+        <v>12217.447258837599</v>
       </c>
       <c r="Z268">
-        <v>12381.5618628339</v>
+        <v>12285.9347462106</v>
       </c>
       <c r="AA268">
         <v>13488</v>
@@ -72880,19 +72863,19 @@
         <v>101.43458417191999</v>
       </c>
       <c r="V269">
-        <v>4373.2857948227702</v>
+        <v>4370.1500042192802</v>
       </c>
       <c r="W269">
-        <v>6409.2011300144904</v>
+        <v>6403.91455850068</v>
       </c>
       <c r="X269">
-        <v>7958.82258028459</v>
+        <v>7945.9119214143602</v>
       </c>
       <c r="Y269">
-        <v>9379.6570787861692</v>
+        <v>9366.2529388823496</v>
       </c>
       <c r="Z269">
-        <v>9202.3642210391699</v>
+        <v>9183.8119163610409</v>
       </c>
       <c r="AA269">
         <v>11651</v>
@@ -73134,19 +73117,19 @@
         <v>249.7</v>
       </c>
       <c r="V270">
-        <v>8939.9296142844596</v>
+        <v>8886.5068771707993</v>
       </c>
       <c r="W270">
-        <v>13785.800280588201</v>
+        <v>13665.7699000347</v>
       </c>
       <c r="X270">
-        <v>19431.476271592499</v>
+        <v>19166.0607408988</v>
       </c>
       <c r="Y270">
-        <v>22679.975766552401</v>
+        <v>22418.868650069999</v>
       </c>
       <c r="Z270">
-        <v>24695.336190211499</v>
+        <v>24235.500313613102</v>
       </c>
       <c r="AA270">
         <v>26780</v>
@@ -73391,19 +73374,19 @@
         <v>195.65380480326399</v>
       </c>
       <c r="V271">
-        <v>7871.3727926024103</v>
+        <v>7864.2253954900698</v>
       </c>
       <c r="W271">
-        <v>10837.582448655899</v>
+        <v>10823.67052824</v>
       </c>
       <c r="X271">
-        <v>15743.284044583301</v>
+        <v>15716.915391505099</v>
       </c>
       <c r="Y271">
-        <v>18068.6115079023</v>
+        <v>18043.3160469824</v>
       </c>
       <c r="Z271">
-        <v>19762.895395298099</v>
+        <v>19720.871902933901</v>
       </c>
       <c r="AA271">
         <v>15091</v>
@@ -73648,19 +73631,19 @@
         <v>114.957480273299</v>
       </c>
       <c r="V272">
-        <v>4632.7777133534801</v>
+        <v>4625.6906389912701</v>
       </c>
       <c r="W272">
-        <v>5478.9530893743904</v>
+        <v>5468.1093422835402</v>
       </c>
       <c r="X272">
-        <v>7214.3549533585901</v>
+        <v>7193.3829704966902</v>
       </c>
       <c r="Y272">
-        <v>9386.5993561021296</v>
+        <v>9365.85491417913</v>
       </c>
       <c r="Z272">
-        <v>10294.424041406901</v>
+        <v>10258.3878593932</v>
       </c>
       <c r="AA272">
         <v>10674</v>
@@ -73905,19 +73888,19 @@
         <v>700.45261972969104</v>
       </c>
       <c r="V273">
-        <v>56145.900515552101</v>
+        <v>56145.379173887399</v>
       </c>
       <c r="W273">
-        <v>64077.062078481897</v>
+        <v>64076.323401577298</v>
       </c>
       <c r="X273">
-        <v>64242.828884178103</v>
+        <v>64240.012170061498</v>
       </c>
       <c r="Y273">
-        <v>71242.056534011004</v>
+        <v>71240.236231835399</v>
       </c>
       <c r="Z273">
-        <v>73898.993234678899</v>
+        <v>73895.044664767105</v>
       </c>
       <c r="AA273">
         <v>60010</v>
@@ -74162,19 +74145,19 @@
         <v>78.863907763101906</v>
       </c>
       <c r="V274">
-        <v>3490.4347876813999</v>
+        <v>3488.9501687022298</v>
       </c>
       <c r="W274">
-        <v>5284.1993437725896</v>
+        <v>5279.3670932120203</v>
       </c>
       <c r="X274">
-        <v>7279.6066787154105</v>
+        <v>7270.0724579172902</v>
       </c>
       <c r="Y274">
-        <v>8360.9233604282199</v>
+        <v>8351.7997956557792</v>
       </c>
       <c r="Z274">
-        <v>8495.2299690231794</v>
+        <v>8488.0593168781597</v>
       </c>
       <c r="AA274">
         <v>8961</v>
@@ -74416,19 +74399,19 @@
         <v>300.78314068688502</v>
       </c>
       <c r="V275">
-        <v>16019.482853748799</v>
+        <v>16012.374721624399</v>
       </c>
       <c r="W275">
-        <v>22402.008475648301</v>
+        <v>22377.350088186398</v>
       </c>
       <c r="X275">
-        <v>27029.817073376002</v>
+        <v>26987.179979718101</v>
       </c>
       <c r="Y275">
-        <v>29223.109067441001</v>
+        <v>29186.9949582927</v>
       </c>
       <c r="Z275">
-        <v>30902.338624729498</v>
+        <v>30873.205407474201</v>
       </c>
       <c r="AA275">
         <v>30557</v>
@@ -74673,19 +74656,19 @@
         <v>260.00553523372099</v>
       </c>
       <c r="V276">
-        <v>9310.9712677655898</v>
+        <v>9304.3430681726295</v>
       </c>
       <c r="W276">
-        <v>13501.333420540601</v>
+        <v>13491.3833069428</v>
       </c>
       <c r="X276">
-        <v>15898.2521832697</v>
+        <v>15878.844795737899</v>
       </c>
       <c r="Y276">
-        <v>19306.245702009401</v>
+        <v>19289.5858818243</v>
       </c>
       <c r="Z276">
-        <v>23286.686927827599</v>
+        <v>23265.169092911401</v>
       </c>
       <c r="AA276">
         <v>29720</v>
@@ -74930,19 +74913,19 @@
         <v>281.40488182021801</v>
       </c>
       <c r="V277">
-        <v>7024.1676115205601</v>
+        <v>7016.0010966704203</v>
       </c>
       <c r="W277">
-        <v>11851.000573736301</v>
+        <v>11835.7434889368</v>
       </c>
       <c r="X277">
-        <v>18167.903827339502</v>
+        <v>18133.1694960485</v>
       </c>
       <c r="Y277">
-        <v>21714.445470453698</v>
+        <v>21666.618243184301</v>
       </c>
       <c r="Z277">
-        <v>24675.456082037501</v>
+        <v>24624.657923909399</v>
       </c>
       <c r="AA277">
         <v>33406</v>
@@ -75187,19 +75170,19 @@
         <v>230.43995317100701</v>
       </c>
       <c r="V278">
-        <v>8494.9015218400309</v>
+        <v>8489.9548876037898</v>
       </c>
       <c r="W278">
-        <v>13415.049335178501</v>
+        <v>13403.4997364623</v>
       </c>
       <c r="X278">
-        <v>17546.7356088829</v>
+        <v>17528.093857913202</v>
       </c>
       <c r="Y278">
-        <v>20310.215831344402</v>
+        <v>20280.416306089101</v>
       </c>
       <c r="Z278">
-        <v>21512.614156646301</v>
+        <v>21462.3194989484</v>
       </c>
       <c r="AA278">
         <v>20913</v>
@@ -75444,19 +75427,19 @@
         <v>90.490827439109594</v>
       </c>
       <c r="V279">
-        <v>2021.0361873280399</v>
+        <v>2013.6538269125899</v>
       </c>
       <c r="W279">
-        <v>2987.8118181885998</v>
+        <v>2972.0711995010302</v>
       </c>
       <c r="X279">
-        <v>4652.4366090544199</v>
+        <v>4618.2311477481899</v>
       </c>
       <c r="Y279">
-        <v>6742.6146440085404</v>
+        <v>6699.05492407365</v>
       </c>
       <c r="Z279">
-        <v>7873.7429911954496</v>
+        <v>7822.4648128826302</v>
       </c>
       <c r="AA279">
         <v>9222</v>
@@ -75701,19 +75684,19 @@
         <v>128.15004990778201</v>
       </c>
       <c r="V280">
-        <v>3018.1687876854298</v>
+        <v>2985.9807700517999</v>
       </c>
       <c r="W280">
-        <v>4422.0967498119498</v>
+        <v>4382.3288992266398</v>
       </c>
       <c r="X280">
-        <v>7602.5610991256999</v>
+        <v>7545.4965500792796</v>
       </c>
       <c r="Y280">
-        <v>10837.308371036201</v>
+        <v>10732.4486181098</v>
       </c>
       <c r="Z280">
-        <v>12306.1551304676</v>
+        <v>12233.061007616399</v>
       </c>
       <c r="AA280">
         <v>10791</v>
@@ -75958,19 +75941,19 @@
         <v>57.403271289049499</v>
       </c>
       <c r="V281">
-        <v>1545.6990534608501</v>
+        <v>1533.23136001901</v>
       </c>
       <c r="W281">
-        <v>2222.7648238317202</v>
+        <v>2203.3593439217402</v>
       </c>
       <c r="X281">
-        <v>3364.69505610846</v>
+        <v>3330.11571456924</v>
       </c>
       <c r="Y281">
-        <v>4414.2015925185897</v>
+        <v>4360.8619423603704</v>
       </c>
       <c r="Z281">
-        <v>5029.2784543535699</v>
+        <v>4993.73304730774</v>
       </c>
       <c r="AA281">
         <v>8459</v>
@@ -76215,19 +76198,19 @@
         <v>494.968828921046</v>
       </c>
       <c r="V282">
-        <v>18040.173414188499</v>
+        <v>18032.6358144199</v>
       </c>
       <c r="W282">
-        <v>25712.617766078602</v>
+        <v>25702.829980847499</v>
       </c>
       <c r="X282">
-        <v>37288.432240831396</v>
+        <v>37270.202943767101</v>
       </c>
       <c r="Y282">
-        <v>42397.2223486125</v>
+        <v>42388.885873806103</v>
       </c>
       <c r="Z282">
-        <v>50395.2120799392</v>
+        <v>50385.049593686701</v>
       </c>
       <c r="AA282">
         <v>42363</v>
@@ -76472,19 +76455,19 @@
         <v>208.14147115654501</v>
       </c>
       <c r="V283">
-        <v>9040.1873697075407</v>
+        <v>9035.3032869965791</v>
       </c>
       <c r="W283">
-        <v>12084.3304809275</v>
+        <v>12073.730402106299</v>
       </c>
       <c r="X283">
-        <v>17040.0776934844</v>
+        <v>17022.6135378135</v>
       </c>
       <c r="Y283">
-        <v>18951.596447328098</v>
+        <v>18941.392711668701</v>
       </c>
       <c r="Z283">
-        <v>20725.2640356376</v>
+        <v>20711.129418997101</v>
       </c>
       <c r="AA283">
         <v>19020</v>
@@ -76729,19 +76712,19 @@
         <v>248.91516544372899</v>
       </c>
       <c r="V284">
-        <v>8131.1117942800702</v>
+        <v>8118.8568336940198</v>
       </c>
       <c r="W284">
-        <v>11485.3597652551</v>
+        <v>11461.128499006099</v>
       </c>
       <c r="X284">
-        <v>16792.239499379299</v>
+        <v>16755.147996405802</v>
       </c>
       <c r="Y284">
-        <v>21059.8915409812</v>
+        <v>21042.495317138</v>
       </c>
       <c r="Z284">
-        <v>23583.867087288301</v>
+        <v>23561.949656439301</v>
       </c>
       <c r="AA284">
         <v>23037</v>
@@ -76986,19 +76969,19 @@
         <v>60.470932876662999</v>
       </c>
       <c r="V285">
-        <v>1793.8841016653801</v>
+        <v>1785.6279040034501</v>
       </c>
       <c r="W285">
-        <v>2709.2137875789799</v>
+        <v>2697.31872380494</v>
       </c>
       <c r="X285">
-        <v>4576.3958115044297</v>
+        <v>4557.8186432211896</v>
       </c>
       <c r="Y285">
-        <v>4638.9960862637899</v>
+        <v>4626.98368655993</v>
       </c>
       <c r="Z285">
-        <v>5149.6468517396097</v>
+        <v>5131.7489352142302</v>
       </c>
       <c r="AA285">
         <v>6498</v>
@@ -77243,19 +77226,19 @@
         <v>52.948567735897598</v>
       </c>
       <c r="V286">
-        <v>1094.7271805455</v>
+        <v>1084.95974183576</v>
       </c>
       <c r="W286">
-        <v>1537.17555139046</v>
+        <v>1518.8418115263601</v>
       </c>
       <c r="X286">
-        <v>3113.2632864624002</v>
+        <v>3078.7664195838502</v>
       </c>
       <c r="Y286">
-        <v>3802.9770492747102</v>
+        <v>3788.7538345960802</v>
       </c>
       <c r="Z286">
-        <v>4738.4252301731203</v>
+        <v>4716.7306998966797</v>
       </c>
       <c r="AA286">
         <v>4480</v>
@@ -77500,19 +77483,19 @@
         <v>128.97657971231101</v>
       </c>
       <c r="V287">
-        <v>1633.74748474374</v>
+        <v>1620.2163940584801</v>
       </c>
       <c r="W287">
-        <v>2882.6376845291502</v>
+        <v>2855.56561659617</v>
       </c>
       <c r="X287">
-        <v>5704.1568823688604</v>
+        <v>5657.0653893569097</v>
       </c>
       <c r="Y287">
-        <v>9189.3701670987994</v>
+        <v>9164.9360884071593</v>
       </c>
       <c r="Z287">
-        <v>13232.106837181</v>
+        <v>13197.7212416108</v>
       </c>
       <c r="AA287">
         <v>10570</v>
@@ -77757,19 +77740,19 @@
         <v>520.527014772195</v>
       </c>
       <c r="V288">
-        <v>21301.659992722001</v>
+        <v>21289.516408816398</v>
       </c>
       <c r="W288">
-        <v>30589.054056902602</v>
+        <v>30572.561113219199</v>
       </c>
       <c r="X288">
-        <v>45367.476069242402</v>
+        <v>45343.929794862401</v>
       </c>
       <c r="Y288">
-        <v>49455.5473586468</v>
+        <v>49444.926771597296</v>
       </c>
       <c r="Z288">
-        <v>51678.537143405498</v>
+        <v>51667.100726659301</v>
       </c>
       <c r="AA288">
         <v>50060</v>
@@ -78014,19 +77997,19 @@
         <v>54.9018835193949</v>
       </c>
       <c r="V289">
-        <v>1038.4947856214901</v>
+        <v>1022.16291739498</v>
       </c>
       <c r="W289">
-        <v>1892.1091093090599</v>
+        <v>1859.86816640694</v>
       </c>
       <c r="X289">
-        <v>3095.0310275253</v>
+        <v>3040.2208096772702</v>
       </c>
       <c r="Y289">
-        <v>3619.0328299153898</v>
+        <v>3594.5313237651399</v>
       </c>
       <c r="Z289">
-        <v>5125.2941223604603</v>
+        <v>5093.2690728847701</v>
       </c>
       <c r="AA289">
         <v>5035</v>
@@ -78268,19 +78251,19 @@
         <v>63.215740613332898</v>
       </c>
       <c r="V290">
-        <v>2277.1816341171798</v>
+        <v>2260.9394946853599</v>
       </c>
       <c r="W290">
-        <v>3209.0883356938498</v>
+        <v>3172.38265658717</v>
       </c>
       <c r="X290">
-        <v>4356.96740185402</v>
+        <v>4293.6997965550199</v>
       </c>
       <c r="Y290">
-        <v>5431.7499011516402</v>
+        <v>5407.4999959610104</v>
       </c>
       <c r="Z290">
-        <v>5956.4565891641996</v>
+        <v>5925.0631940285002</v>
       </c>
       <c r="AA290">
         <v>5944</v>
@@ -78525,19 +78508,19 @@
         <v>127.942341325456</v>
       </c>
       <c r="V291">
-        <v>871.52174168126703</v>
+        <v>858.14757915999701</v>
       </c>
       <c r="W291">
-        <v>1825.8567530556199</v>
+        <v>1799.01297895011</v>
       </c>
       <c r="X291">
-        <v>4894.7070060858496</v>
+        <v>4851.1653042479602</v>
       </c>
       <c r="Y291">
-        <v>8927.8486517287092</v>
+        <v>8905.6292668701408</v>
       </c>
       <c r="Z291">
-        <v>13316.5571609992</v>
+        <v>13286.28845421</v>
       </c>
       <c r="AA291">
         <v>13040</v>
@@ -78779,19 +78762,19 @@
         <v>123.142433395989</v>
       </c>
       <c r="V292">
-        <v>3761.79882927278</v>
+        <v>3742.9654709919801</v>
       </c>
       <c r="W292">
-        <v>4955.2696495891796</v>
+        <v>4923.8515192310797</v>
       </c>
       <c r="X292">
-        <v>8196.7623455764096</v>
+        <v>8144.8370010298904</v>
       </c>
       <c r="Y292">
-        <v>10919.629211232201</v>
+        <v>10844.9823970916</v>
       </c>
       <c r="Z292">
-        <v>11958.331337244599</v>
+        <v>11849.874246362901</v>
       </c>
       <c r="AA292">
         <v>9920</v>
@@ -79036,19 +79019,19 @@
         <v>875.62950841587599</v>
       </c>
       <c r="V293">
-        <v>28572.102862590898</v>
+        <v>28544.215116461601</v>
       </c>
       <c r="W293">
-        <v>36953.019096525801</v>
+        <v>36911.447794151201</v>
       </c>
       <c r="X293">
-        <v>57395.055006594797</v>
+        <v>57317.121857249003</v>
       </c>
       <c r="Y293">
-        <v>73068.779484631799</v>
+        <v>72984.299975966598</v>
       </c>
       <c r="Z293">
-        <v>88586.411736997907</v>
+        <v>88471.614200272306</v>
       </c>
       <c r="AA293">
         <v>75627</v>
@@ -79293,19 +79276,19 @@
         <v>108.273932094011</v>
       </c>
       <c r="V294">
-        <v>6415.0957612377497</v>
+        <v>6395.6565689159897</v>
       </c>
       <c r="W294">
-        <v>7152.1109297007297</v>
+        <v>7118.5350564799901</v>
       </c>
       <c r="X294">
-        <v>8569.2629648330203</v>
+        <v>8508.2514359450306</v>
       </c>
       <c r="Y294">
-        <v>12642.7063198711</v>
+        <v>12550.9461821242</v>
       </c>
       <c r="Z294">
-        <v>14658.7308226725</v>
+        <v>14524.934313445399</v>
       </c>
       <c r="AA294">
         <v>10499</v>
@@ -79550,19 +79533,19 @@
         <v>105.323131460033</v>
       </c>
       <c r="V295">
-        <v>2720.7937532145802</v>
+        <v>2708.9495530416302</v>
       </c>
       <c r="W295">
-        <v>3721.1803247615899</v>
+        <v>3700.7073828984298</v>
       </c>
       <c r="X295">
-        <v>6400.0903904244797</v>
+        <v>6365.4493821427304</v>
       </c>
       <c r="Y295">
-        <v>8339.8993924611605</v>
+        <v>8292.7763252289806</v>
       </c>
       <c r="Z295">
-        <v>9739.7362194754696</v>
+        <v>9671.8070665860396</v>
       </c>
       <c r="AA295">
         <v>9086</v>
@@ -79807,19 +79790,19 @@
         <v>141.516666666666</v>
       </c>
       <c r="V296">
-        <v>4112.1102423537204</v>
+        <v>4076.3016581708298</v>
       </c>
       <c r="W296">
-        <v>5330.8988502357697</v>
+        <v>5292.8178469220002</v>
       </c>
       <c r="X296">
-        <v>8771.76432216377</v>
+        <v>8725.2740254448399</v>
       </c>
       <c r="Y296">
-        <v>11224.1823706668</v>
+        <v>11164.7406003572</v>
       </c>
       <c r="Z296">
-        <v>12248.8106201176</v>
+        <v>12161.5211265898</v>
       </c>
       <c r="AA296">
         <v>16762</v>
@@ -80064,19 +80047,19 @@
         <v>397.73668028882201</v>
       </c>
       <c r="V297">
-        <v>2507.1934529063101</v>
+        <v>2488.4468463635299</v>
       </c>
       <c r="W297">
-        <v>8067.3382027149601</v>
+        <v>8039.9143664616104</v>
       </c>
       <c r="X297">
-        <v>16789.123184442698</v>
+        <v>16746.0630826304</v>
       </c>
       <c r="Y297">
-        <v>32889.1106471772</v>
+        <v>32817.225743683302</v>
       </c>
       <c r="Z297">
-        <v>44573.721331933397</v>
+        <v>44472.787734915299</v>
       </c>
       <c r="AA297">
         <v>41872</v>
@@ -80315,19 +80298,19 @@
         <v>53.459958888495599</v>
       </c>
       <c r="V298">
-        <v>752.37408423416503</v>
+        <v>746.22026258252401</v>
       </c>
       <c r="W298">
-        <v>1099.1220214523701</v>
+        <v>1087.4106240311701</v>
       </c>
       <c r="X298">
-        <v>2646.2570209268301</v>
+        <v>2627.0747649453901</v>
       </c>
       <c r="Y298">
-        <v>3928.1259477461799</v>
+        <v>3896.4797991636801</v>
       </c>
       <c r="Z298">
-        <v>4942.3791928823903</v>
+        <v>4895.0341981391402</v>
       </c>
       <c r="AA298">
         <v>5302</v>
@@ -80554,19 +80537,19 @@
         <v>1720.1259040667701</v>
       </c>
       <c r="V299">
-        <v>68824.974085964102</v>
+        <v>68810.462655323296</v>
       </c>
       <c r="W299">
-        <v>95358.586767559405</v>
+        <v>95337.695034739896</v>
       </c>
       <c r="X299">
-        <v>158344.36502961599</v>
+        <v>158305.78407735101</v>
       </c>
       <c r="Y299">
-        <v>175991.81808296801</v>
+        <v>175944.356303376</v>
       </c>
       <c r="Z299">
-        <v>212889.104134225</v>
+        <v>212809.65704161499</v>
       </c>
       <c r="AA299">
         <v>176562</v>
@@ -80811,19 +80794,19 @@
         <v>240.332434939313</v>
       </c>
       <c r="V300">
-        <v>2547.6581301947999</v>
+        <v>2529.9787789379702</v>
       </c>
       <c r="W300">
-        <v>4112.8723447858902</v>
+        <v>4081.6332621996398</v>
       </c>
       <c r="X300">
-        <v>9974.1792548888607</v>
+        <v>9916.9506167815598</v>
       </c>
       <c r="Y300">
-        <v>16997.752185741101</v>
+        <v>16897.726164843902</v>
       </c>
       <c r="Z300">
-        <v>24078.500299464202</v>
+        <v>23926.289187562201</v>
       </c>
       <c r="AA300">
         <v>28634</v>
@@ -81062,19 +81045,19 @@
         <v>69.7083333333333</v>
       </c>
       <c r="V301">
-        <v>3996.5990891396</v>
+        <v>3994.1708041188999</v>
       </c>
       <c r="W301">
-        <v>3697.0390928174302</v>
+        <v>3692.8135510242701</v>
       </c>
       <c r="X301">
-        <v>5207.8696195297298</v>
+        <v>5201.3023411076401</v>
       </c>
       <c r="Y301">
-        <v>7714.55858988829</v>
+        <v>7705.5419996952896</v>
       </c>
       <c r="Z301">
-        <v>11274.191236136199</v>
+        <v>11263.0604835268</v>
       </c>
       <c r="AA301">
         <v>5806</v>
@@ -81316,19 +81299,19 @@
         <v>308.19585999189599</v>
       </c>
       <c r="V302">
-        <v>11734.4384593498</v>
+        <v>11721.3159800216</v>
       </c>
       <c r="W302">
-        <v>14568.460825067499</v>
+        <v>14545.199316509699</v>
       </c>
       <c r="X302">
-        <v>21988.464100510599</v>
+        <v>21953.359246975</v>
       </c>
       <c r="Y302">
-        <v>26729.1486768373</v>
+        <v>26691.059251233099</v>
       </c>
       <c r="Z302">
-        <v>30431.797697585698</v>
+        <v>30378.959083767899</v>
       </c>
       <c r="AA302">
         <v>32909</v>
@@ -81573,19 +81556,19 @@
         <v>180.25348309217401</v>
       </c>
       <c r="V303">
-        <v>2920.2237806078701</v>
+        <v>2900.28480847009</v>
       </c>
       <c r="W303">
-        <v>4016.0021198385002</v>
+        <v>3987.27033113262</v>
       </c>
       <c r="X303">
-        <v>9689.5334877385994</v>
+        <v>9635.2260407539707</v>
       </c>
       <c r="Y303">
-        <v>14281.5589932781</v>
+        <v>14231.268453410499</v>
       </c>
       <c r="Z303">
-        <v>18260.456735617299</v>
+        <v>18191.1990580128</v>
       </c>
       <c r="AA303">
         <v>16302</v>
@@ -81830,19 +81813,19 @@
         <v>107.790995079213</v>
       </c>
       <c r="V304">
-        <v>5557.7664147576597</v>
+        <v>5553.2933860686298</v>
       </c>
       <c r="W304">
-        <v>6901.7791032289097</v>
+        <v>6892.4703081432399</v>
       </c>
       <c r="X304">
-        <v>8738.8793390670908</v>
+        <v>8722.5788659107802</v>
       </c>
       <c r="Y304">
-        <v>13238.746349650401</v>
+        <v>13216.569989564599</v>
       </c>
       <c r="Z304">
-        <v>14027.6419258837</v>
+        <v>13996.071356759599</v>
       </c>
       <c r="AA304">
         <v>9910</v>
@@ -82087,19 +82070,19 @@
         <v>76.586399112631995</v>
       </c>
       <c r="V305">
-        <v>3317.94845688738</v>
+        <v>3313.9292391505501</v>
       </c>
       <c r="W305">
-        <v>3982.67930484208</v>
+        <v>3976.5685635895002</v>
       </c>
       <c r="X305">
-        <v>5865.2261035945203</v>
+        <v>5853.77309951806</v>
       </c>
       <c r="Y305">
-        <v>8242.5422866929694</v>
+        <v>8226.55974714898</v>
       </c>
       <c r="Z305">
-        <v>8904.7044339546392</v>
+        <v>8882.2379841905495</v>
       </c>
       <c r="AA305">
         <v>8317</v>
@@ -82341,19 +82324,19 @@
         <v>2369.8512781200802</v>
       </c>
       <c r="V306">
-        <v>117941.16044219599</v>
+        <v>117914.914188685</v>
       </c>
       <c r="W306">
-        <v>147149.946252102</v>
+        <v>147108.724060915</v>
       </c>
       <c r="X306">
-        <v>220075.29994197501</v>
+        <v>220013.074923459</v>
       </c>
       <c r="Y306">
-        <v>281647.579102838</v>
+        <v>281562.94717444299</v>
       </c>
       <c r="Z306">
-        <v>370986.33014373301</v>
+        <v>370858.25113888702</v>
       </c>
       <c r="AA306">
         <v>230203</v>
@@ -82598,19 +82581,19 @@
         <v>65.1295023525375</v>
       </c>
       <c r="V307">
-        <v>776.62298731783005</v>
+        <v>769.34682481739299</v>
       </c>
       <c r="W307">
-        <v>1175.18197952897</v>
+        <v>1162.11448857187</v>
       </c>
       <c r="X307">
-        <v>2674.9178476019201</v>
+        <v>2649.19328326798</v>
       </c>
       <c r="Y307">
-        <v>4153.7116702470203</v>
+        <v>4112.1542712626297</v>
       </c>
       <c r="Z307">
-        <v>5788.2674902633098</v>
+        <v>5724.4706913373902</v>
       </c>
       <c r="AA307">
         <v>6394</v>
@@ -82855,19 +82838,19 @@
         <v>252.48333333333301</v>
       </c>
       <c r="V308">
-        <v>4629.9327848721196</v>
+        <v>4535.8017374044002</v>
       </c>
       <c r="W308">
-        <v>6792.6744054092596</v>
+        <v>6658.9602509961096</v>
       </c>
       <c r="X308">
-        <v>12667.691087245101</v>
+        <v>12477.576907868501</v>
       </c>
       <c r="Y308">
-        <v>18123.068003091899</v>
+        <v>17924.539662167099</v>
       </c>
       <c r="Z308">
-        <v>21267.752611497199</v>
+        <v>21043.538705482799</v>
       </c>
       <c r="AA308">
         <v>32353</v>
@@ -83112,19 +83095,19 @@
         <v>125.903008468113</v>
       </c>
       <c r="V309">
-        <v>9639.1516858348496</v>
+        <v>9631.0184992959403</v>
       </c>
       <c r="W309">
-        <v>11387.110742778201</v>
+        <v>11374.8210614567</v>
       </c>
       <c r="X309">
-        <v>14348.235688622301</v>
+        <v>14326.988353724901</v>
       </c>
       <c r="Y309">
-        <v>18780.979841311098</v>
+        <v>18755.203885121198</v>
       </c>
       <c r="Z309">
-        <v>22892.6944445142</v>
+        <v>22856.490660475301</v>
       </c>
       <c r="AA309">
         <v>10884</v>
@@ -83369,19 +83352,19 @@
         <v>142.50458229491599</v>
       </c>
       <c r="V310">
-        <v>6003.7224916991599</v>
+        <v>5981.4219179617503</v>
       </c>
       <c r="W310">
-        <v>6660.0955036637997</v>
+        <v>6634.3660084973299</v>
       </c>
       <c r="X310">
-        <v>9731.1109153071702</v>
+        <v>9686.0447999473399</v>
       </c>
       <c r="Y310">
-        <v>11879.287119836399</v>
+        <v>11830.337168453299</v>
       </c>
       <c r="Z310">
-        <v>13685.2375794667</v>
+        <v>13621.0869267705</v>
       </c>
       <c r="AA310">
         <v>15059</v>
@@ -83626,19 +83609,19 @@
         <v>115.462161258907</v>
       </c>
       <c r="V311">
-        <v>5083.3161373675603</v>
+        <v>5058.8052574042704</v>
       </c>
       <c r="W311">
-        <v>6100.1969503403898</v>
+        <v>6060.8648317662301</v>
       </c>
       <c r="X311">
-        <v>9036.6310135668791</v>
+        <v>8970.2728999077008</v>
       </c>
       <c r="Y311">
-        <v>10924.729292194001</v>
+        <v>10827.0268859752</v>
       </c>
       <c r="Z311">
-        <v>12142.395667782301</v>
+        <v>11999.904111084999</v>
       </c>
       <c r="AA311">
         <v>9524</v>
@@ -83883,19 +83866,19 @@
         <v>85.651950325380795</v>
       </c>
       <c r="V312">
-        <v>6026.9289141812196</v>
+        <v>6021.66837806284</v>
       </c>
       <c r="W312">
-        <v>7764.8606967908299</v>
+        <v>7756.8858788224798</v>
       </c>
       <c r="X312">
-        <v>8519.0465802519793</v>
+        <v>8504.65630292688</v>
       </c>
       <c r="Y312">
-        <v>12494.9490232395</v>
+        <v>12474.571389825</v>
       </c>
       <c r="Z312">
-        <v>24655.712042231899</v>
+        <v>24628.6295515907</v>
       </c>
       <c r="AA312">
         <v>8503</v>
@@ -84137,19 +84120,19 @@
         <v>175.83518301299901</v>
       </c>
       <c r="V313">
-        <v>2489.03403904165</v>
+        <v>2480.3005066351002</v>
       </c>
       <c r="W313">
-        <v>3667.4665774551399</v>
+        <v>3649.06382365535</v>
       </c>
       <c r="X313">
-        <v>7931.14622493975</v>
+        <v>7894.1468869366799</v>
       </c>
       <c r="Y313">
-        <v>13529.144116130899</v>
+        <v>13472.7448974421</v>
       </c>
       <c r="Z313">
-        <v>20957.153354760201</v>
+        <v>20882.722190871598</v>
       </c>
       <c r="AA313">
         <v>18631</v>
@@ -84388,19 +84371,19 @@
         <v>165.06644706267801</v>
       </c>
       <c r="V314">
-        <v>10015.830597861101</v>
+        <v>10001.1269002176</v>
       </c>
       <c r="W314">
-        <v>11339.3920077164</v>
+        <v>11322.1767676492</v>
       </c>
       <c r="X314">
-        <v>14659.3883470164</v>
+        <v>14635.6330900184</v>
       </c>
       <c r="Y314">
-        <v>18163.083061215999</v>
+        <v>18130.888118325998</v>
       </c>
       <c r="Z314">
-        <v>21767.646373584099</v>
+        <v>21723.312390688501</v>
       </c>
       <c r="AA314">
         <v>17975</v>
@@ -84645,19 +84628,19 @@
         <v>82.368832147039996</v>
       </c>
       <c r="V315">
-        <v>4224.0039720274999</v>
+        <v>4221.3249982582502</v>
       </c>
       <c r="W315">
-        <v>4245.6727727767602</v>
+        <v>4240.9398140890698</v>
       </c>
       <c r="X315">
-        <v>6643.21711259937</v>
+        <v>6634.4365551042301</v>
       </c>
       <c r="Y315">
-        <v>7594.4371480220798</v>
+        <v>7584.1691442347301</v>
       </c>
       <c r="Z315">
-        <v>8458.5198200062896</v>
+        <v>8446.6260635981198</v>
       </c>
       <c r="AA315">
         <v>11329</v>
@@ -84899,19 +84882,19 @@
         <v>31.446766750377702</v>
       </c>
       <c r="V316">
-        <v>793.48822562136297</v>
+        <v>784.07352381170995</v>
       </c>
       <c r="W316">
-        <v>1153.28642700862</v>
+        <v>1138.5826148170199</v>
       </c>
       <c r="X316">
-        <v>1809.27972224668</v>
+        <v>1786.4349888301799</v>
       </c>
       <c r="Y316">
-        <v>2878.4036297326402</v>
+        <v>2844.4241647034701</v>
       </c>
       <c r="Z316">
-        <v>3021.0605871305002</v>
+        <v>2977.2205718635901</v>
       </c>
       <c r="AA316">
         <v>4459</v>
@@ -85156,19 +85139,19 @@
         <v>104.391666666666</v>
       </c>
       <c r="V317">
-        <v>3481.0109640105202</v>
+        <v>3458.8165140065298</v>
       </c>
       <c r="W317">
-        <v>4607.6882744457698</v>
+        <v>4573.4022047158496</v>
       </c>
       <c r="X317">
-        <v>7827.9410637396904</v>
+        <v>7765.8219248944297</v>
       </c>
       <c r="Y317">
-        <v>9682.8069223820803</v>
+        <v>9586.2694397191299</v>
       </c>
       <c r="Z317">
-        <v>11789.3246184118</v>
+        <v>11644.6377259161</v>
       </c>
       <c r="AA317">
         <v>12088</v>
@@ -85413,19 +85396,19 @@
         <v>883.82712207920804</v>
       </c>
       <c r="V318">
-        <v>27652.959679027601</v>
+        <v>27636.4747111787</v>
       </c>
       <c r="W318">
-        <v>41941.811149430003</v>
+        <v>41912.396221142997</v>
       </c>
       <c r="X318">
-        <v>67734.165580301196</v>
+        <v>67677.6582106102</v>
       </c>
       <c r="Y318">
-        <v>85898.951476167</v>
+        <v>85847.706425634999</v>
       </c>
       <c r="Z318">
-        <v>101577.86466884099</v>
+        <v>101508.988066922</v>
       </c>
       <c r="AA318">
         <v>90139</v>
@@ -85670,19 +85653,19 @@
         <v>62.106442419692897</v>
       </c>
       <c r="V319">
-        <v>3778.8033354978402</v>
+        <v>3767.2690406217798</v>
       </c>
       <c r="W319">
-        <v>3821.42834363678</v>
+        <v>3801.4465972452999</v>
       </c>
       <c r="X319">
-        <v>5040.6771116722102</v>
+        <v>5006.8616444336703</v>
       </c>
       <c r="Y319">
-        <v>5637.9973175146197</v>
+        <v>5601.1782939322902</v>
       </c>
       <c r="Z319">
-        <v>6141.74455512446</v>
+        <v>6093.3545038194798</v>
       </c>
       <c r="AA319">
         <v>6494</v>
@@ -85927,19 +85910,19 @@
         <v>48.230206590511997</v>
       </c>
       <c r="V320">
-        <v>2447.43555888736</v>
+        <v>2433.8337464841502</v>
       </c>
       <c r="W320">
-        <v>2703.4062713267699</v>
+        <v>2681.8512303962898</v>
       </c>
       <c r="X320">
-        <v>4088.2048299026301</v>
+        <v>4053.75424316507</v>
       </c>
       <c r="Y320">
-        <v>4458.9722118591299</v>
+        <v>4415.7659681089499</v>
       </c>
       <c r="Z320">
-        <v>5132.0751592100296</v>
+        <v>5071.8262383746596</v>
       </c>
       <c r="AA320">
         <v>4067</v>
@@ -86181,19 +86164,19 @@
         <v>742.74356655605004</v>
       </c>
       <c r="V321">
-        <v>14039.962389264299</v>
+        <v>14028.308142264201</v>
       </c>
       <c r="W321">
-        <v>23623.119523953999</v>
+        <v>23604.317739456401</v>
       </c>
       <c r="X321">
-        <v>47391.804568576597</v>
+        <v>47361.244264953799</v>
       </c>
       <c r="Y321">
-        <v>63620.128664110904</v>
+        <v>63581.037875897397</v>
       </c>
       <c r="Z321">
-        <v>83573.594687119607</v>
+        <v>83519.662530289497</v>
       </c>
       <c r="AA321">
         <v>66656</v>
@@ -86438,19 +86421,19 @@
         <v>40.839355269485701</v>
       </c>
       <c r="V322">
-        <v>2388.4665694436098</v>
+        <v>2375.5255617888502</v>
       </c>
       <c r="W322">
-        <v>2706.8258070060001</v>
+        <v>2685.7378300860501</v>
       </c>
       <c r="X322">
-        <v>3901.4763014519599</v>
+        <v>3868.0522900291598</v>
       </c>
       <c r="Y322">
-        <v>4459.50490387011</v>
+        <v>4413.4804714025204</v>
       </c>
       <c r="Z322">
-        <v>5530.4496991919004</v>
+        <v>5459.9780876918403</v>
       </c>
       <c r="AA322">
         <v>5158</v>
@@ -86677,19 +86660,19 @@
         <v>102.333333333333</v>
       </c>
       <c r="V323">
-        <v>2078.2162927639502</v>
+        <v>2067.7618350031598</v>
       </c>
       <c r="W323">
-        <v>3107.2909629885999</v>
+        <v>3095.7005629069799</v>
       </c>
       <c r="X323">
-        <v>5817.8829091750704</v>
+        <v>5800.2515926572196</v>
       </c>
       <c r="Y323">
-        <v>7726.6583310753404</v>
+        <v>7702.3921519466803</v>
       </c>
       <c r="Z323">
-        <v>9068.2440012952393</v>
+        <v>9032.2118443458203</v>
       </c>
       <c r="AA323">
         <v>11209</v>
@@ -86934,19 +86917,19 @@
         <v>54.411269157686398</v>
       </c>
       <c r="V324">
-        <v>3652.4208163626899</v>
+        <v>3644.97505459473</v>
       </c>
       <c r="W324">
-        <v>3943.0061646115</v>
+        <v>3932.0557835569798</v>
       </c>
       <c r="X324">
-        <v>5183.8588514404701</v>
+        <v>5166.57859431211</v>
       </c>
       <c r="Y324">
-        <v>5637.8064350923796</v>
+        <v>5617.21161720282</v>
       </c>
       <c r="Z324">
-        <v>6120.0923302668798</v>
+        <v>6090.5014054970998</v>
       </c>
       <c r="AA324">
         <v>6134</v>
@@ -87188,19 +87171,19 @@
         <v>165.72918162468</v>
       </c>
       <c r="V325">
-        <v>998.35731110126903</v>
+        <v>976.74585225632904</v>
       </c>
       <c r="W325">
-        <v>1725.59832780598</v>
+        <v>1689.76696828388</v>
       </c>
       <c r="X325">
-        <v>6764.7664843012299</v>
+        <v>6702.6674774080902</v>
       </c>
       <c r="Y325">
-        <v>12857.546910319499</v>
+        <v>12776.7891253977</v>
       </c>
       <c r="Z325">
-        <v>16635.607456838501</v>
+        <v>16528.712635911499</v>
       </c>
       <c r="AA325">
         <v>16621</v>
@@ -87445,19 +87428,19 @@
         <v>123.070212018113</v>
       </c>
       <c r="V326">
-        <v>3121.3074588300401</v>
+        <v>3114.7898789815799</v>
       </c>
       <c r="W326">
-        <v>4540.87769516974</v>
+        <v>4531.7721668454296</v>
       </c>
       <c r="X326">
-        <v>7208.6512533072801</v>
+        <v>7185.2828292007098</v>
       </c>
       <c r="Y326">
-        <v>9467.0006111900693</v>
+        <v>9451.2373525127296</v>
       </c>
       <c r="Z326">
-        <v>11721.2474950302</v>
+        <v>11700.386568727799</v>
       </c>
       <c r="AA326">
         <v>13950</v>
@@ -87702,19 +87685,19 @@
         <v>686.00053228353704</v>
       </c>
       <c r="V327">
-        <v>17502.539963385101</v>
+        <v>17493.844184997699</v>
       </c>
       <c r="W327">
-        <v>25003.524582352999</v>
+        <v>24974.182230875998</v>
       </c>
       <c r="X327">
-        <v>44348.728526665996</v>
+        <v>44270.363898114803</v>
       </c>
       <c r="Y327">
-        <v>57106.717704804803</v>
+        <v>57035.168478888998</v>
       </c>
       <c r="Z327">
-        <v>67562.09445094</v>
+        <v>67446.827225579997</v>
       </c>
       <c r="AA327">
         <v>74939</v>
@@ -87959,19 +87942,19 @@
         <v>234.094085510854</v>
       </c>
       <c r="V328">
-        <v>3763.7437297336201</v>
+        <v>3745.9878502187398</v>
       </c>
       <c r="W328">
-        <v>5708.0419879798401</v>
+        <v>5683.0956306784501</v>
       </c>
       <c r="X328">
-        <v>10949.326254297101</v>
+        <v>10887.096678547799</v>
       </c>
       <c r="Y328">
-        <v>15001.598595048599</v>
+        <v>14933.743525170101</v>
       </c>
       <c r="Z328">
-        <v>20018.628148215499</v>
+        <v>19921.449123851002</v>
       </c>
       <c r="AA328">
         <v>34369</v>
@@ -88216,19 +88199,19 @@
         <v>60.9166666666666</v>
       </c>
       <c r="V329">
-        <v>411.31746406980898</v>
+        <v>408.226291673525</v>
       </c>
       <c r="W329">
-        <v>816.29573453076398</v>
+        <v>811.89234869950997</v>
       </c>
       <c r="X329">
-        <v>2510.67369673451</v>
+        <v>2498.38514334199</v>
       </c>
       <c r="Y329">
-        <v>3758.9141511174198</v>
+        <v>3746.1425563084199</v>
       </c>
       <c r="Z329">
-        <v>5013.2640488673196</v>
+        <v>4994.5132918109402</v>
       </c>
       <c r="AA329">
         <v>11289</v>
@@ -88458,19 +88441,19 @@
         <v>102.555894437162</v>
       </c>
       <c r="V330">
-        <v>3205.15496088295</v>
+        <v>3197.0931122254601</v>
       </c>
       <c r="W330">
-        <v>4395.0334106712098</v>
+        <v>4381.5269894163102</v>
       </c>
       <c r="X330">
-        <v>6898.3702839910002</v>
+        <v>6866.13811419381</v>
       </c>
       <c r="Y330">
-        <v>8789.4365732858205</v>
+        <v>8764.2761381622695</v>
       </c>
       <c r="Z330">
-        <v>9495.9860726336901</v>
+        <v>9460.0560573724997</v>
       </c>
       <c r="AA330">
         <v>10552</v>
@@ -88715,19 +88698,19 @@
         <v>175.830089926178</v>
       </c>
       <c r="V331">
-        <v>1270.08654191761</v>
+        <v>1258.6796822311901</v>
       </c>
       <c r="W331">
-        <v>2888.7889100861498</v>
+        <v>2869.3514014887201</v>
       </c>
       <c r="X331">
-        <v>8375.8838537742395</v>
+        <v>8341.5380496452108</v>
       </c>
       <c r="Y331">
-        <v>16153.1850360557</v>
+        <v>16112.545689102801</v>
       </c>
       <c r="Z331">
-        <v>19219.376075884102</v>
+        <v>19145.586644937699</v>
       </c>
       <c r="AA331">
         <v>18234</v>
@@ -88972,19 +88955,19 @@
         <v>108.158385931726</v>
       </c>
       <c r="V332">
-        <v>5444.11367821767</v>
+        <v>5443.9389532204104</v>
       </c>
       <c r="W332">
-        <v>8341.3061886262894</v>
+        <v>8340.8783129616404</v>
       </c>
       <c r="X332">
-        <v>11226.597862537699</v>
+        <v>11225.9352097601</v>
       </c>
       <c r="Y332">
-        <v>15387.7936208107</v>
+        <v>15387.3085749615</v>
       </c>
       <c r="Z332">
-        <v>14665.7231091453</v>
+        <v>14664.8560718463</v>
       </c>
       <c r="AA332">
         <v>9813</v>
@@ -89229,19 +89212,19 @@
         <v>104.579546703977</v>
       </c>
       <c r="V333">
-        <v>1548.4999409473501</v>
+        <v>1543.7571922119801</v>
       </c>
       <c r="W333">
-        <v>3390.9517932966201</v>
+        <v>3384.54507308648</v>
       </c>
       <c r="X333">
-        <v>6887.8136749496998</v>
+        <v>6875.9414312279096</v>
       </c>
       <c r="Y333">
-        <v>9363.3929097998098</v>
+        <v>9354.3874511462309</v>
       </c>
       <c r="Z333">
-        <v>9783.0937848632602</v>
+        <v>9768.9976733252606</v>
       </c>
       <c r="AA333">
         <v>11672</v>
@@ -89483,19 +89466,19 @@
         <v>56.555274866483899</v>
       </c>
       <c r="V334">
-        <v>4394.17990788323</v>
+        <v>4394.0313081034901</v>
       </c>
       <c r="W334">
-        <v>6012.7326611159297</v>
+        <v>6012.5776179322202</v>
       </c>
       <c r="X334">
-        <v>6226.7594570931597</v>
+        <v>6226.5122435659496</v>
       </c>
       <c r="Y334">
-        <v>7080.5177472792702</v>
+        <v>7080.3279597974597</v>
       </c>
       <c r="Z334">
-        <v>6279.6487154030201</v>
+        <v>6279.2900632185501</v>
       </c>
       <c r="AA334">
         <v>5177</v>
@@ -89740,19 +89723,19 @@
         <v>104.23270561144599</v>
       </c>
       <c r="V335">
-        <v>4358.0150648381295</v>
+        <v>4357.8089393682003</v>
       </c>
       <c r="W335">
-        <v>6788.3321583300103</v>
+        <v>6788.0036392703696</v>
       </c>
       <c r="X335">
-        <v>9049.9184082067895</v>
+        <v>9049.5501550086792</v>
       </c>
       <c r="Y335">
-        <v>12044.674416108201</v>
+        <v>12044.175173080501</v>
       </c>
       <c r="Z335">
-        <v>12691.3104701989</v>
+        <v>12690.4341647123</v>
       </c>
       <c r="AA335">
         <v>8122</v>
@@ -89997,19 +89980,19 @@
         <v>145.015647439644</v>
       </c>
       <c r="V336">
-        <v>11108.051921202001</v>
+        <v>11107.788524035501</v>
       </c>
       <c r="W336">
-        <v>14625.6837719014</v>
+        <v>14625.354420305301</v>
       </c>
       <c r="X336">
-        <v>15149.115717512799</v>
+        <v>15148.602733848</v>
       </c>
       <c r="Y336">
-        <v>17469.887580061801</v>
+        <v>17469.508395126901</v>
       </c>
       <c r="Z336">
-        <v>17763.7407815199</v>
+        <v>17763.009836302601</v>
       </c>
       <c r="AA336">
         <v>10494</v>
@@ -90254,19 +90237,19 @@
         <v>46.6800295970815</v>
       </c>
       <c r="V337">
-        <v>4677.52788169616</v>
+        <v>4677.2664150482497</v>
       </c>
       <c r="W337">
-        <v>5741.8790274739704</v>
+        <v>5741.7142750643297</v>
       </c>
       <c r="X337">
-        <v>4947.1621362628302</v>
+        <v>4947.0522045406096</v>
       </c>
       <c r="Y337">
-        <v>5792.9219245211098</v>
+        <v>5792.8288379774804</v>
       </c>
       <c r="Z337">
-        <v>6161.4705642181598</v>
+        <v>6161.28298121639</v>
       </c>
       <c r="AA337">
         <v>4163</v>
@@ -90508,19 +90491,19 @@
         <v>162.60417435819599</v>
       </c>
       <c r="V338">
-        <v>12684.093939496401</v>
+        <v>12683.450864951499</v>
       </c>
       <c r="W338">
-        <v>16252.8181019362</v>
+        <v>16252.408491034001</v>
       </c>
       <c r="X338">
-        <v>18249.009119082199</v>
+        <v>18248.510324090701</v>
       </c>
       <c r="Y338">
-        <v>17003.4844140924</v>
+        <v>17003.114234551002</v>
       </c>
       <c r="Z338">
-        <v>17068.435017207001</v>
+        <v>17067.787251230799</v>
       </c>
       <c r="AA338">
         <v>12101</v>
@@ -90765,19 +90748,19 @@
         <v>71.979221383955505</v>
       </c>
       <c r="V339">
-        <v>3783.08533044655</v>
+        <v>3782.8143323946902</v>
       </c>
       <c r="W339">
-        <v>5766.1708637238298</v>
+        <v>5765.7131992663199</v>
       </c>
       <c r="X339">
-        <v>7196.93518973969</v>
+        <v>7196.3774316878798</v>
       </c>
       <c r="Y339">
-        <v>7008.7755789729099</v>
+        <v>7008.3313603317101</v>
       </c>
       <c r="Z339">
-        <v>7285.3504476128701</v>
+        <v>7284.3927017596698</v>
       </c>
       <c r="AA339">
         <v>5366</v>
@@ -91019,19 +91002,19 @@
         <v>30.184340587056401</v>
       </c>
       <c r="V340">
-        <v>1217.6736322684101</v>
+        <v>1211.8923191178999</v>
       </c>
       <c r="W340">
-        <v>1318.0371915671701</v>
+        <v>1310.9164425487299</v>
       </c>
       <c r="X340">
-        <v>1915.55896826043</v>
+        <v>1905.40843447558</v>
       </c>
       <c r="Y340">
-        <v>2803.8536986888398</v>
+        <v>2791.4306159122498</v>
       </c>
       <c r="Z340">
-        <v>3220.90278404538</v>
+        <v>3199.4056457021902</v>
       </c>
       <c r="AA340">
         <v>2802</v>
@@ -91273,19 +91256,19 @@
         <v>183.959726903269</v>
       </c>
       <c r="V341">
-        <v>4997.8347258445001</v>
+        <v>4994.0376324025501</v>
       </c>
       <c r="W341">
-        <v>9842.7529517144594</v>
+        <v>9838.7170053812606</v>
       </c>
       <c r="X341">
-        <v>15824.735490466001</v>
+        <v>15820.167143627399</v>
       </c>
       <c r="Y341">
-        <v>19267.1854122728</v>
+        <v>19261.483467802202</v>
       </c>
       <c r="Z341">
-        <v>20032.531199973098</v>
+        <v>20022.2384046509</v>
       </c>
       <c r="AA341">
         <v>22268</v>
@@ -91530,19 +91513,19 @@
         <v>71.776349567027395</v>
       </c>
       <c r="V342">
-        <v>2624.5494915140598</v>
+        <v>2618.2684882712201</v>
       </c>
       <c r="W342">
-        <v>3726.2013037309998</v>
+        <v>3714.0577548274</v>
       </c>
       <c r="X342">
-        <v>5071.1909739206903</v>
+        <v>5049.4104545527698</v>
       </c>
       <c r="Y342">
-        <v>7028.7229702558798</v>
+        <v>7010.0227553831501</v>
       </c>
       <c r="Z342">
-        <v>7231.5112034475596</v>
+        <v>7199.5486096418799</v>
       </c>
       <c r="AA342">
         <v>5373</v>
@@ -91766,19 +91749,19 @@
         <v>66.891666666666595</v>
       </c>
       <c r="V343">
-        <v>2372.1555908511</v>
+        <v>2343.2624160241598</v>
       </c>
       <c r="W343">
-        <v>3613.00471889344</v>
+        <v>3569.1629076803702</v>
       </c>
       <c r="X343">
-        <v>5968.8868245569802</v>
+        <v>5895.9519073016099</v>
       </c>
       <c r="Y343">
-        <v>7840.3058399600604</v>
+        <v>7785.2801668771099</v>
       </c>
       <c r="Z343">
-        <v>7878.9393942134202</v>
+        <v>7771.8855516843196</v>
       </c>
       <c r="AA343">
         <v>5698</v>
@@ -92002,19 +91985,19 @@
         <v>78.669628761796005</v>
       </c>
       <c r="V344">
-        <v>4425.4676763105499</v>
+        <v>4391.68398594681</v>
       </c>
       <c r="W344">
-        <v>4850.62135846005</v>
+        <v>4749.5457547057504</v>
       </c>
       <c r="X344">
-        <v>6171.0158251478597</v>
+        <v>5977.39761862662</v>
       </c>
       <c r="Y344">
-        <v>9021.0265967982505</v>
+        <v>8724.4734742900091</v>
       </c>
       <c r="Z344">
-        <v>9115.5424798732402</v>
+        <v>8776.6801879055402</v>
       </c>
       <c r="AA344">
         <v>7779</v>
@@ -92259,19 +92242,19 @@
         <v>151.77022413274199</v>
       </c>
       <c r="V345">
-        <v>4817.4363656854903</v>
+        <v>4798.4297384641104</v>
       </c>
       <c r="W345">
-        <v>7452.2449350697398</v>
+        <v>7409.2760200838702</v>
       </c>
       <c r="X345">
-        <v>11896.0201649561</v>
+        <v>11813.5835716028</v>
       </c>
       <c r="Y345">
-        <v>15189.8603233021</v>
+        <v>15061.7332365941</v>
       </c>
       <c r="Z345">
-        <v>18616.957843341399</v>
+        <v>18473.166166111601</v>
       </c>
       <c r="AA345">
         <v>18226</v>
@@ -92516,19 +92499,19 @@
         <v>31.5970379048706</v>
       </c>
       <c r="V346">
-        <v>969.21518151481303</v>
+        <v>940.44664957535997</v>
       </c>
       <c r="W346">
-        <v>1551.2410973548899</v>
+        <v>1457.97669332954</v>
       </c>
       <c r="X346">
-        <v>2018.40936335836</v>
+        <v>1830.42458959846</v>
       </c>
       <c r="Y346">
-        <v>2938.7316286200598</v>
+        <v>2648.4546072214298</v>
       </c>
       <c r="Z346">
-        <v>3506.4824426220098</v>
+        <v>3170.6481654649201</v>
       </c>
       <c r="AA346">
         <v>3813</v>
@@ -92746,19 +92729,19 @@
         <v>1352.30935837062</v>
       </c>
       <c r="V347">
-        <v>62628.900897100997</v>
+        <v>62583.0442623204</v>
       </c>
       <c r="W347">
-        <v>95643.060105706696</v>
+        <v>95513.990034945993</v>
       </c>
       <c r="X347">
-        <v>140091.53060221201</v>
+        <v>139919.50132549199</v>
       </c>
       <c r="Y347">
-        <v>162034.87850454301</v>
+        <v>161822.94204797701</v>
       </c>
       <c r="Z347">
-        <v>197890.66436107701</v>
+        <v>197688.67297572701</v>
       </c>
       <c r="AA347">
         <v>129022</v>
@@ -93003,19 +92986,19 @@
         <v>306.64999999999998</v>
       </c>
       <c r="V348">
-        <v>12845.109783104799</v>
+        <v>12815.634406233101</v>
       </c>
       <c r="W348">
-        <v>18668.839793837698</v>
+        <v>18604.656357140699</v>
       </c>
       <c r="X348">
-        <v>24063.3637726341</v>
+        <v>23957.164591746699</v>
       </c>
       <c r="Y348">
-        <v>30262.250721666402</v>
+        <v>30143.8467465268</v>
       </c>
       <c r="Z348">
-        <v>33857.114735442497</v>
+        <v>33751.5575809648</v>
       </c>
       <c r="AA348">
         <v>35635</v>
@@ -93260,19 +93243,19 @@
         <v>293.67397496271298</v>
       </c>
       <c r="V349">
-        <v>9207.5869613821706</v>
+        <v>9175.5727675819508</v>
       </c>
       <c r="W349">
-        <v>15664.4283747014</v>
+        <v>15594.683309710799</v>
       </c>
       <c r="X349">
-        <v>23339.751135445898</v>
+        <v>23229.912441439199</v>
       </c>
       <c r="Y349">
-        <v>32488.593206380301</v>
+        <v>32363.952991530001</v>
       </c>
       <c r="Z349">
-        <v>39270.782727773403</v>
+        <v>39149.0907208887</v>
       </c>
       <c r="AA349">
         <v>30436</v>
@@ -93514,19 +93497,19 @@
         <v>226.64006392120601</v>
       </c>
       <c r="V350">
-        <v>10216.3699820823</v>
+        <v>10187.978675812699</v>
       </c>
       <c r="W350">
-        <v>12574.7182599639</v>
+        <v>12521.1375099261</v>
       </c>
       <c r="X350">
-        <v>18691.1279328087</v>
+        <v>18586.231636966699</v>
       </c>
       <c r="Y350">
-        <v>22081.910055681201</v>
+        <v>21931.004036522099</v>
       </c>
       <c r="Z350">
-        <v>24214.8374769492</v>
+        <v>24070.354441735399</v>
       </c>
       <c r="AA350">
         <v>25265</v>
@@ -93771,19 +93754,19 @@
         <v>113.05</v>
       </c>
       <c r="V351">
-        <v>3978.0911577532002</v>
+        <v>3956.5660913666202</v>
       </c>
       <c r="W351">
-        <v>5715.8067361256499</v>
+        <v>5667.80874250532</v>
       </c>
       <c r="X351">
-        <v>8177.7050443498802</v>
+        <v>8081.1947398825596</v>
       </c>
       <c r="Y351">
-        <v>9753.7290788454393</v>
+        <v>9625.5612300010707</v>
       </c>
       <c r="Z351">
-        <v>10829.027013639799</v>
+        <v>10697.5773554847</v>
       </c>
       <c r="AA351">
         <v>11537</v>
@@ -94028,19 +94011,19 @@
         <v>91.016666666666694</v>
       </c>
       <c r="V352">
-        <v>2957.1777830974502</v>
+        <v>2923.0356905645099</v>
       </c>
       <c r="W352">
-        <v>4765.9011317607001</v>
+        <v>4686.7725252927903</v>
       </c>
       <c r="X352">
-        <v>7509.7987951519599</v>
+        <v>7359.4862232489904</v>
       </c>
       <c r="Y352">
-        <v>9681.8752494624696</v>
+        <v>9471.4447514366893</v>
       </c>
       <c r="Z352">
-        <v>10023.381659443001</v>
+        <v>9792.4556801936105</v>
       </c>
       <c r="AA352">
         <v>11065</v>
@@ -94285,19 +94268,19 @@
         <v>83.325000000000003</v>
       </c>
       <c r="V353">
-        <v>4453.8882306175101</v>
+        <v>4316.5615052989297</v>
       </c>
       <c r="W353">
-        <v>6256.2581186753796</v>
+        <v>5814.8649708249204</v>
       </c>
       <c r="X353">
-        <v>7779.7635528363398</v>
+        <v>7010.2415259975796</v>
       </c>
       <c r="Y353">
-        <v>8697.5653258574403</v>
+        <v>7476.3245751562899</v>
       </c>
       <c r="Z353">
-        <v>9932.6962425801503</v>
+        <v>8365.6945243952305</v>
       </c>
       <c r="AA353">
         <v>13536</v>
@@ -94542,19 +94525,19 @@
         <v>159.061795757266</v>
       </c>
       <c r="V354">
-        <v>5140.8565693043802</v>
+        <v>5124.0180792340398</v>
       </c>
       <c r="W354">
-        <v>7712.5653100274703</v>
+        <v>7682.5359772120801</v>
       </c>
       <c r="X354">
-        <v>12769.9222086421</v>
+        <v>12723.9915025513</v>
       </c>
       <c r="Y354">
-        <v>13994.0486362315</v>
+        <v>13929.699405203</v>
       </c>
       <c r="Z354">
-        <v>15450.6956120383</v>
+        <v>15361.4099664806</v>
       </c>
       <c r="AA354">
         <v>16335</v>
@@ -94799,19 +94782,19 @@
         <v>346.59226936587402</v>
       </c>
       <c r="V355">
-        <v>11902.7982559599</v>
+        <v>11865.030430544501</v>
       </c>
       <c r="W355">
-        <v>16579.8334904351</v>
+        <v>16508.572251410998</v>
       </c>
       <c r="X355">
-        <v>24409.819978784599</v>
+        <v>24301.8312825924</v>
       </c>
       <c r="Y355">
-        <v>31218.9540967998</v>
+        <v>31064.421991868101</v>
       </c>
       <c r="Z355">
-        <v>36608.316140143797</v>
+        <v>36393.213077612098</v>
       </c>
       <c r="AA355">
         <v>28792</v>
@@ -95056,19 +95039,19 @@
         <v>60.258473061480998</v>
       </c>
       <c r="V356">
-        <v>2160.9417280733201</v>
+        <v>2150.0020940992099</v>
       </c>
       <c r="W356">
-        <v>2703.11743420721</v>
+        <v>2683.3913397231099</v>
       </c>
       <c r="X356">
-        <v>4186.1257369274199</v>
+        <v>4154.0275768567099</v>
       </c>
       <c r="Y356">
-        <v>4909.3217795397704</v>
+        <v>4853.7936872886703</v>
       </c>
       <c r="Z356">
-        <v>5516.6637180625703</v>
+        <v>5437.3522585713399</v>
       </c>
       <c r="AA356">
         <v>4874</v>
@@ -95313,19 +95296,19 @@
         <v>62.098773656760201</v>
       </c>
       <c r="V357">
-        <v>2477.2090120610101</v>
+        <v>2469.1600465433298</v>
       </c>
       <c r="W357">
-        <v>2516.6214741471299</v>
+        <v>2505.2287539930498</v>
       </c>
       <c r="X357">
-        <v>3911.6872870403599</v>
+        <v>3895.8352470786399</v>
       </c>
       <c r="Y357">
-        <v>4450.2752810966003</v>
+        <v>4425.7099150453896</v>
       </c>
       <c r="Z357">
-        <v>5133.1248466731704</v>
+        <v>5109.3012167113902</v>
       </c>
       <c r="AA357">
         <v>5023</v>
@@ -95570,19 +95553,19 @@
         <v>73.031246969700902</v>
       </c>
       <c r="V358">
-        <v>2971.6617825697599</v>
+        <v>2962.48569201808</v>
       </c>
       <c r="W358">
-        <v>4030.8410135496401</v>
+        <v>4013.5751906953901</v>
       </c>
       <c r="X358">
-        <v>5653.24071225228</v>
+        <v>5624.7129745727198</v>
       </c>
       <c r="Y358">
-        <v>5991.2313016566604</v>
+        <v>5956.9177248941896</v>
       </c>
       <c r="Z358">
-        <v>6622.5956803717199</v>
+        <v>6560.9717923601002</v>
       </c>
       <c r="AA358">
         <v>6316</v>
@@ -95827,19 +95810,19 @@
         <v>508.72055785198597</v>
       </c>
       <c r="V359">
-        <v>34011.804146888098</v>
+        <v>34007.556134660299</v>
       </c>
       <c r="W359">
-        <v>39619.762180584701</v>
+        <v>39614.637504963001</v>
       </c>
       <c r="X359">
-        <v>44816.906356118299</v>
+        <v>44813.179406454001</v>
       </c>
       <c r="Y359">
-        <v>46360.341397208998</v>
+        <v>46354.253401714799</v>
       </c>
       <c r="Z359">
-        <v>48413.003941146897</v>
+        <v>48404.290020428998</v>
       </c>
       <c r="AA359">
         <v>46627</v>
@@ -96084,19 +96067,19 @@
         <v>111.065372292185</v>
       </c>
       <c r="V360">
-        <v>3702.34539270102</v>
+        <v>3680.07828039386</v>
       </c>
       <c r="W360">
-        <v>5464.9528064331998</v>
+        <v>5429.6495195544903</v>
       </c>
       <c r="X360">
-        <v>8271.9162125855491</v>
+        <v>8218.5143922882507</v>
       </c>
       <c r="Y360">
-        <v>9202.60409427593</v>
+        <v>9134.9033137094102</v>
       </c>
       <c r="Z360">
-        <v>10215.4010462685</v>
+        <v>10122.3207090011</v>
       </c>
       <c r="AA360">
         <v>10017</v>
@@ -96338,19 +96321,19 @@
         <v>77.266666666666595</v>
       </c>
       <c r="V361">
-        <v>4524.4964612787699</v>
+        <v>4513.4816750889104</v>
       </c>
       <c r="W361">
-        <v>5455.0808820943703</v>
+        <v>5437.6907494276902</v>
       </c>
       <c r="X361">
-        <v>6740.8031819322696</v>
+        <v>6715.9290494532497</v>
       </c>
       <c r="Y361">
-        <v>6920.9404741095695</v>
+        <v>6889.3988189437796</v>
       </c>
       <c r="Z361">
-        <v>7142.5000931682798</v>
+        <v>7099.30367826772</v>
       </c>
       <c r="AA361">
         <v>6402</v>
@@ -96592,19 +96575,19 @@
         <v>67.674999999999997</v>
       </c>
       <c r="V362">
-        <v>2661.9756128791801</v>
+        <v>2644.4602149747402</v>
       </c>
       <c r="W362">
-        <v>3693.8633661446802</v>
+        <v>3662.6429494143599</v>
       </c>
       <c r="X362">
-        <v>5210.1822674054201</v>
+        <v>5160.16018750085</v>
       </c>
       <c r="Y362">
-        <v>5133.24217299887</v>
+        <v>5063.1482404045801</v>
       </c>
       <c r="Z362">
-        <v>5861.2495582208503</v>
+        <v>5762.0023074111396</v>
       </c>
       <c r="AA362">
         <v>6767</v>
@@ -96846,19 +96829,19 @@
         <v>252.26161806935099</v>
       </c>
       <c r="V363">
-        <v>6401.2262070960096</v>
+        <v>6390.2212203468298</v>
       </c>
       <c r="W363">
-        <v>10937.961932190599</v>
+        <v>10919.835634015901</v>
       </c>
       <c r="X363">
-        <v>19096.074093460102</v>
+        <v>19068.8065463557</v>
       </c>
       <c r="Y363">
-        <v>22559.654097206101</v>
+        <v>22532.1082218642</v>
       </c>
       <c r="Z363">
-        <v>26067.0581721989</v>
+        <v>26031.549652748101</v>
       </c>
       <c r="AA363">
         <v>26631</v>
@@ -97103,19 +97086,19 @@
         <v>96.649999999999906</v>
       </c>
       <c r="V364">
-        <v>3393.3074527448698</v>
+        <v>3381.35047324077</v>
       </c>
       <c r="W364">
-        <v>4799.1906269137298</v>
+        <v>4778.9675702037903</v>
       </c>
       <c r="X364">
-        <v>7244.2170142435198</v>
+        <v>7211.9914036206101</v>
       </c>
       <c r="Y364">
-        <v>8304.2351944310194</v>
+        <v>8252.8610759540898</v>
       </c>
       <c r="Z364">
-        <v>9086.5037497829107</v>
+        <v>9010.7807075306991</v>
       </c>
       <c r="AA364">
         <v>7132</v>
@@ -97360,19 +97343,19 @@
         <v>46.45</v>
       </c>
       <c r="V365">
-        <v>2384.4489133505199</v>
+        <v>2373.7415631424801</v>
       </c>
       <c r="W365">
-        <v>2497.92056940765</v>
+        <v>2488.1886359505302</v>
       </c>
       <c r="X365">
-        <v>3244.5616645442801</v>
+        <v>3228.7742274625898</v>
       </c>
       <c r="Y365">
-        <v>4702.3672194225701</v>
+        <v>4676.27021091605</v>
       </c>
       <c r="Z365">
-        <v>5153.43861160078</v>
+        <v>5105.9127207129704</v>
       </c>
       <c r="AA365">
         <v>4575</v>
@@ -97611,19 +97594,19 @@
         <v>38.825000000000003</v>
       </c>
       <c r="V366">
-        <v>4293.0220438705001</v>
+        <v>4285.2786544917699</v>
       </c>
       <c r="W366">
-        <v>2972.1513459194498</v>
+        <v>2965.6727786619799</v>
       </c>
       <c r="X366">
-        <v>2969.7575139575101</v>
+        <v>2961.65739592503</v>
       </c>
       <c r="Y366">
-        <v>4460.4943021101699</v>
+        <v>4449.4115731641295</v>
       </c>
       <c r="Z366">
-        <v>4915.7130072893497</v>
+        <v>4896.3548553832898</v>
       </c>
       <c r="AD366">
         <v>110036.825420751</v>
@@ -97780,7 +97763,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CG366"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
